--- a/02_Database/Vehicle_Data.xlsx
+++ b/02_Database/Vehicle_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Lehre\02 Vorlesungen\Entwicklung+Simulation\EundS - WS 20-21\01_Organisation\06_Übung\PrFKE_Tool1_KOKEP-Eigenschaftstool_WiSe1920\Eigenschaftstool_V6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga26cij\Documents\Customer-Oriented-Concept-Assessment-COCA-Tool\02_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE33F49-DA5E-4759-9736-B1AA805E9B0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708BAF75-91E1-4905-96F0-264561EB52A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle Data" sheetId="1" r:id="rId1"/>
@@ -400,9 +400,6 @@
     <t>Wheel diameter</t>
   </si>
   <si>
-    <t>Ratio Length/Heigth</t>
-  </si>
-  <si>
     <t>Climbing ability</t>
   </si>
   <si>
@@ -506,6 +503,9 @@
   </si>
   <si>
     <t>Lateral acceleration</t>
+  </si>
+  <si>
+    <t>Ratio Length/Height</t>
   </si>
 </sst>
 </file>
@@ -925,11 +925,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,10 +941,10 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E1" t="s">
         <v>33</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6">
         <v>110</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7">
         <v>150</v>
@@ -1442,10 +1442,10 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
         <v>130</v>
-      </c>
-      <c r="B8" t="s">
-        <v>131</v>
       </c>
       <c r="D8">
         <v>3750</v>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" t="s">
         <v>132</v>
-      </c>
-      <c r="B9" t="s">
-        <v>133</v>
       </c>
       <c r="D9">
         <v>280</v>
@@ -1644,10 +1644,10 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10">
         <v>1500</v>
@@ -1748,7 +1748,7 @@
         <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="2">
         <v>11.5</v>
@@ -1849,7 +1849,7 @@
         <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12">
         <v>182</v>
@@ -1947,10 +1947,10 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13">
         <f>TAN(ASIN((2*D9*12*0.95)/(9.81*(D40+D44)*D27*0.001)-0.012))*100</f>
@@ -2079,10 +2079,10 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14">
         <v>1.04</v>
@@ -2183,7 +2183,7 @@
         <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15">
         <v>11.9</v>
@@ -2287,15 +2287,15 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
         <v>46</v>
@@ -2396,10 +2396,10 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19">
         <v>1904</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s">
         <v>140</v>
-      </c>
-      <c r="B20" t="s">
-        <v>141</v>
       </c>
       <c r="D20">
         <v>1990</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -2865,7 +2865,7 @@
         <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23">
         <v>3000</v>
@@ -2966,7 +2966,7 @@
         <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -3070,7 +3070,7 @@
         <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s">
         <v>45</v>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -3275,7 +3275,7 @@
         <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D27">
         <f>205*0.65*2+25.4*16</f>
@@ -3412,7 +3412,7 @@
         <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30">
         <v>1070</v>
@@ -3513,7 +3513,7 @@
         <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31">
         <v>1070</v>
@@ -3614,7 +3614,7 @@
         <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32">
         <f>0.5*D23-400</f>
@@ -3739,7 +3739,7 @@
         <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D33">
         <v>69.599999999999994</v>
@@ -3850,7 +3850,7 @@
         <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D36">
         <v>657</v>
@@ -3951,7 +3951,7 @@
         <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" s="7">
         <f t="shared" ref="D37:AG37" si="9" xml:space="preserve"> (D41/D45) *100</f>
@@ -4076,7 +4076,7 @@
         <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -4278,7 +4278,7 @@
         <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D40">
         <v>1218</v>
@@ -4379,7 +4379,7 @@
         <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D41">
         <v>80</v>
@@ -4485,7 +4485,7 @@
         <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D44">
         <v>1862</v>
@@ -4583,10 +4583,10 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" t="s">
         <v>150</v>
-      </c>
-      <c r="B45" t="s">
-        <v>151</v>
       </c>
       <c r="D45">
         <v>9.1</v>
@@ -4687,7 +4687,7 @@
         <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D46">
         <v>34355</v>
@@ -4886,10 +4886,10 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" t="s">
         <v>153</v>
-      </c>
-      <c r="B48" t="s">
-        <v>154</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -4987,7 +4987,7 @@
         <v>108</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
         <v>96</v>
@@ -5139,8 +5139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5404,127 +5404,127 @@
       </c>
       <c r="D5">
         <f ca="1">RANDBETWEEN(50,100)/10</f>
-        <v>7.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:T19" ca="1" si="0">RANDBETWEEN(50,100)/10</f>
+        <v>9.1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.7</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="0"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.4</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.4</v>
-      </c>
-      <c r="J5">
+      <c r="M5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.9</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.9</v>
+      </c>
+      <c r="S5">
         <f t="shared" ca="1" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="K5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.4</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.9</v>
-      </c>
-      <c r="R5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8</v>
-      </c>
-      <c r="S5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
-      </c>
       <c r="T5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="U5">
         <f t="shared" ref="U5:AH10" ca="1" si="1">RANDBETWEEN(50,100)/10</f>
-        <v>9.4</v>
+        <v>6.6</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="W5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7</v>
+        <v>9.4</v>
       </c>
       <c r="X5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="Y5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="Z5">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3</v>
+        <v>10</v>
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
       <c r="AC5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6</v>
+        <v>6</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="AE5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9</v>
+        <v>8.1</v>
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AG5">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8000000000000007</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
@@ -5533,123 +5533,123 @@
       </c>
       <c r="D6">
         <f t="shared" ref="D6:S36" ca="1" si="2">RANDBETWEEN(50,100)/10</f>
-        <v>6.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ca="1" si="0"/>
         <v>7.4</v>
       </c>
-      <c r="K6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="L6">
+      <c r="P6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.4</v>
+      </c>
+      <c r="Q6">
         <f t="shared" ca="1" si="0"/>
         <v>7.3</v>
       </c>
-      <c r="M6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.9</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.8</v>
-      </c>
-      <c r="O6">
+      <c r="R6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="T6">
         <f t="shared" ca="1" si="0"/>
         <v>8.5</v>
-      </c>
-      <c r="P6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1</v>
-      </c>
-      <c r="R6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.9</v>
-      </c>
-      <c r="S6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="T6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.1</v>
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="W6">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="X6">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y6">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="Z6">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1</v>
+        <v>9.9</v>
       </c>
       <c r="AA6">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6999999999999993</v>
+        <v>6.1</v>
       </c>
       <c r="AC6">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE6">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AG6">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="AH6">
         <f t="shared" ca="1" si="1"/>
@@ -5662,184 +5662,184 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.9</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="0"/>
         <v>9.4</v>
       </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="J7">
+      <c r="M7">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P7">
         <f t="shared" ca="1" si="0"/>
         <v>8.4</v>
       </c>
-      <c r="K7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.1</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.3</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.9</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="P7">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.9</v>
-      </c>
       <c r="Q7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
+        <v>7.1</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3000000000000007</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9</v>
+        <v>6.2</v>
       </c>
       <c r="W7">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="X7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>5.7</v>
       </c>
       <c r="Y7">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Z7">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6999999999999993</v>
+        <v>7.6</v>
       </c>
       <c r="AA7">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="AC7">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3</v>
+        <v>7.7</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AE7">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AG7">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9</v>
+        <v>5.2</v>
       </c>
       <c r="AH7">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8000000000000007</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1</v>
+        <v>5.6</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3000000000000007</v>
+        <v>10</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
+        <v>6.3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ca="1" si="0"/>
         <v>5.6</v>
       </c>
-      <c r="M8">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7</v>
-      </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="0"/>
@@ -5847,200 +5847,200 @@
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1</v>
+        <v>6.3</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="W8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6</v>
+        <v>10</v>
       </c>
       <c r="X8">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
       <c r="Y8">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1</v>
+        <v>8.5</v>
       </c>
       <c r="Z8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AA8">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AC8">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6999999999999993</v>
+        <v>7.1</v>
       </c>
       <c r="AE8">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7.1</v>
       </c>
       <c r="AG8">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5.8</v>
       </c>
       <c r="AH8">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="0"/>
         <v>5.2</v>
       </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.7</v>
-      </c>
-      <c r="F9">
+      <c r="M9">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="O9">
         <f t="shared" ca="1" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.4</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.8</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.1</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.1</v>
-      </c>
-      <c r="N9">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.2</v>
-      </c>
-      <c r="O9">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
-      </c>
       <c r="P9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6</v>
+        <v>7.1</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1</v>
+        <v>5.2</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W9">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="X9">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y9">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8</v>
+        <v>9</v>
       </c>
       <c r="Z9">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
       <c r="AA9">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7</v>
+        <v>9</v>
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9</v>
+        <v>9.5</v>
       </c>
       <c r="AC9">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AE9">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7</v>
+        <v>8.1</v>
       </c>
       <c r="AG9">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9</v>
+        <v>9.1</v>
       </c>
       <c r="AH9">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -6049,127 +6049,127 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.9</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ca="1" si="0"/>
         <v>9.9</v>
       </c>
-      <c r="J10">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="K10">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6</v>
-      </c>
-      <c r="L10">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7</v>
-      </c>
-      <c r="N10">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7</v>
-      </c>
-      <c r="O10">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.9</v>
-      </c>
-      <c r="P10">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.9</v>
-      </c>
       <c r="R10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="T10">
+        <f t="shared" ca="1" si="0"/>
         <v>8.5</v>
-      </c>
-      <c r="T10">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.3</v>
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1999999999999993</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="W10">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X10">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y10">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="Z10">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="AA10">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3000000000000007</v>
+        <v>9</v>
       </c>
       <c r="AC10">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9</v>
+        <v>6.4</v>
       </c>
       <c r="AE10">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4</v>
+        <v>7.3</v>
       </c>
       <c r="AG10">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="AH10">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
@@ -6181,127 +6181,127 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.9</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.9</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ca="1" si="0"/>
         <v>6.2</v>
       </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.4</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.9</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1</v>
-      </c>
-      <c r="K12">
+      <c r="O12">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6</v>
+      </c>
+      <c r="Q12">
         <f t="shared" ca="1" si="0"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="L12">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="M12">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.8</v>
-      </c>
-      <c r="N12">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1</v>
-      </c>
-      <c r="O12">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7</v>
-      </c>
-      <c r="P12">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.7</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3</v>
-      </c>
       <c r="R12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="0"/>
+        <v>9.9</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ca="1" si="0"/>
         <v>9.8000000000000007</v>
-      </c>
-      <c r="T12">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.9</v>
       </c>
       <c r="U12">
         <f t="shared" ref="U12:AH21" ca="1" si="3">RANDBETWEEN(50,100)/10</f>
+        <v>5.7</v>
+      </c>
+      <c r="V12">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="X12">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.4</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" ca="1" si="3"/>
         <v>7.6</v>
       </c>
-      <c r="V12">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.3</v>
-      </c>
-      <c r="W12">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.7</v>
-      </c>
-      <c r="X12">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.3</v>
-      </c>
-      <c r="Y12">
+      <c r="Z12">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.4</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.9</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.3</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AD12">
         <f t="shared" ca="1" si="3"/>
         <v>9.9</v>
       </c>
-      <c r="Z12">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.6</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.6</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.1</v>
-      </c>
       <c r="AE12">
         <f t="shared" ca="1" si="3"/>
-        <v>6.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AG12">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1</v>
+        <v>5.8</v>
       </c>
       <c r="AH12">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -6310,127 +6310,127 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.1</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ca="1" si="0"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.1</v>
-      </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="0"/>
+      <c r="O13">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.4</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="V13">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.3</v>
+      </c>
+      <c r="W13">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.9</v>
+      </c>
+      <c r="X13">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.6</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" ca="1" si="3"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="H13">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.1</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.9</v>
-      </c>
-      <c r="J13">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.9</v>
-      </c>
-      <c r="K13">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L13">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.4</v>
-      </c>
-      <c r="M13">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2</v>
-      </c>
-      <c r="N13">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O13">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.9</v>
-      </c>
-      <c r="P13">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AA13">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.9</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.4</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.9</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" ca="1" si="3"/>
         <v>9.1999999999999993</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="R13">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.2</v>
-      </c>
-      <c r="S13">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="T13">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="U13">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.3</v>
-      </c>
-      <c r="V13">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.5</v>
-      </c>
-      <c r="W13">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.6</v>
-      </c>
-      <c r="X13">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.4</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.9</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.7</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.7</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.7</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="AF13">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AG13">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.1</v>
-      </c>
-      <c r="AH13">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.4</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
@@ -6439,11 +6439,11 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8</v>
+        <v>5.9</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
@@ -6451,107 +6451,107 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
+        <v>5.3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U14">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="V14">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.5</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" ca="1" si="3"/>
         <v>6.8</v>
       </c>
-      <c r="J14">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6</v>
-      </c>
-      <c r="K14">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.1</v>
-      </c>
-      <c r="L14">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Z14">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.7</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.4</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
-      <c r="N14">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="P14">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.2</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="R14">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.4</v>
-      </c>
-      <c r="S14">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6</v>
-      </c>
-      <c r="T14">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7</v>
-      </c>
-      <c r="U14">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.8</v>
-      </c>
-      <c r="V14">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.6</v>
-      </c>
-      <c r="W14">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.6</v>
-      </c>
-      <c r="X14">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.9</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.9</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.3000000000000007</v>
-      </c>
       <c r="AE14">
         <f t="shared" ca="1" si="3"/>
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG14">
         <f t="shared" ca="1" si="3"/>
@@ -6559,7 +6559,7 @@
       </c>
       <c r="AH14">
         <f t="shared" ca="1" si="3"/>
-        <v>8.8000000000000007</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
@@ -6568,127 +6568,127 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3000000000000007</v>
+        <v>7.5</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
+        <v>7.7</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R15">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.7</v>
+      </c>
+      <c r="S15">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="U15">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="V15">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="W15">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.4</v>
+      </c>
+      <c r="X15">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.6</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" ca="1" si="3"/>
         <v>5.5</v>
       </c>
-      <c r="J15">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.3</v>
-      </c>
-      <c r="K15">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="L15">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="N15">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="O15">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
-      </c>
-      <c r="P15">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.6</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="R15">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="S15">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.3</v>
-      </c>
-      <c r="T15">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Z15">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.8</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.7</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" ca="1" si="3"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="U15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.2</v>
-      </c>
-      <c r="V15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.4</v>
-      </c>
-      <c r="W15">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.4</v>
-      </c>
-      <c r="X15">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.1</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.9</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.4</v>
-      </c>
-      <c r="AB15">
+      <c r="AC15">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.1</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="AF15">
         <f t="shared" ca="1" si="3"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="AC15">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.4</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.5</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.4</v>
-      </c>
-      <c r="AF15">
+      <c r="AG15">
         <f t="shared" ca="1" si="3"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="AG15">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.9</v>
-      </c>
       <c r="AH15">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
@@ -6700,127 +6700,127 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
+        <v>9.1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.9</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ca="1" si="0"/>
         <v>7.3</v>
       </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.6</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="0"/>
+      <c r="S17">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.4</v>
+      </c>
+      <c r="U17">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.9</v>
+      </c>
+      <c r="V17">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.1</v>
+      </c>
+      <c r="W17">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.7</v>
+      </c>
+      <c r="X17">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.6</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.7</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.1</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" ca="1" si="3"/>
         <v>9.6</v>
       </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1</v>
-      </c>
-      <c r="I17">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J17">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="K17">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7</v>
-      </c>
-      <c r="L17">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="M17">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="N17">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="O17">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.9</v>
-      </c>
-      <c r="P17">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="R17">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.9</v>
-      </c>
-      <c r="S17">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.2</v>
-      </c>
-      <c r="T17">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7</v>
-      </c>
-      <c r="U17">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.4</v>
-      </c>
-      <c r="V17">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="W17">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.6</v>
-      </c>
-      <c r="X17">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.9</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.7</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.7</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.4</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.4</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.2</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.9</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AF17">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.4</v>
-      </c>
-      <c r="AG17">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.6</v>
-      </c>
       <c r="AH17">
         <f t="shared" ca="1" si="3"/>
-        <v>9.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
@@ -6833,123 +6833,123 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.6</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="I18">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J18">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K18">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Q18">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="V18">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="X18">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.6</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.9</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.3</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" ca="1" si="3"/>
         <v>9.3000000000000007</v>
       </c>
-      <c r="L18">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.1</v>
-      </c>
-      <c r="M18">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="N18">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.2</v>
-      </c>
-      <c r="O18">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.2</v>
-      </c>
-      <c r="P18">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.4</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="R18">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.3</v>
-      </c>
-      <c r="S18">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8</v>
-      </c>
-      <c r="T18">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="U18">
+      <c r="AB18">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.5</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.9</v>
+      </c>
+      <c r="AD18">
         <f t="shared" ca="1" si="3"/>
         <v>7.7</v>
       </c>
-      <c r="V18">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.4</v>
-      </c>
-      <c r="W18">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.4</v>
-      </c>
-      <c r="X18">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.4</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.1</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.1</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.9</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.5</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.5</v>
-      </c>
       <c r="AE18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="AF18">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AG18">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AH18">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
@@ -6958,127 +6958,127 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="0"/>
         <v>9.4</v>
       </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H19">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.3</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="U19">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.1</v>
+      </c>
+      <c r="V19">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.2</v>
+      </c>
+      <c r="W19">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="X19">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.7</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.1</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.9</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.2</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.9</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" ca="1" si="3"/>
         <v>6.9</v>
       </c>
-      <c r="F19">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I19">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7</v>
-      </c>
-      <c r="J19">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.9</v>
-      </c>
-      <c r="K19">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L19">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AF19">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.7</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" ca="1" si="3"/>
         <v>8.4</v>
       </c>
-      <c r="M19">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6</v>
-      </c>
-      <c r="N19">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.1</v>
-      </c>
-      <c r="O19">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="P19">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.9</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.4</v>
-      </c>
-      <c r="R19">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.7</v>
-      </c>
-      <c r="S19">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.1</v>
-      </c>
-      <c r="T19">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="U19">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.1</v>
-      </c>
-      <c r="V19">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.4</v>
-      </c>
-      <c r="W19">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="X19">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.1</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.7</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.9</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.4</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.2</v>
-      </c>
-      <c r="AD19">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9</v>
-      </c>
-      <c r="AE19">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.2</v>
-      </c>
-      <c r="AF19">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.8</v>
-      </c>
-      <c r="AG19">
+      <c r="AH19">
         <f t="shared" ca="1" si="3"/>
         <v>7.6</v>
-      </c>
-      <c r="AH19">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.1</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
@@ -7087,63 +7087,63 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8000000000000007</v>
+        <v>5.3</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.3</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ca="1" si="2"/>
         <v>5.6</v>
       </c>
-      <c r="G20">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.1</v>
-      </c>
-      <c r="I20">
+      <c r="M20">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.7</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Q20">
         <f t="shared" ca="1" si="2"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="J20">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.9</v>
-      </c>
-      <c r="K20">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.9</v>
-      </c>
-      <c r="L20">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.8</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.6</v>
-      </c>
-      <c r="N20">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.9</v>
-      </c>
-      <c r="O20">
+      <c r="R20">
         <f t="shared" ca="1" si="2"/>
         <v>8.1999999999999993</v>
-      </c>
-      <c r="P20">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="R20">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
       </c>
       <c r="S20">
         <f t="shared" ca="1" si="2"/>
@@ -7151,63 +7151,63 @@
       </c>
       <c r="T20">
         <f t="shared" ref="Q20:T21" ca="1" si="4">RANDBETWEEN(50,100)/10</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="U20">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.7</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.7</v>
+      </c>
+      <c r="W20">
+        <f t="shared" ca="1" si="3"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="U20">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="V20">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.1</v>
-      </c>
-      <c r="W20">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
       <c r="X20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="Y20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.2</v>
+        <v>8.6</v>
       </c>
       <c r="Z20">
         <f t="shared" ca="1" si="3"/>
+        <v>9.5</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.6</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.4</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.4</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" ca="1" si="3"/>
         <v>9.4</v>
       </c>
-      <c r="AA20">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.4</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.4</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="AD20">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9</v>
-      </c>
-      <c r="AE20">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.3000000000000007</v>
-      </c>
       <c r="AF20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="AG20">
         <f t="shared" ca="1" si="3"/>
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH20">
         <f t="shared" ca="1" si="3"/>
-        <v>9.3000000000000007</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.3">
@@ -7216,127 +7216,127 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.9</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.6</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.7</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.9</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.8</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ca="1" si="2"/>
         <v>8.1</v>
       </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G21">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.3</v>
-      </c>
-      <c r="H21">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="I21">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.9</v>
-      </c>
-      <c r="J21">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="K21">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.6</v>
-      </c>
-      <c r="L21">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="M21">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="N21">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.5</v>
-      </c>
       <c r="O21">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1</v>
+        <v>8.5</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="2"/>
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="4"/>
-        <v>7.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="4"/>
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
       <c r="S21">
         <f t="shared" ca="1" si="4"/>
-        <v>9.6</v>
+        <v>5.2</v>
       </c>
       <c r="T21">
         <f t="shared" ca="1" si="4"/>
-        <v>7.3</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="U21">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="V21">
         <f t="shared" ca="1" si="3"/>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="W21">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="X21">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0999999999999996</v>
+        <v>7.7</v>
       </c>
       <c r="Y21">
         <f t="shared" ca="1" si="3"/>
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
       <c r="Z21">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4</v>
+        <v>6.1</v>
       </c>
       <c r="AA21">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0999999999999996</v>
+        <v>8.9</v>
       </c>
       <c r="AB21">
         <f t="shared" ca="1" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="AC21">
         <f t="shared" ca="1" si="3"/>
-        <v>9.8000000000000007</v>
+        <v>7</v>
       </c>
       <c r="AD21">
         <f t="shared" ca="1" si="3"/>
+        <v>8.6</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.8</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" ca="1" si="3"/>
         <v>5.7</v>
       </c>
-      <c r="AE21">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="AF21">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.3</v>
-      </c>
-      <c r="AG21">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.2</v>
-      </c>
       <c r="AH21">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
@@ -7348,127 +7348,127 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
+        <v>6.4</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.6</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ca="1" si="2"/>
         <v>5.7</v>
       </c>
-      <c r="E23">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.9</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.7</v>
-      </c>
-      <c r="G23">
+      <c r="M23">
         <f t="shared" ca="1" si="2"/>
         <v>5.3</v>
       </c>
-      <c r="H23">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.4</v>
-      </c>
-      <c r="I23">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.3</v>
-      </c>
-      <c r="J23">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.7</v>
-      </c>
-      <c r="K23">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L23">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="M23">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.3</v>
-      </c>
       <c r="N23">
         <f t="shared" ca="1" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.1</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ca="1" si="2"/>
         <v>7.2</v>
       </c>
-      <c r="O23">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="P23">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
-      </c>
       <c r="Q23">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
+        <v>6.2</v>
       </c>
       <c r="R23">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="S23">
         <f t="shared" ca="1" si="2"/>
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="T23">
         <f t="shared" ref="T23:AH28" ca="1" si="5">RANDBETWEEN(50,100)/10</f>
-        <v>9.1</v>
+        <v>7.3</v>
       </c>
       <c r="U23">
         <f t="shared" ca="1" si="5"/>
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="V23">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="W23">
         <f t="shared" ca="1" si="5"/>
-        <v>6.4</v>
+        <v>9.1</v>
       </c>
       <c r="X23">
         <f t="shared" ca="1" si="5"/>
-        <v>8.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y23">
         <f t="shared" ca="1" si="5"/>
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="Z23">
         <f t="shared" ca="1" si="5"/>
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA23">
         <f t="shared" ca="1" si="5"/>
-        <v>9.3000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AB23">
         <f t="shared" ca="1" si="5"/>
-        <v>7.8</v>
+        <v>5</v>
       </c>
       <c r="AC23">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>5.9</v>
       </c>
       <c r="AD23">
         <f t="shared" ca="1" si="5"/>
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="AE23">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>9.9</v>
       </c>
       <c r="AF23">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AG23">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0999999999999996</v>
+        <v>7.8</v>
       </c>
       <c r="AH23">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.3">
@@ -7477,87 +7477,87 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
+        <v>7.1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.6</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.4</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.3</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="2"/>
         <v>6.7</v>
       </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.5</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.3</v>
-      </c>
-      <c r="H24">
+      <c r="L24">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.9</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.1</v>
+      </c>
+      <c r="N24">
         <f t="shared" ca="1" si="2"/>
         <v>7.9</v>
       </c>
-      <c r="I24">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.9</v>
-      </c>
-      <c r="J24">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
-      </c>
-      <c r="K24">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.4</v>
-      </c>
-      <c r="L24">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="M24">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.8</v>
-      </c>
-      <c r="N24">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.5</v>
-      </c>
       <c r="O24">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9</v>
+        <v>7</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="R24">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5</v>
+        <v>5.4</v>
       </c>
       <c r="S24">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="T24">
         <f t="shared" ca="1" si="5"/>
-        <v>8.8000000000000007</v>
+        <v>6.7</v>
       </c>
       <c r="U24">
         <f t="shared" ca="1" si="5"/>
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="V24">
         <f t="shared" ca="1" si="5"/>
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="W24">
         <f t="shared" ca="1" si="5"/>
-        <v>5.5</v>
+        <v>6.9</v>
       </c>
       <c r="X24">
         <f t="shared" ca="1" si="5"/>
-        <v>8.1999999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="Y24">
         <f t="shared" ca="1" si="5"/>
@@ -7565,39 +7565,39 @@
       </c>
       <c r="Z24">
         <f t="shared" ca="1" si="5"/>
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="AA24">
         <f t="shared" ca="1" si="5"/>
-        <v>9.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB24">
         <f t="shared" ca="1" si="5"/>
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC24">
         <f t="shared" ca="1" si="5"/>
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="AD24">
         <f t="shared" ca="1" si="5"/>
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="AE24">
         <f t="shared" ca="1" si="5"/>
-        <v>6.3</v>
+        <v>9.1</v>
       </c>
       <c r="AF24">
         <f t="shared" ca="1" si="5"/>
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="AG24">
         <f t="shared" ca="1" si="5"/>
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="AH24">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.3">
@@ -7606,99 +7606,99 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>9.6</v>
+        <v>5.4</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7</v>
+        <v>9.5</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
+        <v>6.2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.9</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ca="1" si="2"/>
         <v>6</v>
       </c>
-      <c r="H25">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.8</v>
-      </c>
-      <c r="I25">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J25">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.6</v>
-      </c>
-      <c r="K25">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.8</v>
-      </c>
-      <c r="L25">
+      <c r="O25">
         <f t="shared" ca="1" si="2"/>
         <v>5.3</v>
       </c>
-      <c r="M25">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.4</v>
-      </c>
-      <c r="N25">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.4</v>
-      </c>
-      <c r="O25">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.4</v>
-      </c>
       <c r="P25">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1999999999999993</v>
+        <v>6.9</v>
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="2"/>
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="S25">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="T25">
         <f t="shared" ca="1" si="5"/>
-        <v>5.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="U25">
         <f t="shared" ca="1" si="5"/>
-        <v>8.9</v>
+        <v>6.1</v>
       </c>
       <c r="V25">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="W25">
         <f t="shared" ca="1" si="5"/>
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="X25">
         <f t="shared" ca="1" si="5"/>
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="Y25">
         <f t="shared" ca="1" si="5"/>
-        <v>8.1</v>
+        <v>6.7</v>
       </c>
       <c r="Z25">
         <f t="shared" ca="1" si="5"/>
-        <v>6.6</v>
+        <v>8.4</v>
       </c>
       <c r="AA25">
         <f t="shared" ca="1" si="5"/>
-        <v>5.3</v>
+        <v>6.7</v>
       </c>
       <c r="AB25">
         <f t="shared" ca="1" si="5"/>
@@ -7706,27 +7706,27 @@
       </c>
       <c r="AC25">
         <f t="shared" ca="1" si="5"/>
-        <v>8.8000000000000007</v>
+        <v>5</v>
       </c>
       <c r="AD25">
         <f t="shared" ca="1" si="5"/>
-        <v>8.3000000000000007</v>
+        <v>10</v>
       </c>
       <c r="AE25">
         <f t="shared" ca="1" si="5"/>
-        <v>8.8000000000000007</v>
+        <v>8.1</v>
       </c>
       <c r="AF25">
         <f t="shared" ca="1" si="5"/>
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
       <c r="AG25">
         <f t="shared" ca="1" si="5"/>
-        <v>9.8000000000000007</v>
+        <v>5</v>
       </c>
       <c r="AH25">
         <f t="shared" ca="1" si="5"/>
-        <v>7.4</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.3">
@@ -7735,127 +7735,127 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
+        <v>5.8</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="2"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.6</v>
-      </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
+        <v>5.4</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
+        <v>6.4</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="2"/>
         <v>6.2</v>
       </c>
-      <c r="H26">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.5</v>
-      </c>
       <c r="I26">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1</v>
+        <v>6.2</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="2"/>
+        <v>6.9</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ca="1" si="2"/>
         <v>8.4</v>
       </c>
-      <c r="L26">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.5</v>
-      </c>
       <c r="M26">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6</v>
+        <v>9.6</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="2"/>
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5</v>
+        <v>5.6</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="S26">
         <f t="shared" ca="1" si="2"/>
-        <v>6.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="T26">
         <f t="shared" ca="1" si="5"/>
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="U26">
         <f t="shared" ca="1" si="5"/>
-        <v>5.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="V26">
         <f t="shared" ca="1" si="5"/>
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="W26">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="X26">
         <f t="shared" ca="1" si="5"/>
-        <v>9.1999999999999993</v>
+        <v>5</v>
       </c>
       <c r="Y26">
         <f t="shared" ca="1" si="5"/>
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="Z26">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>9.1</v>
       </c>
       <c r="AA26">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6</v>
+        <v>5.8</v>
       </c>
       <c r="AB26">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AC26">
         <f t="shared" ca="1" si="5"/>
-        <v>8.1</v>
+        <v>6.8</v>
       </c>
       <c r="AD26">
         <f t="shared" ca="1" si="5"/>
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE26">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="AF26">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="AG26">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6999999999999993</v>
+        <v>6.9</v>
       </c>
       <c r="AH26">
         <f t="shared" ca="1" si="5"/>
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.3">
@@ -7864,127 +7864,127 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>9.6999999999999993</v>
+        <v>5</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
+        <v>5.8</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="2"/>
         <v>6</v>
       </c>
-      <c r="I27">
+      <c r="J27">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.4</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.9</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="P27">
         <f t="shared" ca="1" si="2"/>
         <v>8.9</v>
       </c>
-      <c r="J27">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.6</v>
-      </c>
-      <c r="K27">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.5</v>
-      </c>
-      <c r="L27">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.2</v>
-      </c>
-      <c r="M27">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.7</v>
-      </c>
-      <c r="N27">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
-      </c>
-      <c r="O27">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="P27">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.2</v>
-      </c>
       <c r="Q27">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5</v>
+        <v>8.6</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="S27">
         <f t="shared" ca="1" si="2"/>
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="T27">
         <f t="shared" ca="1" si="5"/>
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="U27">
         <f t="shared" ca="1" si="5"/>
-        <v>5.9</v>
+        <v>9.6</v>
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="W27">
         <f t="shared" ca="1" si="5"/>
-        <v>7.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="X27">
         <f t="shared" ca="1" si="5"/>
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="Y27">
         <f t="shared" ca="1" si="5"/>
-        <v>5.4</v>
+        <v>8.5</v>
       </c>
       <c r="Z27">
         <f t="shared" ca="1" si="5"/>
-        <v>6.8</v>
+        <v>9.5</v>
       </c>
       <c r="AA27">
         <f t="shared" ca="1" si="5"/>
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="AB27">
         <f t="shared" ca="1" si="5"/>
-        <v>7.7</v>
+        <v>5</v>
       </c>
       <c r="AC27">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AD27">
         <f t="shared" ca="1" si="5"/>
-        <v>7.9</v>
+        <v>5.9</v>
       </c>
       <c r="AE27">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="AF27">
         <f t="shared" ca="1" si="5"/>
-        <v>9.4</v>
+        <v>6.9</v>
       </c>
       <c r="AG27">
         <f t="shared" ca="1" si="5"/>
-        <v>7.6</v>
+        <v>5.6</v>
       </c>
       <c r="AH27">
         <f t="shared" ca="1" si="5"/>
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.3">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9</v>
+        <v>6.1</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
@@ -8001,119 +8001,119 @@
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
+        <v>6.6</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="2"/>
         <v>5.2</v>
       </c>
-      <c r="G28">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.7</v>
-      </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="2"/>
-        <v>6.2</v>
+        <v>10</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.6</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
-      <c r="K28">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="L28">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
-      </c>
       <c r="M28">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3</v>
+        <v>8.9</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
+        <v>6.5</v>
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5</v>
+        <v>9.1</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="S28">
         <f t="shared" ca="1" si="2"/>
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="T28">
         <f t="shared" ca="1" si="5"/>
-        <v>9.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="U28">
         <f t="shared" ca="1" si="5"/>
-        <v>6.8</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="V28">
         <f t="shared" ca="1" si="5"/>
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="W28">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X28">
         <f t="shared" ca="1" si="5"/>
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y28">
         <f t="shared" ca="1" si="5"/>
-        <v>5.5</v>
+        <v>7.8</v>
       </c>
       <c r="Z28">
         <f t="shared" ca="1" si="5"/>
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="AA28">
         <f t="shared" ca="1" si="5"/>
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AB28">
         <f t="shared" ca="1" si="5"/>
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AC28">
         <f t="shared" ca="1" si="5"/>
-        <v>5.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD28">
         <f t="shared" ca="1" si="5"/>
-        <v>8.8000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="AE28">
         <f t="shared" ca="1" si="5"/>
-        <v>5.3</v>
+        <v>9.5</v>
       </c>
       <c r="AF28">
         <f t="shared" ca="1" si="5"/>
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="AG28">
         <f t="shared" ca="1" si="5"/>
-        <v>7.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AH28">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6999999999999993</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.3">
@@ -8125,127 +8125,127 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="2"/>
         <v>9.6</v>
       </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.9</v>
-      </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="2"/>
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="2"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.2</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ca="1" si="2"/>
         <v>6.6</v>
       </c>
-      <c r="K30">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.7</v>
-      </c>
-      <c r="L30">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.8</v>
-      </c>
-      <c r="M30">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.7</v>
-      </c>
-      <c r="N30">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.7</v>
-      </c>
-      <c r="O30">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.3</v>
-      </c>
-      <c r="P30">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.4</v>
-      </c>
       <c r="Q30">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="R30">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1999999999999993</v>
+        <v>5.9</v>
       </c>
       <c r="S30">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1999999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="T30">
         <f t="shared" ref="T30:AH36" ca="1" si="6">RANDBETWEEN(50,100)/10</f>
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="U30">
         <f t="shared" ca="1" si="6"/>
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="V30">
         <f t="shared" ca="1" si="6"/>
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="W30">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="X30">
         <f t="shared" ca="1" si="6"/>
+        <v>6.9</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.6</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.1</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" ca="1" si="6"/>
         <v>6.8</v>
       </c>
-      <c r="Y30">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.6</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.5</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.9</v>
-      </c>
       <c r="AB30">
         <f t="shared" ca="1" si="6"/>
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC30">
         <f t="shared" ca="1" si="6"/>
-        <v>6.2</v>
+        <v>7.9</v>
       </c>
       <c r="AD30">
         <f t="shared" ca="1" si="6"/>
-        <v>6.2</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AE30">
         <f t="shared" ca="1" si="6"/>
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AF30">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0999999999999996</v>
+        <v>7.9</v>
       </c>
       <c r="AG30">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8</v>
+        <v>5.8</v>
       </c>
       <c r="AH30">
         <f t="shared" ca="1" si="6"/>
-        <v>7.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.3">
@@ -8254,127 +8254,127 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.3</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.3</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.9</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.8</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.2</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.3</v>
+      </c>
+      <c r="R31">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="S31">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="T31">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.4</v>
+      </c>
+      <c r="U31">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.3</v>
+      </c>
+      <c r="V31">
+        <f t="shared" ca="1" si="6"/>
         <v>9.9</v>
       </c>
-      <c r="G31">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.5</v>
-      </c>
-      <c r="H31">
-        <f t="shared" ca="1" si="2"/>
+      <c r="W31">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="X31">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.9</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" ca="1" si="6"/>
         <v>7.7</v>
       </c>
-      <c r="I31">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.4</v>
-      </c>
-      <c r="J31">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.8</v>
-      </c>
-      <c r="K31">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.4</v>
-      </c>
-      <c r="L31">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.6</v>
-      </c>
-      <c r="M31">
-        <f t="shared" ca="1" si="2"/>
+      <c r="Z31">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.2</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" ca="1" si="6"/>
         <v>7.7</v>
       </c>
-      <c r="N31">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="O31">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.5</v>
-      </c>
-      <c r="P31">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.4</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="R31">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.7</v>
-      </c>
-      <c r="S31">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.3</v>
-      </c>
-      <c r="T31">
+      <c r="AG31">
         <f t="shared" ca="1" si="6"/>
         <v>7.6</v>
       </c>
-      <c r="U31">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3</v>
-      </c>
-      <c r="V31">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.1</v>
-      </c>
-      <c r="W31">
+      <c r="AH31">
         <f t="shared" ca="1" si="6"/>
         <v>8.1</v>
-      </c>
-      <c r="X31">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA31">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.9</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.5</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.1</v>
-      </c>
-      <c r="AD31">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="AE31">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.9</v>
-      </c>
-      <c r="AF31">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.4</v>
-      </c>
-      <c r="AG31">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.5</v>
-      </c>
-      <c r="AH31">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.4</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.3">
@@ -8387,123 +8387,123 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
+        <v>5.2</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1999999999999993</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8000000000000007</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9</v>
+        <v>5.3</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
+        <v>6.6</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.9</v>
+      </c>
+      <c r="P32">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.1</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R32">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.6</v>
+      </c>
+      <c r="S32">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.1</v>
+      </c>
+      <c r="T32">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.3</v>
+      </c>
+      <c r="U32">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.3</v>
+      </c>
+      <c r="V32">
+        <f t="shared" ca="1" si="6"/>
         <v>10</v>
       </c>
-      <c r="O32">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.9</v>
-      </c>
-      <c r="P32">
-        <f t="shared" ca="1" si="2"/>
+      <c r="W32">
+        <f t="shared" ca="1" si="6"/>
         <v>7.2</v>
       </c>
-      <c r="Q32">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.8</v>
-      </c>
-      <c r="R32">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.7</v>
-      </c>
-      <c r="S32">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.4</v>
-      </c>
-      <c r="T32">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="U32">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.9</v>
-      </c>
-      <c r="V32">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.9</v>
-      </c>
-      <c r="W32">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.8</v>
-      </c>
       <c r="X32">
         <f t="shared" ca="1" si="6"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y32">
         <f t="shared" ca="1" si="6"/>
-        <v>5.5</v>
+        <v>7.1</v>
       </c>
       <c r="Z32">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="AA32">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>6.6</v>
       </c>
       <c r="AB32">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0999999999999996</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AC32">
         <f t="shared" ca="1" si="6"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.9</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" ca="1" si="6"/>
         <v>6.3</v>
       </c>
-      <c r="AD32">
+      <c r="AF32">
         <f t="shared" ca="1" si="6"/>
         <v>7.9</v>
       </c>
-      <c r="AE32">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.1</v>
-      </c>
-      <c r="AF32">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.6999999999999993</v>
-      </c>
       <c r="AG32">
         <f t="shared" ca="1" si="6"/>
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="AH32">
         <f t="shared" ca="1" si="6"/>
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.3">
@@ -8512,119 +8512,119 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>7.1</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4</v>
+        <v>8.5</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3</v>
+        <v>6.1</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4</v>
+        <v>8.1</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="2"/>
+        <v>9.9</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.7</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.6</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
-      <c r="K33">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="L33">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.5</v>
-      </c>
-      <c r="M33">
+      <c r="P33">
         <f t="shared" ca="1" si="2"/>
         <v>6.7</v>
-      </c>
-      <c r="N33">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.8</v>
-      </c>
-      <c r="O33">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.7</v>
-      </c>
-      <c r="P33">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
       </c>
       <c r="Q33">
         <f t="shared" ref="Q33:S36" ca="1" si="7">RANDBETWEEN(50,100)/10</f>
-        <v>5.3</v>
+        <v>9.6</v>
       </c>
       <c r="R33">
         <f t="shared" ca="1" si="7"/>
-        <v>6.5</v>
+        <v>8.6</v>
       </c>
       <c r="S33">
         <f t="shared" ca="1" si="7"/>
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="T33">
         <f t="shared" ca="1" si="6"/>
-        <v>9.5</v>
+        <v>8.9</v>
       </c>
       <c r="U33">
         <f t="shared" ca="1" si="6"/>
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="V33">
         <f t="shared" ca="1" si="6"/>
+        <v>6.2</v>
+      </c>
+      <c r="W33">
+        <f t="shared" ca="1" si="6"/>
         <v>5.4</v>
       </c>
-      <c r="W33">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.8</v>
-      </c>
       <c r="X33">
         <f t="shared" ca="1" si="6"/>
+        <v>5.3</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.1</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" ca="1" si="6"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="Y33">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="Z33">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.1</v>
-      </c>
       <c r="AA33">
         <f t="shared" ca="1" si="6"/>
-        <v>5.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AB33">
         <f t="shared" ca="1" si="6"/>
-        <v>7.5</v>
+        <v>9.9</v>
       </c>
       <c r="AC33">
         <f t="shared" ca="1" si="6"/>
-        <v>9.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AD33">
         <f t="shared" ca="1" si="6"/>
-        <v>9.6</v>
+        <v>5.5</v>
       </c>
       <c r="AE33">
         <f t="shared" ca="1" si="6"/>
-        <v>7.5</v>
+        <v>5.7</v>
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="6"/>
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AG33">
         <f t="shared" ca="1" si="6"/>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="AH33">
         <f t="shared" ca="1" si="6"/>
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.3">
@@ -8641,256 +8641,256 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1999999999999993</v>
+        <v>5.3</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1</v>
+        <v>9.5</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1</v>
+        <v>7.6</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="2"/>
-        <v>9.4</v>
+        <v>5.7</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="P34">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9</v>
+        <v>6.4</v>
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="7"/>
-        <v>9.1999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="R34">
         <f t="shared" ca="1" si="7"/>
-        <v>9.8000000000000007</v>
+        <v>7.9</v>
       </c>
       <c r="S34">
         <f t="shared" ca="1" si="7"/>
+        <v>5.5</v>
+      </c>
+      <c r="T34">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.6</v>
+      </c>
+      <c r="U34">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.9</v>
+      </c>
+      <c r="V34">
+        <f t="shared" ca="1" si="6"/>
         <v>5.9</v>
       </c>
-      <c r="T34">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.6</v>
-      </c>
-      <c r="U34">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.4</v>
-      </c>
-      <c r="V34">
+      <c r="W34">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.9</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.4</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.5</v>
+      </c>
+      <c r="AC34">
         <f t="shared" ca="1" si="6"/>
         <v>6</v>
       </c>
-      <c r="W34">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.5</v>
-      </c>
-      <c r="X34">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.9</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.9</v>
-      </c>
-      <c r="Z34">
+      <c r="AD34">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.5</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.5</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.2</v>
+      </c>
+      <c r="AG34">
         <f t="shared" ca="1" si="6"/>
         <v>9.3000000000000007</v>
       </c>
-      <c r="AA34">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.8</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.9</v>
-      </c>
-      <c r="AC34">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AD34">
+      <c r="AH34">
         <f t="shared" ca="1" si="6"/>
         <v>8.3000000000000007</v>
-      </c>
-      <c r="AE34">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AF34">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AG34">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.5</v>
-      </c>
-      <c r="AH34">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
+        <v>5</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2</v>
+        <v>7.5</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="2"/>
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9</v>
+        <v>8.6</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="2"/>
-        <v>9.6</v>
+        <v>6.3</v>
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="2"/>
-        <v>9.4</v>
+        <v>6.2</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="R35">
         <f t="shared" ca="1" si="7"/>
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="S35">
         <f t="shared" ca="1" si="7"/>
+        <v>7.4</v>
+      </c>
+      <c r="T35">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.6</v>
+      </c>
+      <c r="U35">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="V35">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.6</v>
+      </c>
+      <c r="W35">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.7</v>
+      </c>
+      <c r="X35">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.1</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.7</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.5</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.2</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.2</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.9</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" ca="1" si="6"/>
         <v>9.5</v>
-      </c>
-      <c r="T35">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.1</v>
-      </c>
-      <c r="U35">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.5</v>
-      </c>
-      <c r="V35">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.6</v>
-      </c>
-      <c r="W35">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.7</v>
-      </c>
-      <c r="X35">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="Z35">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AA35">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AB35">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.9</v>
-      </c>
-      <c r="AC35">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="AD35">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.2</v>
-      </c>
-      <c r="AE35">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.2</v>
-      </c>
-      <c r="AF35">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.4</v>
-      </c>
-      <c r="AG35">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.5</v>
-      </c>
-      <c r="AH35">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.4</v>
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.3">
@@ -8899,39 +8899,39 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F36">
         <f t="shared" ref="F36:P36" ca="1" si="8">RANDBETWEEN(50,100)/10</f>
-        <v>5</v>
+        <v>7.9</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="8"/>
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="8"/>
-        <v>8.6999999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="8"/>
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="8"/>
-        <v>9.3000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="8"/>
-        <v>8.1</v>
+        <v>6.6</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="8"/>
@@ -8939,87 +8939,87 @@
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="8"/>
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="8"/>
-        <v>5.9</v>
+        <v>8.5</v>
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="8"/>
-        <v>7.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="7"/>
-        <v>8.8000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="R36">
         <f t="shared" ca="1" si="7"/>
-        <v>8.6999999999999993</v>
+        <v>7.1</v>
       </c>
       <c r="S36">
         <f t="shared" ca="1" si="7"/>
-        <v>7.4</v>
+        <v>8.9</v>
       </c>
       <c r="T36">
         <f t="shared" ca="1" si="6"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="U36">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="V36">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.5</v>
+      </c>
+      <c r="W36">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.3</v>
+      </c>
+      <c r="X36">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.8</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.8</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" ca="1" si="6"/>
         <v>9.1</v>
       </c>
-      <c r="U36">
-        <f t="shared" ca="1" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="V36">
-        <f t="shared" ca="1" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="W36">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.6</v>
-      </c>
-      <c r="X36">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.6</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.4</v>
-      </c>
-      <c r="Z36">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.1</v>
-      </c>
-      <c r="AA36">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
-      </c>
       <c r="AB36">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AC36">
         <f t="shared" ca="1" si="6"/>
-        <v>9.1</v>
+        <v>6</v>
       </c>
       <c r="AD36">
         <f t="shared" ca="1" si="6"/>
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AE36">
         <f t="shared" ca="1" si="6"/>
-        <v>6.9</v>
+        <v>5.9</v>
       </c>
       <c r="AF36">
         <f t="shared" ca="1" si="6"/>
+        <v>7.1</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.8</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" ca="1" si="6"/>
         <v>9.1999999999999993</v>
-      </c>
-      <c r="AG36">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.9</v>
-      </c>
-      <c r="AH36">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.1</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.3">
@@ -9031,67 +9031,67 @@
       </c>
       <c r="D38">
         <f t="shared" ref="D38:AA41" ca="1" si="9">RANDBETWEEN(50,100)/10</f>
-        <v>9.1999999999999993</v>
+        <v>5.5</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="9"/>
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="9"/>
-        <v>5.4</v>
+        <v>7.9</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="9"/>
-        <v>5.7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="9"/>
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="9"/>
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="9"/>
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="9"/>
-        <v>7.7</v>
+        <v>5.8</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="9"/>
-        <v>5.8</v>
+        <v>8.4</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="9"/>
-        <v>5.6</v>
+        <v>8.9</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9</v>
+        <v>8.6</v>
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3000000000000007</v>
+        <v>9.9</v>
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="9"/>
-        <v>8.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="R38">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>9.1</v>
       </c>
       <c r="S38">
         <f t="shared" ca="1" si="9"/>
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="T38">
         <f t="shared" ca="1" si="9"/>
@@ -9099,47 +9099,47 @@
       </c>
       <c r="U38">
         <f t="shared" ca="1" si="9"/>
-        <v>9.6</v>
+        <v>5.8</v>
       </c>
       <c r="V38">
         <f t="shared" ca="1" si="9"/>
-        <v>9.9</v>
+        <v>6.4</v>
       </c>
       <c r="W38">
         <f t="shared" ca="1" si="9"/>
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="X38">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="Y38">
         <f t="shared" ca="1" si="9"/>
-        <v>6.7</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Z38">
         <f t="shared" ca="1" si="9"/>
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AA38">
         <f t="shared" ca="1" si="9"/>
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AB38">
         <f t="shared" ref="AB38:AH38" ca="1" si="10">RANDBETWEEN(50,100)/10</f>
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="AC38">
         <f t="shared" ca="1" si="10"/>
-        <v>5.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD38">
         <f t="shared" ca="1" si="10"/>
-        <v>9.1</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AE38">
         <f t="shared" ca="1" si="10"/>
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AF38">
         <f t="shared" ca="1" si="10"/>
@@ -9147,11 +9147,11 @@
       </c>
       <c r="AG38">
         <f t="shared" ca="1" si="10"/>
-        <v>5.7</v>
+        <v>8.4</v>
       </c>
       <c r="AH38">
         <f t="shared" ca="1" si="10"/>
-        <v>8.5</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.3">
@@ -9160,127 +9160,127 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="9"/>
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="9"/>
-        <v>7.3</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="9"/>
-        <v>8.6999999999999993</v>
+        <v>7</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="9"/>
-        <v>6.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="9"/>
-        <v>8.6999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="9"/>
-        <v>5.5</v>
+        <v>9.4</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="9"/>
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="9"/>
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="9"/>
-        <v>8.4</v>
+        <v>9.9</v>
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="9"/>
-        <v>6.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="9"/>
-        <v>9.8000000000000007</v>
+        <v>6.5</v>
       </c>
       <c r="R39">
         <f t="shared" ca="1" si="9"/>
-        <v>6.4</v>
+        <v>8.1</v>
       </c>
       <c r="S39">
         <f t="shared" ca="1" si="9"/>
-        <v>8.6999999999999993</v>
+        <v>5.9</v>
       </c>
       <c r="T39">
         <f t="shared" ca="1" si="9"/>
-        <v>6.2</v>
+        <v>7.9</v>
       </c>
       <c r="U39">
         <f t="shared" ca="1" si="9"/>
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="V39">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="W39">
         <f t="shared" ca="1" si="9"/>
-        <v>6.3</v>
+        <v>9.1</v>
       </c>
       <c r="X39">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2</v>
+        <v>7.5</v>
       </c>
       <c r="Y39">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3000000000000007</v>
+        <v>5.5</v>
       </c>
       <c r="Z39">
         <f t="shared" ca="1" si="9"/>
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="AA39">
         <f t="shared" ca="1" si="9"/>
-        <v>8.9</v>
+        <v>5.3</v>
       </c>
       <c r="AB39">
         <f t="shared" ref="AA39:AH41" ca="1" si="11">RANDBETWEEN(50,100)/10</f>
-        <v>5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AC39">
         <f t="shared" ca="1" si="11"/>
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="AD39">
         <f t="shared" ca="1" si="11"/>
-        <v>6.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AE39">
         <f t="shared" ca="1" si="11"/>
-        <v>9.1999999999999993</v>
+        <v>7.7</v>
       </c>
       <c r="AF39">
         <f t="shared" ca="1" si="11"/>
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AG39">
         <f t="shared" ca="1" si="11"/>
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AH39">
         <f t="shared" ca="1" si="11"/>
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.3">
@@ -9289,127 +9289,127 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="9"/>
-        <v>6.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="9"/>
-        <v>8.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="9"/>
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="9"/>
-        <v>8.6999999999999993</v>
+        <v>7</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="9"/>
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="9"/>
-        <v>9.3000000000000007</v>
+        <v>6.2</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="9"/>
-        <v>8.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="9"/>
-        <v>9.3000000000000007</v>
+        <v>7.5</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="9"/>
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="9"/>
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="9"/>
-        <v>9.8000000000000007</v>
+        <v>6.6</v>
       </c>
       <c r="R40">
         <f t="shared" ca="1" si="9"/>
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="S40">
         <f t="shared" ca="1" si="9"/>
-        <v>5.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="T40">
         <f t="shared" ca="1" si="9"/>
-        <v>5.5</v>
+        <v>7.7</v>
       </c>
       <c r="U40">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="V40">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3000000000000007</v>
+        <v>5.8</v>
       </c>
       <c r="W40">
         <f t="shared" ca="1" si="9"/>
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="X40">
         <f t="shared" ca="1" si="9"/>
-        <v>8.9</v>
+        <v>8.1</v>
       </c>
       <c r="Y40">
         <f t="shared" ca="1" si="9"/>
-        <v>8.4</v>
+        <v>6.3</v>
       </c>
       <c r="Z40">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3000000000000007</v>
+        <v>6.2</v>
       </c>
       <c r="AA40">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AB40">
         <f t="shared" ca="1" si="11"/>
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AC40">
         <f t="shared" ca="1" si="11"/>
-        <v>5.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AD40">
         <f t="shared" ca="1" si="11"/>
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="AE40">
         <f t="shared" ca="1" si="11"/>
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="AF40">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>9.6</v>
       </c>
       <c r="AG40">
         <f t="shared" ca="1" si="11"/>
-        <v>8.1999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="AH40">
         <f t="shared" ca="1" si="11"/>
-        <v>8.8000000000000007</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.3">
@@ -9418,127 +9418,127 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="9"/>
-        <v>5.6</v>
+        <v>8.9</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="9"/>
-        <v>5.9</v>
+        <v>9.5</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="9"/>
-        <v>9.8000000000000007</v>
+        <v>5.7</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>9.9</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="9"/>
-        <v>8.6</v>
+        <v>5.7</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="9"/>
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="9"/>
-        <v>7.7</v>
+        <v>9.4</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="9"/>
-        <v>7.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="9"/>
-        <v>5.9</v>
+        <v>7.7</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1</v>
+        <v>6.1</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>5.3</v>
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="9"/>
-        <v>9.8000000000000007</v>
+        <v>8.1</v>
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="9"/>
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="R41">
         <f t="shared" ca="1" si="9"/>
-        <v>8.5</v>
+        <v>6.1</v>
       </c>
       <c r="S41">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="T41">
         <f t="shared" ca="1" si="9"/>
-        <v>9.1</v>
+        <v>6.9</v>
       </c>
       <c r="U41">
         <f t="shared" ca="1" si="9"/>
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="V41">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>7.6</v>
       </c>
       <c r="W41">
         <f t="shared" ca="1" si="9"/>
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="X41">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="Y41">
         <f t="shared" ca="1" si="9"/>
-        <v>5.7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="Z41">
         <f t="shared" ca="1" si="9"/>
-        <v>6.2</v>
+        <v>9.9</v>
       </c>
       <c r="AA41">
         <f t="shared" ca="1" si="11"/>
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AB41">
         <f t="shared" ca="1" si="11"/>
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="AC41">
         <f t="shared" ca="1" si="11"/>
-        <v>9.4</v>
+        <v>6.2</v>
       </c>
       <c r="AD41">
         <f t="shared" ca="1" si="11"/>
-        <v>9.8000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="AE41">
         <f t="shared" ca="1" si="11"/>
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="AF41">
         <f t="shared" ca="1" si="11"/>
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="AG41">
         <f t="shared" ca="1" si="11"/>
-        <v>8.1</v>
+        <v>7.4</v>
       </c>
       <c r="AH41">
         <f t="shared" ca="1" si="11"/>
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>

--- a/02_Database/Vehicle_Data.xlsx
+++ b/02_Database/Vehicle_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga26cij\Documents\Customer-Oriented-Concept-Assessment-COCA-Tool\02_Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_All\15_COCA_Tool\02_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF1222A-EEE3-4112-9B29-8FC0692BF2EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5A9558-F7A7-4CBA-91F1-3372E793A9CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle Data" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,14 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -660,8 +668,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -755,13 +763,13 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1108,21 +1116,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B5C9A0-420C-491A-ABC7-ADFF42C42C62}">
   <dimension ref="A1:AH66"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A38:XFD38"/>
+      <selection pane="bottomRight" activeCell="AH38" sqref="AH38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="4" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="4" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>152</v>
       </c>
@@ -1220,7 +1228,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -1318,12 +1326,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
@@ -1421,7 +1429,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -1522,7 +1530,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -1623,7 +1631,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -1724,7 +1732,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -1825,7 +1833,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -1926,7 +1934,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -2027,7 +2035,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -2128,7 +2136,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -2260,7 +2268,7 @@
         <v>27.862383176528226</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -2361,7 +2369,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>105</v>
       </c>
@@ -2462,18 +2470,18 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="H16" s="10"/>
       <c r="K16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -2577,7 +2585,7 @@
         <v>4645</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -2678,7 +2686,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -2779,7 +2787,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>120</v>
       </c>
@@ -2911,7 +2919,7 @@
         <v>0.83522727272727271</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>157</v>
       </c>
@@ -3043,7 +3051,7 @@
         <v>3.1598639455782314</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>119</v>
       </c>
@@ -3144,7 +3152,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>117</v>
       </c>
@@ -3248,7 +3256,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>118</v>
       </c>
@@ -3352,7 +3360,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>139</v>
       </c>
@@ -3453,7 +3461,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>121</v>
       </c>
@@ -3585,12 +3593,12 @@
         <v>634.5</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>108</v>
       </c>
@@ -3691,7 +3699,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>110</v>
       </c>
@@ -3792,7 +3800,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>109</v>
       </c>
@@ -3917,7 +3925,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>111</v>
       </c>
@@ -4018,17 +4026,17 @@
         <v>68.7</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>112</v>
       </c>
@@ -4129,7 +4137,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>115</v>
       </c>
@@ -4252,9 +4260,11 @@
         <f t="shared" si="8"/>
         <v>571.42857142857144</v>
       </c>
-      <c r="AH37" s="7"/>
+      <c r="AH37" s="7">
+        <v>1065</v>
+      </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>114</v>
       </c>
@@ -4355,7 +4365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>113</v>
       </c>
@@ -4456,7 +4466,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -4557,12 +4567,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -4663,7 +4673,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="44" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>159</v>
       </c>
@@ -4765,7 +4775,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>161</v>
       </c>
@@ -4867,7 +4877,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>207</v>
       </c>
@@ -5000,7 +5010,7 @@
         <v>16.400000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -5101,7 +5111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>106</v>
       </c>
@@ -5202,7 +5212,7 @@
         <v>40650</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -5303,7 +5313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>150</v>
       </c>
@@ -5401,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -5536,7 +5546,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="54" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>158</v>
       </c>
@@ -5634,7 +5644,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -5642,7 +5652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>164</v>
       </c>
@@ -5650,7 +5660,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>167</v>
       </c>
@@ -5664,7 +5674,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>169</v>
       </c>
@@ -5681,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>171</v>
       </c>
@@ -5695,7 +5705,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>194</v>
       </c>
@@ -5710,7 +5720,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>171</v>
       </c>
@@ -5722,7 +5732,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>195</v>
       </c>
@@ -5737,7 +5747,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>171</v>
       </c>
@@ -5749,7 +5759,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -5764,7 +5774,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>171</v>
       </c>
@@ -5830,16 +5840,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>152</v>
       </c>
@@ -5968,7 +5978,7 @@
         <v>Prius 1.8 Plug-In Hybrid Executive</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -6097,271 +6107,271 @@
         <v>Toyota</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D5">
         <f ca="1">RANDBETWEEN(50,100)/10</f>
-        <v>8.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:T19" ca="1" si="0">RANDBETWEEN(50,100)/10</f>
-        <v>6.5</v>
+        <v>8.4</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3000000000000007</v>
+        <v>8.1</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6</v>
+        <v>6.2</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7</v>
+        <v>8.9</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9</v>
+        <v>8.9</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1</v>
+        <v>6.3</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3000000000000007</v>
+        <v>6.2</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="U5">
         <f t="shared" ref="U5:AH10" ca="1" si="1">RANDBETWEEN(50,100)/10</f>
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="W5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4</v>
+        <v>9.4</v>
       </c>
       <c r="X5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8000000000000007</v>
+        <v>7.8</v>
       </c>
       <c r="Y5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8</v>
+        <v>9.1</v>
       </c>
       <c r="Z5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="AA5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5</v>
+        <v>6.8</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5</v>
+        <v>9.4</v>
       </c>
       <c r="AE5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8</v>
+        <v>6.9</v>
       </c>
       <c r="AG5">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1</v>
+        <v>8.9</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:S35" ca="1" si="2">RANDBETWEEN(50,100)/10</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
+        <v>9.1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ca="1" si="0"/>
         <v>6.8</v>
       </c>
-      <c r="J6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="L6">
+      <c r="O6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="P6">
         <f t="shared" ca="1" si="0"/>
         <v>9.1</v>
       </c>
-      <c r="M6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.2</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.2</v>
-      </c>
-      <c r="P6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8</v>
-      </c>
       <c r="Q6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2</v>
+        <v>7.3</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3</v>
+        <v>8.9</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="W6">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="X6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="Y6">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z6">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="AA6">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6</v>
+        <v>7.1</v>
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="AC6">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6999999999999993</v>
+        <v>7.9</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0999999999999996</v>
+        <v>7.9</v>
       </c>
       <c r="AE6">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9</v>
+        <v>6.6</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9</v>
+        <v>7.7</v>
       </c>
       <c r="AG6">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3</v>
+        <v>7.1</v>
       </c>
       <c r="AH6">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1</v>
+        <v>9.9</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>104</v>
       </c>
@@ -6371,390 +6381,390 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
         <v>6.2</v>
       </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.8000000000000007</v>
-      </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8000000000000007</v>
+        <v>5.6</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
+        <v>6.9</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8000000000000007</v>
+        <v>7.4</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
+        <v>9.9</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
+        <v>9.9</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.4</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ca="1" si="0"/>
         <v>5.2</v>
       </c>
-      <c r="N7">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.3</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="P7">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3</v>
-      </c>
       <c r="R7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1</v>
+        <v>8.6</v>
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8000000000000007</v>
+        <v>6.8</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8</v>
+        <v>9.1</v>
       </c>
       <c r="W7">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6999999999999993</v>
+        <v>7.6</v>
       </c>
       <c r="X7">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="Y7">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Z7">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AA7">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AC7">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8</v>
+        <v>9.6</v>
       </c>
       <c r="AE7">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5.2</v>
       </c>
       <c r="AG7">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8000000000000007</v>
+        <v>7</v>
       </c>
       <c r="AH7">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7</v>
+        <v>7.1</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
+        <v>6.4</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.1</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ca="1" si="0"/>
         <v>5.2</v>
       </c>
-      <c r="L8">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.4</v>
-      </c>
-      <c r="N8">
+      <c r="R8">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-      <c r="O8">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.9</v>
-      </c>
-      <c r="P8">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.1</v>
-      </c>
-      <c r="Q8">
+      <c r="S8">
         <f t="shared" ca="1" si="0"/>
         <v>6.9</v>
       </c>
-      <c r="R8">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="S8">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6999999999999993</v>
-      </c>
       <c r="T8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5</v>
+        <v>9.4</v>
       </c>
       <c r="W8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4</v>
+        <v>9.4</v>
       </c>
       <c r="X8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="Y8">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="Z8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6</v>
+        <v>9.1</v>
       </c>
       <c r="AA8">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5</v>
+        <v>9.4</v>
       </c>
       <c r="AE8">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7</v>
+        <v>8.6</v>
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9</v>
+        <v>5.4</v>
       </c>
       <c r="AG8">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AH8">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9.1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>156</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
         <v>6.8</v>
       </c>
-      <c r="E9">
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="P9">
         <f t="shared" ca="1" si="0"/>
         <v>8.5</v>
       </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
-      </c>
-      <c r="I9">
+      <c r="Q9">
         <f t="shared" ca="1" si="0"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="J9">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.6</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.1</v>
-      </c>
-      <c r="N9">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O9">
+      <c r="R9">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="T9">
         <f t="shared" ca="1" si="0"/>
         <v>9.8000000000000007</v>
-      </c>
-      <c r="P9">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.1</v>
-      </c>
-      <c r="R9">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
-      </c>
-      <c r="S9">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="T9">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.9</v>
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="W9">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6999999999999993</v>
+        <v>6.4</v>
       </c>
       <c r="X9">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="Y9">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8000000000000007</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Z9">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4</v>
+        <v>6.8</v>
       </c>
       <c r="AA9">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6999999999999993</v>
+        <v>10</v>
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="AC9">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="AE9">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4</v>
+        <v>7.3</v>
       </c>
       <c r="AG9">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
       <c r="AH9">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1999999999999993</v>
+        <v>5.4</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
+        <v>5.7</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
@@ -6762,59 +6772,59 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
+        <v>8.6</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.7</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ca="1" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.9</v>
-      </c>
-      <c r="K10">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L10">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="M10">
+      <c r="P10">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.1</v>
+      </c>
+      <c r="Q10">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
-      <c r="N10">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8</v>
-      </c>
-      <c r="O10">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.2</v>
-      </c>
-      <c r="P10">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3</v>
-      </c>
       <c r="R10">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5.7</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="0"/>
@@ -6822,1898 +6832,1898 @@
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8000000000000007</v>
+        <v>6.8</v>
       </c>
       <c r="W10">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="X10">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y10">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6.1</v>
       </c>
       <c r="Z10">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="AA10">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AC10">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8000000000000007</v>
+        <v>7.3</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AE10">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8</v>
+        <v>9.4</v>
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1</v>
+        <v>5.9</v>
       </c>
       <c r="AG10">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9</v>
+        <v>7.3</v>
       </c>
       <c r="AH10">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>97</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="0"/>
         <v>9.9</v>
       </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.3</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.8</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.9</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9</v>
+        <v>5.5</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3</v>
+        <v>7.7</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0999999999999996</v>
+        <v>8</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3</v>
+        <v>9.9</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7</v>
+        <v>8.1</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
+        <v>5.2</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6999999999999993</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ca="1" si="0"/>
         <v>6.2</v>
       </c>
-      <c r="S12">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3</v>
-      </c>
       <c r="T12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="U12">
         <f t="shared" ref="U12:AH21" ca="1" si="3">RANDBETWEEN(50,100)/10</f>
-        <v>5</v>
+        <v>7.6</v>
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="3"/>
-        <v>8.8000000000000007</v>
+        <v>5.6</v>
       </c>
       <c r="W12">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="X12">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8</v>
+        <v>9.5</v>
       </c>
       <c r="Y12">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="Z12">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AA12">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="3"/>
-        <v>8.6999999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="AC12">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6.9</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8</v>
+        <v>9.6</v>
       </c>
       <c r="AE12">
         <f t="shared" ca="1" si="3"/>
+        <v>6.2</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.6</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.5</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" ca="1" si="3"/>
         <v>8.9</v>
       </c>
-      <c r="AF12">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
-      </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.9</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.3</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ca="1" si="0"/>
         <v>7.1</v>
       </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7</v>
-      </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="0"/>
+      <c r="S13">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.1</v>
+      </c>
+      <c r="V13">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.4</v>
+      </c>
+      <c r="W13">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.1</v>
+      </c>
+      <c r="X13">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.6</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.2</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" ca="1" si="3"/>
         <v>6.3</v>
       </c>
-      <c r="H13">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="J13">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="K13">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L13">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2</v>
-      </c>
-      <c r="M13">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6</v>
-      </c>
-      <c r="N13">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.9</v>
-      </c>
-      <c r="O13">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.2</v>
-      </c>
-      <c r="P13">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.9</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="R13">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AA13">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.4</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.3</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.9</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.8</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.6</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" ca="1" si="3"/>
         <v>6.4</v>
       </c>
-      <c r="S13">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.4</v>
-      </c>
-      <c r="T13">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.7</v>
-      </c>
-      <c r="U13">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.3</v>
-      </c>
-      <c r="V13">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="W13">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.5</v>
-      </c>
-      <c r="X13">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.6</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.6</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.3</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.9</v>
-      </c>
-      <c r="AF13">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.6</v>
-      </c>
-      <c r="AG13">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AH13">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.8000000000000007</v>
-      </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
+        <v>6.8</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="E14">
+      <c r="H14">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1</v>
+      </c>
+      <c r="Q14">
         <f t="shared" ca="1" si="0"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2</v>
-      </c>
-      <c r="K14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="R14">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.7</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.3</v>
+      </c>
+      <c r="T14">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="U14">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="V14">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.9</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.1</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.6</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.3</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" ca="1" si="3"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="L14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AD14">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" ca="1" si="3"/>
         <v>7.4</v>
       </c>
-      <c r="M14">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N14">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.6</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.9</v>
-      </c>
-      <c r="P14">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.9</v>
-      </c>
-      <c r="R14">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="S14">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.6</v>
-      </c>
-      <c r="T14">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="U14">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.6</v>
-      </c>
-      <c r="V14">
+      <c r="AF14">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AH14">
         <f t="shared" ca="1" si="3"/>
         <v>6.3</v>
       </c>
-      <c r="W14">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.9</v>
-      </c>
-      <c r="X14">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.3</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.8</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.1</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.8</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.2</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AE14">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.8</v>
-      </c>
-      <c r="AF14">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AG14">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.6</v>
-      </c>
-      <c r="AH14">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.8000000000000007</v>
-      </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
+        <v>6.4</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.3</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="R15">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="S15">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="U15">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.4</v>
+      </c>
+      <c r="V15">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.4</v>
+      </c>
+      <c r="W15">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="X15">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.3</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.9</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" ca="1" si="3"/>
         <v>6.9</v>
       </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="I15">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1</v>
-      </c>
-      <c r="J15">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1</v>
-      </c>
-      <c r="K15">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="L15">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="N15">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.6</v>
-      </c>
-      <c r="O15">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AD15">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.9</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.1</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" ca="1" si="3"/>
         <v>7.7</v>
       </c>
-      <c r="P15">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="R15">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="S15">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.2</v>
-      </c>
-      <c r="T15">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="U15">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.3</v>
-      </c>
-      <c r="V15">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.2</v>
-      </c>
-      <c r="W15">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.9</v>
-      </c>
-      <c r="X15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.1</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.8</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.8</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.3</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.4</v>
-      </c>
-      <c r="AG15">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
-      </c>
-      <c r="AH15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.5</v>
-      </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>98</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
+        <v>9.6</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.9</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.2</v>
+      </c>
+      <c r="R17">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.3</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="T17">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1</v>
+      </c>
+      <c r="U17">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.4</v>
+      </c>
+      <c r="V17">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="W17">
+        <f t="shared" ca="1" si="3"/>
         <v>9</v>
       </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="0"/>
+      <c r="X17">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.9</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.8</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.2</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" ca="1" si="3"/>
         <v>6.6</v>
       </c>
-      <c r="H17">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.8</v>
-      </c>
-      <c r="I17">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.6</v>
-      </c>
-      <c r="J17">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.4</v>
-      </c>
-      <c r="K17">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AB17">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.1</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.1</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.1</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" ca="1" si="3"/>
         <v>6.6</v>
       </c>
-      <c r="L17">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M17">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="N17">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="O17">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="P17">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.4</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="R17">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7</v>
-      </c>
-      <c r="S17">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8</v>
-      </c>
-      <c r="T17">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="U17">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.8</v>
-      </c>
-      <c r="V17">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.3</v>
-      </c>
-      <c r="W17">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.9</v>
-      </c>
-      <c r="X17">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.4</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.7</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.5</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.9</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.4</v>
-      </c>
-      <c r="AF17">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.8000000000000007</v>
-      </c>
       <c r="AG17">
         <f t="shared" ca="1" si="3"/>
+        <v>9.9</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" ca="1" si="3"/>
         <v>5.9</v>
       </c>
-      <c r="AH17">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.6</v>
-      </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>9.3000000000000007</v>
+        <v>6.7</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.9</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="V18">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.7</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.2</v>
+      </c>
+      <c r="X18">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.7</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.2</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.9</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.6</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.3</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.2</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.6</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.2</v>
-      </c>
-      <c r="I18">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="J18">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="K18">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AG18">
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
-      <c r="L18">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M18">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.9</v>
-      </c>
-      <c r="N18">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.4</v>
-      </c>
-      <c r="O18">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="P18">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1</v>
-      </c>
-      <c r="R18">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.7</v>
-      </c>
-      <c r="S18">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3</v>
-      </c>
-      <c r="T18">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.2</v>
-      </c>
-      <c r="U18">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.5</v>
-      </c>
-      <c r="V18">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.6</v>
-      </c>
-      <c r="W18">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="X18">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.2</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.4</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.2</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.6</v>
-      </c>
-      <c r="AE18">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AF18">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.1</v>
-      </c>
-      <c r="AG18">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.8000000000000007</v>
-      </c>
       <c r="AH18">
         <f t="shared" ca="1" si="3"/>
-        <v>9.6</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.9</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.3</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="V19">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.7</v>
+      </c>
+      <c r="W19">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.2</v>
+      </c>
+      <c r="X19">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.5</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.3</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.1</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.7</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.6</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" ca="1" si="3"/>
         <v>6.5</v>
       </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.1</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.4</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.9</v>
-      </c>
-      <c r="I19">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="J19">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K19">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6</v>
-      </c>
-      <c r="L19">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="M19">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N19">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AG19">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" ca="1" si="3"/>
         <v>8.9</v>
       </c>
-      <c r="O19">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8</v>
-      </c>
-      <c r="P19">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.7</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.9</v>
-      </c>
-      <c r="R19">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7</v>
-      </c>
-      <c r="S19">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="T19">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.6</v>
-      </c>
-      <c r="U19">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="V19">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="W19">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="X19">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.9</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.6</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.9</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.4</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.8</v>
-      </c>
-      <c r="AD19">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.6</v>
-      </c>
-      <c r="AE19">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.6</v>
-      </c>
-      <c r="AF19">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.9</v>
-      </c>
-      <c r="AG19">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.9</v>
-      </c>
-      <c r="AH19">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.0999999999999996</v>
-      </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5</v>
+        <v>9.4</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>7.1</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9</v>
+        <v>7.3</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="2"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.9</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ca="1" si="2"/>
         <v>6.8</v>
       </c>
-      <c r="K20">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9</v>
-      </c>
-      <c r="L20">
+      <c r="R20">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.8</v>
+      </c>
+      <c r="S20">
         <f t="shared" ca="1" si="2"/>
         <v>7.5</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.9</v>
-      </c>
-      <c r="N20">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.3</v>
-      </c>
-      <c r="O20">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="P20">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.2</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.6</v>
-      </c>
-      <c r="R20">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="S20">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.6</v>
       </c>
       <c r="T20">
         <f t="shared" ref="Q20:T21" ca="1" si="4">RANDBETWEEN(50,100)/10</f>
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="U20">
         <f t="shared" ca="1" si="3"/>
+        <v>6.7</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.5</v>
+      </c>
+      <c r="W20">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="X20">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.1</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.6</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.6</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" ca="1" si="3"/>
         <v>5.2</v>
       </c>
-      <c r="V20">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.8</v>
-      </c>
-      <c r="W20">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="X20">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.3</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.1</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.9</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.3</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.1</v>
-      </c>
       <c r="AD20">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8</v>
+        <v>5.4</v>
       </c>
       <c r="AE20">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AF20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3</v>
+        <v>6.9</v>
       </c>
       <c r="AG20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2</v>
+        <v>7.7</v>
       </c>
       <c r="AH20">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>111</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>9.6999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>9.6</v>
+        <v>6.6</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
+        <v>10</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="2"/>
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="2"/>
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7</v>
+        <v>8.5</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8</v>
+        <v>6.3</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1</v>
+        <v>5.9</v>
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="4"/>
-        <v>9.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="4"/>
-        <v>7.7</v>
+        <v>5</v>
       </c>
       <c r="S21">
         <f t="shared" ca="1" si="4"/>
-        <v>9.6999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="T21">
         <f t="shared" ca="1" si="4"/>
-        <v>6.2</v>
+        <v>8.1</v>
       </c>
       <c r="U21">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1</v>
+        <v>10</v>
       </c>
       <c r="V21">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5</v>
+        <v>5.4</v>
       </c>
       <c r="W21">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="X21">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y21">
         <f t="shared" ca="1" si="3"/>
-        <v>6.9</v>
+        <v>9.5</v>
       </c>
       <c r="Z21">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6</v>
+        <v>9.1</v>
       </c>
       <c r="AA21">
         <f t="shared" ca="1" si="3"/>
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AB21">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="AC21">
         <f t="shared" ca="1" si="3"/>
-        <v>6.1</v>
+        <v>8.6</v>
       </c>
       <c r="AD21">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1999999999999993</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AE21">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AF21">
         <f t="shared" ca="1" si="3"/>
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="AG21">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AH21">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
+        <v>5.9</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4</v>
+        <v>5</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8000000000000007</v>
+        <v>8</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
+        <v>6.9</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="2"/>
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
+        <v>6.8</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="2"/>
-        <v>9.6999999999999993</v>
+        <v>5.6</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="2"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R23">
+        <f t="shared" ca="1" si="2"/>
         <v>8.9</v>
       </c>
-      <c r="R23">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
-      </c>
       <c r="S23">
         <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
+        <v>8</v>
       </c>
       <c r="T23">
         <f t="shared" ref="T23:AH27" ca="1" si="5">RANDBETWEEN(50,100)/10</f>
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="U23">
         <f t="shared" ca="1" si="5"/>
-        <v>9.1999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="V23">
         <f t="shared" ca="1" si="5"/>
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="W23">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="X23">
         <f t="shared" ca="1" si="5"/>
-        <v>9.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Y23">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6</v>
+        <v>5.9</v>
       </c>
       <c r="Z23">
         <f t="shared" ca="1" si="5"/>
-        <v>5.9</v>
+        <v>9.6</v>
       </c>
       <c r="AA23">
         <f t="shared" ca="1" si="5"/>
-        <v>6.6</v>
+        <v>8.9</v>
       </c>
       <c r="AB23">
         <f t="shared" ca="1" si="5"/>
-        <v>9.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AC23">
         <f t="shared" ca="1" si="5"/>
-        <v>7.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AD23">
         <f t="shared" ca="1" si="5"/>
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="AE23">
         <f t="shared" ca="1" si="5"/>
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AF23">
         <f t="shared" ca="1" si="5"/>
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AG23">
         <f t="shared" ca="1" si="5"/>
-        <v>9.6999999999999993</v>
+        <v>6.1</v>
       </c>
       <c r="AH23">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>8.5</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.6</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.3</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.8</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.8</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.8</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.9</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.6</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="R24">
+        <f t="shared" ca="1" si="2"/>
         <v>5.4</v>
       </c>
-      <c r="F24">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.8</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="H24">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.5</v>
-      </c>
-      <c r="I24">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.1</v>
-      </c>
-      <c r="J24">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="K24">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="L24">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.5</v>
-      </c>
-      <c r="M24">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N24">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.7</v>
-      </c>
-      <c r="O24">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="P24">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="R24">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.5</v>
-      </c>
       <c r="S24">
         <f t="shared" ca="1" si="2"/>
-        <v>7.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="T24">
         <f t="shared" ca="1" si="5"/>
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="U24">
         <f t="shared" ca="1" si="5"/>
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="V24">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="W24">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="X24">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>5.4</v>
       </c>
       <c r="Y24">
         <f t="shared" ca="1" si="5"/>
-        <v>7.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z24">
         <f t="shared" ca="1" si="5"/>
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AA24">
         <f t="shared" ca="1" si="5"/>
-        <v>6.9</v>
+        <v>8.6</v>
       </c>
       <c r="AB24">
         <f t="shared" ca="1" si="5"/>
-        <v>8.3000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="AC24">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AD24">
         <f t="shared" ca="1" si="5"/>
-        <v>9.8000000000000007</v>
+        <v>8.1</v>
       </c>
       <c r="AE24">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0999999999999996</v>
+        <v>6.8</v>
       </c>
       <c r="AF24">
         <f t="shared" ca="1" si="5"/>
-        <v>8.3000000000000007</v>
+        <v>10</v>
       </c>
       <c r="AG24">
         <f t="shared" ca="1" si="5"/>
-        <v>6.3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AH24">
         <f t="shared" ca="1" si="5"/>
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
+        <v>9.4</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.6</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.4</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.7</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.4</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ca="1" si="2"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="F25">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.5</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.5</v>
-      </c>
-      <c r="H25">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.7</v>
-      </c>
-      <c r="I25">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.6</v>
-      </c>
-      <c r="J25">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="K25">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.4</v>
-      </c>
-      <c r="L25">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.6</v>
-      </c>
-      <c r="M25">
+      <c r="Q25">
         <f t="shared" ca="1" si="2"/>
         <v>8.9</v>
       </c>
-      <c r="N25">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.8</v>
-      </c>
-      <c r="O25">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.9</v>
-      </c>
-      <c r="P25">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.5</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.6</v>
-      </c>
       <c r="R25">
         <f t="shared" ca="1" si="2"/>
-        <v>8.5</v>
+        <v>5.6</v>
       </c>
       <c r="S25">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1</v>
+        <v>9.9</v>
       </c>
       <c r="T25">
         <f t="shared" ca="1" si="5"/>
-        <v>8.9</v>
+        <v>5.6</v>
       </c>
       <c r="U25">
         <f t="shared" ca="1" si="5"/>
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="V25">
         <f t="shared" ca="1" si="5"/>
-        <v>8.5</v>
+        <v>5.3</v>
       </c>
       <c r="W25">
         <f t="shared" ca="1" si="5"/>
-        <v>8.1999999999999993</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="X25">
         <f t="shared" ca="1" si="5"/>
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="Y25">
         <f t="shared" ca="1" si="5"/>
-        <v>9.1999999999999993</v>
+        <v>7.6</v>
       </c>
       <c r="Z25">
         <f t="shared" ca="1" si="5"/>
-        <v>7.3</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AA25">
         <f t="shared" ca="1" si="5"/>
-        <v>5.3</v>
+        <v>7.5</v>
       </c>
       <c r="AB25">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1</v>
+        <v>8.4</v>
       </c>
       <c r="AC25">
         <f t="shared" ca="1" si="5"/>
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="AD25">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="AE25">
         <f t="shared" ca="1" si="5"/>
-        <v>9.9</v>
+        <v>5</v>
       </c>
       <c r="AF25">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AG25">
         <f t="shared" ca="1" si="5"/>
-        <v>6.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AH25">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>7.3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="2"/>
         <v>5.9</v>
       </c>
-      <c r="F26">
+      <c r="H26">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.9</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.9</v>
+      </c>
+      <c r="K26">
         <f t="shared" ca="1" si="2"/>
         <v>6.4</v>
       </c>
-      <c r="G26">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.6</v>
-      </c>
-      <c r="H26">
+      <c r="L26">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.4</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.8</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.3</v>
+      </c>
+      <c r="R26">
         <f t="shared" ca="1" si="2"/>
         <v>7.3</v>
       </c>
-      <c r="I26">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.8</v>
-      </c>
-      <c r="J26">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.9</v>
-      </c>
-      <c r="K26">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="L26">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.7</v>
-      </c>
-      <c r="M26">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.7</v>
-      </c>
-      <c r="N26">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9</v>
-      </c>
-      <c r="O26">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.6</v>
-      </c>
-      <c r="P26">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.5</v>
-      </c>
-      <c r="R26">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
-      </c>
       <c r="S26">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="T26">
         <f t="shared" ca="1" si="5"/>
-        <v>6.3</v>
+        <v>8.6</v>
       </c>
       <c r="U26">
         <f t="shared" ca="1" si="5"/>
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="V26">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>5.2</v>
       </c>
       <c r="W26">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="X26">
         <f t="shared" ca="1" si="5"/>
-        <v>8.3000000000000007</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Y26">
         <f t="shared" ca="1" si="5"/>
-        <v>5.7</v>
+        <v>6.9</v>
       </c>
       <c r="Z26">
         <f t="shared" ca="1" si="5"/>
-        <v>9.8000000000000007</v>
+        <v>8</v>
       </c>
       <c r="AA26">
         <f t="shared" ca="1" si="5"/>
-        <v>9.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AB26">
         <f t="shared" ca="1" si="5"/>
-        <v>5.9</v>
+        <v>7.1</v>
       </c>
       <c r="AC26">
         <f t="shared" ca="1" si="5"/>
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
       <c r="AD26">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AE26">
         <f t="shared" ca="1" si="5"/>
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="AF26">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="AG26">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="AH26">
         <f t="shared" ca="1" si="5"/>
-        <v>9.5</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>115</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2</v>
+        <v>8.1</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5</v>
+        <v>6.4</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2</v>
+        <v>7.8</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3</v>
+        <v>9.1</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
+        <v>10</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="2"/>
+        <v>6.7</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.1</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.3</v>
+      </c>
+      <c r="R27">
+        <f t="shared" ca="1" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="M27">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="N27">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.4</v>
-      </c>
-      <c r="O27">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="P27">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.4</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.9</v>
-      </c>
-      <c r="R27">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
       <c r="S27">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1999999999999993</v>
+        <v>7.8</v>
       </c>
       <c r="T27">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="U27">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="5"/>
-        <v>8.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="W27">
         <f t="shared" ca="1" si="5"/>
-        <v>9.6999999999999993</v>
+        <v>5.7</v>
       </c>
       <c r="X27">
         <f t="shared" ca="1" si="5"/>
-        <v>8.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="Y27">
         <f t="shared" ca="1" si="5"/>
-        <v>8.4</v>
+        <v>7.3</v>
       </c>
       <c r="Z27">
         <f t="shared" ca="1" si="5"/>
-        <v>8.4</v>
+        <v>9.9</v>
       </c>
       <c r="AA27">
         <f t="shared" ca="1" si="5"/>
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="AB27">
         <f t="shared" ca="1" si="5"/>
-        <v>9.1999999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="AC27">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AD27">
         <f t="shared" ca="1" si="5"/>
-        <v>8.9</v>
+        <v>6.9</v>
       </c>
       <c r="AE27">
         <f t="shared" ca="1" si="5"/>
-        <v>7.5</v>
+        <v>9.6</v>
       </c>
       <c r="AF27">
         <f t="shared" ca="1" si="5"/>
-        <v>9.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AG27">
         <f t="shared" ca="1" si="5"/>
-        <v>5.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AH27">
         <f t="shared" ca="1" si="5"/>
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>7.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8000000000000007</v>
+        <v>7.5</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
@@ -8721,91 +8731,91 @@
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="2"/>
-        <v>9.4</v>
+        <v>8.5</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="2"/>
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="2"/>
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.8</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <f t="shared" ca="1" si="2"/>
         <v>5.7</v>
       </c>
-      <c r="O29">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.4</v>
-      </c>
-      <c r="P29">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.6</v>
-      </c>
-      <c r="R29">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.7</v>
-      </c>
       <c r="S29">
         <f t="shared" ca="1" si="2"/>
-        <v>8.8000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="T29">
         <f t="shared" ref="T29:AH35" ca="1" si="6">RANDBETWEEN(50,100)/10</f>
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="U29">
         <f t="shared" ca="1" si="6"/>
-        <v>5.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="V29">
         <f t="shared" ca="1" si="6"/>
-        <v>9.3000000000000007</v>
+        <v>7</v>
       </c>
       <c r="W29">
         <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="X29">
+        <f t="shared" ca="1" si="6"/>
         <v>8.4</v>
       </c>
-      <c r="X29">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.7</v>
-      </c>
       <c r="Y29">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="Z29">
         <f t="shared" ca="1" si="6"/>
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="AA29">
         <f t="shared" ca="1" si="6"/>
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="AB29">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC29">
         <f t="shared" ca="1" si="6"/>
-        <v>7.9</v>
+        <v>5.3</v>
       </c>
       <c r="AD29">
         <f t="shared" ca="1" si="6"/>
-        <v>7.7</v>
+        <v>5.2</v>
       </c>
       <c r="AE29">
         <f t="shared" ca="1" si="6"/>
@@ -8813,419 +8823,419 @@
       </c>
       <c r="AF29">
         <f t="shared" ca="1" si="6"/>
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AG29">
         <f t="shared" ca="1" si="6"/>
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="AH29">
         <f t="shared" ca="1" si="6"/>
-        <v>7.9</v>
+        <v>9.4</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
+        <v>7.3</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.4</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.3</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.6</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.6</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.3</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.6</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ca="1" si="2"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.2</v>
-      </c>
-      <c r="G30">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.3</v>
-      </c>
-      <c r="H30">
-        <f t="shared" ca="1" si="2"/>
+      <c r="R30">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.9</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.4</v>
+      </c>
+      <c r="T30">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.1</v>
+      </c>
+      <c r="U30">
+        <f t="shared" ca="1" si="6"/>
         <v>8.4</v>
       </c>
-      <c r="I30">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J30">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.2</v>
-      </c>
-      <c r="K30">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.9</v>
-      </c>
-      <c r="L30">
-        <f t="shared" ca="1" si="2"/>
+      <c r="V30">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.4</v>
+      </c>
+      <c r="W30">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="X30">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.4</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.1</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.4</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.3</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" ca="1" si="6"/>
         <v>6.6</v>
       </c>
-      <c r="M30">
-        <f t="shared" ca="1" si="2"/>
+      <c r="AC30">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.5</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.1</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.5</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" ca="1" si="6"/>
         <v>7.8</v>
       </c>
-      <c r="N30">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.4</v>
-      </c>
-      <c r="O30">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="P30">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="R30">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.8</v>
-      </c>
-      <c r="S30">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="T30">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.8</v>
-      </c>
-      <c r="U30">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.9</v>
-      </c>
-      <c r="V30">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.5</v>
-      </c>
-      <c r="W30">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="X30">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.4</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.4</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3</v>
-      </c>
-      <c r="AC30">
+      <c r="AG30">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.5</v>
+      </c>
+      <c r="AH30">
         <f t="shared" ca="1" si="6"/>
         <v>9.9</v>
       </c>
-      <c r="AD30">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.2</v>
-      </c>
-      <c r="AE30">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.5</v>
-      </c>
-      <c r="AF30">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AG30">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="AH30">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3</v>
-      </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.3</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.6</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.6</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.6</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.6</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.7</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.7</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.9</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="R31">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.8</v>
+      </c>
+      <c r="S31">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.4</v>
+      </c>
+      <c r="T31">
+        <f t="shared" ca="1" si="6"/>
         <v>9.3000000000000007</v>
       </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.5</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ca="1" si="2"/>
+      <c r="U31">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="V31">
+        <f t="shared" ca="1" si="6"/>
         <v>6.2</v>
       </c>
-      <c r="G31">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.8</v>
-      </c>
-      <c r="H31">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.6</v>
-      </c>
-      <c r="I31">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.6</v>
-      </c>
-      <c r="J31">
-        <f t="shared" ca="1" si="2"/>
+      <c r="W31">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="X31">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.3</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.3</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.4</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.7</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.4</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.3</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" ca="1" si="6"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="K31">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.1</v>
-      </c>
-      <c r="L31">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.7</v>
-      </c>
-      <c r="M31">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="N31">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.2</v>
-      </c>
-      <c r="O31">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.3</v>
-      </c>
-      <c r="P31">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.6</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.6</v>
-      </c>
-      <c r="R31">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="S31">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="T31">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="U31">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="V31">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="W31">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="X31">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.9</v>
-      </c>
-      <c r="AA31">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.4</v>
-      </c>
-      <c r="AD31">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.7</v>
-      </c>
-      <c r="AE31">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.7</v>
-      </c>
-      <c r="AF31">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.6</v>
-      </c>
-      <c r="AG31">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.1</v>
-      </c>
       <c r="AH31">
         <f t="shared" ca="1" si="6"/>
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>6.2</v>
+        <v>10</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="2"/>
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.4</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.1</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.6</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ca="1" si="2"/>
         <v>6.1</v>
       </c>
-      <c r="J32">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.2</v>
-      </c>
-      <c r="K32">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.3</v>
-      </c>
-      <c r="L32">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.2</v>
-      </c>
-      <c r="M32">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.5</v>
-      </c>
-      <c r="N32">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="O32">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.6</v>
-      </c>
       <c r="P32">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
+        <v>7.8</v>
       </c>
       <c r="Q32">
         <f t="shared" ref="Q32:S35" ca="1" si="7">RANDBETWEEN(50,100)/10</f>
-        <v>8.4</v>
+        <v>5.8</v>
       </c>
       <c r="R32">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="S32">
         <f t="shared" ca="1" si="7"/>
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="T32">
         <f t="shared" ca="1" si="6"/>
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U32">
         <f t="shared" ca="1" si="6"/>
-        <v>6.1</v>
+        <v>9.4</v>
       </c>
       <c r="V32">
         <f t="shared" ca="1" si="6"/>
-        <v>8.3000000000000007</v>
+        <v>7.2</v>
       </c>
       <c r="W32">
         <f t="shared" ca="1" si="6"/>
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="X32">
         <f t="shared" ca="1" si="6"/>
-        <v>8.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y32">
         <f t="shared" ca="1" si="6"/>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z32">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AA32">
         <f t="shared" ca="1" si="6"/>
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AB32">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="AC32">
         <f t="shared" ca="1" si="6"/>
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="AD32">
         <f t="shared" ca="1" si="6"/>
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="AE32">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0999999999999996</v>
+        <v>8.9</v>
       </c>
       <c r="AF32">
         <f t="shared" ca="1" si="6"/>
-        <v>8.4</v>
+        <v>5.4</v>
       </c>
       <c r="AG32">
         <f t="shared" ca="1" si="6"/>
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="AH32">
         <f t="shared" ca="1" si="6"/>
-        <v>7.5</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5</v>
+        <v>8.6</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="2"/>
@@ -9233,301 +9243,301 @@
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3</v>
+        <v>10</v>
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2</v>
+        <v>6.7</v>
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5</v>
+        <v>9.4</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="P33">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="7"/>
-        <v>5.4</v>
+        <v>9.6</v>
       </c>
       <c r="R33">
         <f t="shared" ca="1" si="7"/>
-        <v>9.6999999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="S33">
         <f t="shared" ca="1" si="7"/>
-        <v>9.1</v>
+        <v>6.9</v>
       </c>
       <c r="T33">
         <f t="shared" ca="1" si="6"/>
-        <v>9.6999999999999993</v>
+        <v>5.9</v>
       </c>
       <c r="U33">
         <f t="shared" ca="1" si="6"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="V33">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="W33">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="X33">
+        <f t="shared" ca="1" si="6"/>
         <v>8</v>
       </c>
-      <c r="V33">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="W33">
+      <c r="Y33">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.2</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.9</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.9</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.3</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AD33">
         <f t="shared" ca="1" si="6"/>
         <v>6.9</v>
       </c>
-      <c r="X33">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.4</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.4</v>
-      </c>
-      <c r="Z33">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.2</v>
-      </c>
-      <c r="AA33">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.2</v>
-      </c>
-      <c r="AD33">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3</v>
-      </c>
       <c r="AE33">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AF33">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="AG33">
         <f t="shared" ca="1" si="6"/>
-        <v>9.1999999999999993</v>
+        <v>6</v>
       </c>
       <c r="AH33">
         <f t="shared" ca="1" si="6"/>
-        <v>9.1</v>
+        <v>6.2</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>157</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4</v>
+        <v>9.1</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="2"/>
+        <v>8.9</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.6</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
-      <c r="H34">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.4</v>
-      </c>
-      <c r="I34">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J34">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="K34">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.5</v>
-      </c>
       <c r="L34">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9</v>
+        <v>5.5</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>9.6</v>
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="P34">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8000000000000007</v>
+        <v>7.4</v>
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="7"/>
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="R34">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5</v>
+        <v>6.3</v>
       </c>
       <c r="S34">
         <f t="shared" ca="1" si="7"/>
-        <v>8.6999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="T34">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="U34">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="V34">
         <f t="shared" ca="1" si="6"/>
+        <v>9.1</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.6</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.4</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.1</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" ca="1" si="6"/>
         <v>8.4</v>
       </c>
-      <c r="W34">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.3</v>
-      </c>
-      <c r="X34">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.7</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.9</v>
-      </c>
-      <c r="Z34">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.9</v>
-      </c>
       <c r="AA34">
         <f t="shared" ca="1" si="6"/>
-        <v>5.7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AB34">
         <f t="shared" ca="1" si="6"/>
-        <v>8.6999999999999993</v>
+        <v>6.8</v>
       </c>
       <c r="AC34">
         <f t="shared" ca="1" si="6"/>
-        <v>6.3</v>
+        <v>8.9</v>
       </c>
       <c r="AD34">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>7.7</v>
       </c>
       <c r="AE34">
         <f t="shared" ca="1" si="6"/>
-        <v>6.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AF34">
         <f t="shared" ca="1" si="6"/>
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AG34">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="AH34">
         <f t="shared" ca="1" si="6"/>
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1999999999999993</v>
+        <v>6.6</v>
       </c>
       <c r="F35">
         <f t="shared" ref="F35:P35" ca="1" si="8">RANDBETWEEN(50,100)/10</f>
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="8"/>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="8"/>
-        <v>9.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="8"/>
-        <v>9.6</v>
+        <v>6.7</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="8"/>
-        <v>8.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="8"/>
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="8"/>
-        <v>9.1</v>
+        <v>6.4</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="8"/>
-        <v>6.9</v>
+        <v>9.1</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="8"/>
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="8"/>
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="8"/>
-        <v>9.8000000000000007</v>
+        <v>9.9</v>
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="7"/>
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="R35">
         <f t="shared" ca="1" si="7"/>
@@ -9535,586 +9545,586 @@
       </c>
       <c r="S35">
         <f t="shared" ca="1" si="7"/>
-        <v>9.8000000000000007</v>
+        <v>7.2</v>
       </c>
       <c r="T35">
         <f t="shared" ca="1" si="6"/>
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="U35">
         <f t="shared" ca="1" si="6"/>
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="V35">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>8.9</v>
       </c>
       <c r="W35">
         <f t="shared" ca="1" si="6"/>
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="X35">
         <f t="shared" ca="1" si="6"/>
+        <v>6.8</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.9</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.4</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" ca="1" si="6"/>
         <v>7.7</v>
       </c>
-      <c r="Y35">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Z35">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA35">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.5</v>
-      </c>
       <c r="AB35">
         <f t="shared" ca="1" si="6"/>
-        <v>5.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AC35">
         <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" ca="1" si="6"/>
         <v>7.7</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.9</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.5</v>
+      </c>
+      <c r="AH35">
         <f t="shared" ca="1" si="6"/>
         <v>8.4</v>
       </c>
-      <c r="AE35">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.9</v>
-      </c>
-      <c r="AF35">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.5</v>
-      </c>
-      <c r="AG35">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.9</v>
-      </c>
-      <c r="AH35">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.5</v>
-      </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D37">
         <f t="shared" ref="D37:AA40" ca="1" si="9">RANDBETWEEN(50,100)/10</f>
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="9"/>
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="9"/>
-        <v>6.1</v>
+        <v>7.7</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="9"/>
-        <v>9.3000000000000007</v>
+        <v>7.8</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="9"/>
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="9"/>
-        <v>6.7</v>
+        <v>8.1</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="9"/>
-        <v>9.8000000000000007</v>
+        <v>6.9</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="9"/>
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>5.3</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="9"/>
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0999999999999996</v>
+        <v>8.5</v>
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="9"/>
-        <v>9.6999999999999993</v>
+        <v>7.6</v>
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="9"/>
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="R37">
         <f t="shared" ca="1" si="9"/>
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="S37">
         <f t="shared" ca="1" si="9"/>
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="T37">
         <f t="shared" ca="1" si="9"/>
-        <v>8.6999999999999993</v>
+        <v>9</v>
       </c>
       <c r="U37">
         <f t="shared" ca="1" si="9"/>
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="V37">
         <f t="shared" ca="1" si="9"/>
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="W37">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="X37">
         <f t="shared" ca="1" si="9"/>
-        <v>9.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="Y37">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>9.9</v>
       </c>
       <c r="Z37">
         <f t="shared" ca="1" si="9"/>
-        <v>7.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AA37">
         <f t="shared" ca="1" si="9"/>
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AB37">
         <f t="shared" ref="AB37:AH37" ca="1" si="10">RANDBETWEEN(50,100)/10</f>
-        <v>8.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AC37">
         <f t="shared" ca="1" si="10"/>
-        <v>7.8</v>
+        <v>5</v>
       </c>
       <c r="AD37">
         <f t="shared" ca="1" si="10"/>
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE37">
         <f t="shared" ca="1" si="10"/>
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="AF37">
         <f t="shared" ca="1" si="10"/>
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="AG37">
         <f t="shared" ca="1" si="10"/>
-        <v>8.8000000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="AH37">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0999999999999996</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="9"/>
-        <v>7.8</v>
+        <v>9.1</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6.9</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>5.2</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="9"/>
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1999999999999993</v>
+        <v>7.7</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="9"/>
-        <v>8.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="9"/>
-        <v>9.1999999999999993</v>
+        <v>6.8</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="9"/>
-        <v>7.1</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="9"/>
-        <v>8.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="9"/>
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>5.8</v>
       </c>
       <c r="R38">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="S38">
         <f t="shared" ca="1" si="9"/>
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="T38">
         <f t="shared" ca="1" si="9"/>
-        <v>6.3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="U38">
         <f t="shared" ca="1" si="9"/>
-        <v>6.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="V38">
         <f t="shared" ca="1" si="9"/>
-        <v>9.6999999999999993</v>
+        <v>7.8</v>
       </c>
       <c r="W38">
         <f t="shared" ca="1" si="9"/>
-        <v>8.6999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="X38">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3</v>
+        <v>9.6</v>
       </c>
       <c r="Y38">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="Z38">
         <f t="shared" ca="1" si="9"/>
-        <v>7.7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AA38">
         <f t="shared" ca="1" si="9"/>
-        <v>9.6999999999999993</v>
+        <v>5.6</v>
       </c>
       <c r="AB38">
         <f t="shared" ref="AA38:AH40" ca="1" si="11">RANDBETWEEN(50,100)/10</f>
-        <v>8.1999999999999993</v>
+        <v>6.7</v>
       </c>
       <c r="AC38">
         <f t="shared" ca="1" si="11"/>
-        <v>9.4</v>
+        <v>7.9</v>
       </c>
       <c r="AD38">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AE38">
         <f t="shared" ca="1" si="11"/>
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="AF38">
         <f t="shared" ca="1" si="11"/>
-        <v>9.3000000000000007</v>
+        <v>6.7</v>
       </c>
       <c r="AG38">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>9.6</v>
       </c>
       <c r="AH38">
         <f t="shared" ca="1" si="11"/>
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1</v>
+        <v>5.9</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="9"/>
-        <v>6.3</v>
+        <v>8.6</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="9"/>
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="9"/>
-        <v>7.4</v>
+        <v>5.3</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="9"/>
-        <v>8.8000000000000007</v>
+        <v>5.5</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="9"/>
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="9"/>
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="9"/>
-        <v>9.8000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="9"/>
-        <v>9.5</v>
+        <v>6.1</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9</v>
+        <v>9.6</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3</v>
+        <v>9.5</v>
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="R39">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="S39">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1</v>
+        <v>5.7</v>
       </c>
       <c r="T39">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="U39">
         <f t="shared" ca="1" si="9"/>
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="V39">
         <f t="shared" ca="1" si="9"/>
-        <v>9.3000000000000007</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="W39">
         <f t="shared" ca="1" si="9"/>
-        <v>6.3</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="X39">
         <f t="shared" ca="1" si="9"/>
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="Y39">
         <f t="shared" ca="1" si="9"/>
-        <v>6.6</v>
+        <v>9.1</v>
       </c>
       <c r="Z39">
         <f t="shared" ca="1" si="9"/>
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="AA39">
         <f t="shared" ca="1" si="11"/>
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="AB39">
         <f t="shared" ca="1" si="11"/>
-        <v>7.1</v>
+        <v>9.6</v>
       </c>
       <c r="AC39">
         <f t="shared" ca="1" si="11"/>
-        <v>7.3</v>
+        <v>5.6</v>
       </c>
       <c r="AD39">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AE39">
         <f t="shared" ca="1" si="11"/>
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="AF39">
         <f t="shared" ca="1" si="11"/>
-        <v>5.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG39">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AH39">
         <f t="shared" ca="1" si="11"/>
-        <v>7.6</v>
+        <v>9.9</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="9"/>
-        <v>7.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3000000000000007</v>
+        <v>5.9</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="9"/>
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="9"/>
-        <v>6.7</v>
+        <v>8.6</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="9"/>
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="9"/>
-        <v>9.9</v>
+        <v>6.6</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="9"/>
-        <v>7.1</v>
+        <v>9.6</v>
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3000000000000007</v>
+        <v>5.9</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="9"/>
-        <v>8.8000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="9"/>
-        <v>8.6999999999999993</v>
+        <v>5.5</v>
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="9"/>
-        <v>8.6999999999999993</v>
+        <v>7.5</v>
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="9"/>
-        <v>6.7</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="R40">
         <f t="shared" ca="1" si="9"/>
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="S40">
         <f t="shared" ca="1" si="9"/>
-        <v>8.8000000000000007</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="T40">
         <f t="shared" ca="1" si="9"/>
-        <v>5.4</v>
+        <v>8.6</v>
       </c>
       <c r="U40">
         <f t="shared" ca="1" si="9"/>
-        <v>6.3</v>
+        <v>9.6</v>
       </c>
       <c r="V40">
         <f t="shared" ca="1" si="9"/>
-        <v>5.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="W40">
         <f t="shared" ca="1" si="9"/>
-        <v>9.3000000000000007</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="X40">
         <f t="shared" ca="1" si="9"/>
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y40">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Z40">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AA40">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AB40">
         <f t="shared" ca="1" si="11"/>
-        <v>7.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AC40">
         <f t="shared" ca="1" si="11"/>
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="AD40">
         <f t="shared" ca="1" si="11"/>
-        <v>9.9</v>
+        <v>6.2</v>
       </c>
       <c r="AE40">
         <f t="shared" ca="1" si="11"/>
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AF40">
         <f t="shared" ca="1" si="11"/>
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG40">
         <f t="shared" ca="1" si="11"/>
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="AH40">
         <f t="shared" ca="1" si="11"/>
-        <v>5.3</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>

--- a/02_Database/Vehicle_Data.xlsx
+++ b/02_Database/Vehicle_Data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Studium\TUM\HiWi\Customer-Oriented-Concept-Assessment-COCA-Tool-main\Customer-Oriented-Concept-Assessment-COCA-Tool-main\02_Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge59tor\git\repos_lehre\Customer-Oriented-Concept-Assessment-COCA-Tool\02_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B086F6-7CB3-4624-8710-F8665F151E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7024F92-8BB0-4A1B-B642-9A3234C638FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="37695" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle Data" sheetId="3" r:id="rId1"/>
-    <sheet name="Properties" sheetId="2" r:id="rId2"/>
+    <sheet name="Properties" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="375">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1301,21 +1306,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1323,27 +1328,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1351,13 +1356,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1409,13 +1414,13 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1440,14 +1445,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1468,7 +1470,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1766,23 +1768,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B5C9A0-420C-491A-ABC7-ADFF42C42C62}">
   <dimension ref="A1:BO66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L63" sqref="L63"/>
+      <selection pane="bottomRight" activeCell="BP12" sqref="BP12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.5546875" customWidth="1"/>
-    <col min="67" max="67" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.5703125" customWidth="1"/>
+    <col min="67" max="67" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67">
       <c r="A1" t="s">
         <v>151</v>
       </c>
@@ -1979,7 +1981,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:67">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -2176,12 +2178,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:67">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:67">
       <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
@@ -2378,7 +2380,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:67">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -2578,7 +2580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:67">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -2778,7 +2780,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:67">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -2978,7 +2980,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:67">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -3178,7 +3180,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:67">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -3378,7 +3380,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -3578,7 +3580,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:67">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -3778,7 +3780,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:67">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -3789,11 +3791,11 @@
         <f>(0.5*0.9-0.012)/(1+(0.26-0.04*D43/1000)*0.9)*100</f>
         <v>36.977627691008863</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13">
         <f>(0.5*0.9-0.012)/(1+(0.26-0.04*E43/1000)*0.9)*100</f>
         <v>37.914462203263064</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13">
         <f>(0.5*0.9-0.012)/(1+(0.26-0.04*F43/1000)*0.9)*100</f>
         <v>37.050822223726058</v>
       </c>
@@ -3802,78 +3804,78 @@
         <v>31.395454815284847</v>
       </c>
       <c r="H13">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*H43/1000)*0.9)*100</f>
+        <f t="shared" ref="H13:X13" si="0">(0.5*0.9-0.012)/(1+(0.26-0.04*H43/1000)*0.9)*100</f>
         <v>37.105059842498342</v>
       </c>
       <c r="I13">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*I43/1000)*0.9)*100</f>
+        <f t="shared" si="0"/>
         <v>37.203771341204451</v>
       </c>
       <c r="J13">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*J43/1000)*0.9)*100</f>
+        <f t="shared" si="0"/>
         <v>37.453439730745686</v>
       </c>
       <c r="K13">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*K43/1000)*0.9)*100</f>
+        <f t="shared" si="0"/>
         <v>36.871169775742473</v>
       </c>
       <c r="L13">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*L43/1000)*0.9)*100</f>
+        <f t="shared" si="0"/>
         <v>37.676122972112793</v>
       </c>
-      <c r="M13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*M43/1000)*0.9)*100</f>
+      <c r="M13">
+        <f t="shared" si="0"/>
         <v>37.152648186475759</v>
       </c>
-      <c r="N13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*N43/1000)*0.9)*100</f>
+      <c r="N13">
+        <f t="shared" si="0"/>
         <v>37.226537931972324</v>
       </c>
       <c r="O13">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*O43/1000)*0.9)*100</f>
+        <f t="shared" si="0"/>
         <v>37.438457330415751</v>
       </c>
-      <c r="P13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*P43/1000)*0.9)*100</f>
+      <c r="P13">
+        <f t="shared" si="0"/>
         <v>37.740401185634518</v>
       </c>
-      <c r="Q13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*Q43/1000)*0.9)*100</f>
+      <c r="Q13">
+        <f t="shared" si="0"/>
         <v>38.280690101207853</v>
       </c>
-      <c r="R13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*R43/1000)*0.9)*100</f>
+      <c r="R13">
+        <f t="shared" si="0"/>
         <v>37.25845801022821</v>
       </c>
-      <c r="S13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*S43/1000)*0.9)*100</f>
+      <c r="S13">
+        <f t="shared" si="0"/>
         <v>37.273296661401886</v>
       </c>
-      <c r="T13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*T43/1000)*0.9)*100</f>
+      <c r="T13">
+        <f t="shared" si="0"/>
         <v>37.249332403517421</v>
       </c>
-      <c r="U13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*U43/1000)*0.9)*100</f>
+      <c r="U13">
+        <f t="shared" si="0"/>
         <v>37.411979349954045</v>
       </c>
-      <c r="V13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*V43/1000)*0.9)*100</f>
+      <c r="V13">
+        <f t="shared" si="0"/>
         <v>38.106838350443709</v>
       </c>
-      <c r="W13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*W43/1000)*0.9)*100</f>
+      <c r="W13">
+        <f t="shared" si="0"/>
         <v>38.523105067811215</v>
       </c>
-      <c r="X13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*X43/1000)*0.9)*100</f>
+      <c r="X13">
+        <f t="shared" si="0"/>
         <v>36.835448147799291</v>
       </c>
       <c r="Y13">
         <f>TAN(ASIN((2*Y9*12*0.95)/(9.81*(Y39+Y43)*Y27*0.001)-0.012))*100</f>
         <v>33.128848061364522</v>
       </c>
-      <c r="Z13" s="17">
+      <c r="Z13">
         <f>(0.5*0.9-0.012)/(1+(0.26-0.04*Z43/1000)*0.9)*100</f>
         <v>36.781995297279138</v>
       </c>
@@ -3881,108 +3883,108 @@
         <f>TAN(ASIN((2*AA9*12*0.95)/(9.81*(AA39+AA43)*AA27*0.001)-0.012))*100</f>
         <v>31.084607874845897</v>
       </c>
-      <c r="AB13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AB43/1000)*0.9)*100</f>
+      <c r="AB13">
+        <f t="shared" ref="AB13:BA13" si="1">(0.5*0.9-0.012)/(1+(0.26-0.04*AB43/1000)*0.9)*100</f>
         <v>36.665606321887189</v>
       </c>
       <c r="AC13">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AC43/1000)*0.9)*100</f>
+        <f t="shared" si="1"/>
         <v>38.118777414189239</v>
       </c>
       <c r="AD13">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AD43/1000)*0.9)*100</f>
+        <f t="shared" si="1"/>
         <v>36.788668418188045</v>
       </c>
       <c r="AE13">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AE43/1000)*0.9)*100</f>
+        <f t="shared" si="1"/>
         <v>36.988869559342646</v>
       </c>
       <c r="AF13">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AF43/1000)*0.9)*100</f>
+        <f t="shared" si="1"/>
         <v>37.050822223726058</v>
       </c>
       <c r="AG13">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AG43/1000)*0.9)*100</f>
+        <f t="shared" si="1"/>
         <v>37.243631169007855</v>
       </c>
-      <c r="AH13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AH43/1000)*0.9)*100</f>
+      <c r="AH13">
+        <f t="shared" si="1"/>
         <v>37.60973800266531</v>
       </c>
-      <c r="AI13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AI43/1000)*0.9)*100</f>
+      <c r="AI13">
+        <f t="shared" si="1"/>
         <v>37.95349224119704</v>
       </c>
-      <c r="AJ13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AJ43/1000)*0.9)*100</f>
+      <c r="AJ13">
+        <f t="shared" si="1"/>
         <v>37.234512822954144</v>
       </c>
-      <c r="AK13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AK43/1000)*0.9)*100</f>
+      <c r="AK13">
+        <f t="shared" si="1"/>
         <v>37.993789143144639</v>
       </c>
-      <c r="AL13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AL43/1000)*0.9)*100</f>
+      <c r="AL13">
+        <f t="shared" si="1"/>
         <v>37.938107182948293</v>
       </c>
-      <c r="AM13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AM43/1000)*0.9)*100</f>
+      <c r="AM13">
+        <f t="shared" si="1"/>
         <v>37.415430875418579</v>
       </c>
-      <c r="AN13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AN43/1000)*0.9)*100</f>
+      <c r="AN13">
+        <f t="shared" si="1"/>
         <v>37.209460377871416</v>
       </c>
-      <c r="AO13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AO43/1000)*0.9)*100</f>
+      <c r="AO13">
+        <f t="shared" si="1"/>
         <v>37.613226115601414</v>
       </c>
       <c r="AP13">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AP43/1000)*0.9)*100</f>
+        <f t="shared" si="1"/>
         <v>37.908555562864152</v>
       </c>
-      <c r="AQ13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AQ43/1000)*0.9)*100</f>
+      <c r="AQ13">
+        <f t="shared" si="1"/>
         <v>37.883767756934979</v>
       </c>
-      <c r="AR13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AR43/1000)*0.9)*100</f>
+      <c r="AR13">
+        <f t="shared" si="1"/>
         <v>38.232572755363904</v>
       </c>
-      <c r="AS13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AS43/1000)*0.9)*100</f>
+      <c r="AS13">
+        <f t="shared" si="1"/>
         <v>37.759141505400066</v>
       </c>
-      <c r="AT13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AT43/1000)*0.9)*100</f>
+      <c r="AT13">
+        <f t="shared" si="1"/>
         <v>37.229955324053613</v>
       </c>
       <c r="AU13">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AU43/1000)*0.9)*100</f>
+        <f t="shared" si="1"/>
         <v>38.510911424903718</v>
       </c>
-      <c r="AV13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AV43/1000)*0.9)*100</f>
+      <c r="AV13">
+        <f t="shared" si="1"/>
         <v>37.996162214117909</v>
       </c>
-      <c r="AW13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AW43/1000)*0.9)*100</f>
+      <c r="AW13">
+        <f t="shared" si="1"/>
         <v>37.369462835301341</v>
       </c>
-      <c r="AX13" s="17">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AX43/1000)*0.9)*100</f>
+      <c r="AX13">
+        <f t="shared" si="1"/>
         <v>37.411979349954045</v>
       </c>
       <c r="AY13">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AY43/1000)*0.9)*100</f>
+        <f t="shared" si="1"/>
         <v>36.938334907569832</v>
       </c>
       <c r="AZ13">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*AZ43/1000)*0.9)*100</f>
+        <f t="shared" si="1"/>
         <v>36.765323081572006</v>
       </c>
       <c r="BA13">
-        <f>(0.5*0.9-0.012)/(1+(0.26-0.04*BA43/1000)*0.9)*100</f>
+        <f t="shared" si="1"/>
         <v>36.720937641476212</v>
       </c>
       <c r="BB13">
@@ -4013,7 +4015,7 @@
         <f>TAN(ASIN((2*BH9*12*0.95)/(9.81*(BH39+BH43)*BH27*0.001)-0.012))*100</f>
         <v>31.678579993627782</v>
       </c>
-      <c r="BI13" s="17">
+      <c r="BI13">
         <f>(0.5*0.9-0.012)/(1+(0.26-0.04*BI43/1000)*0.9)*100</f>
         <v>38.130723961416585</v>
       </c>
@@ -4029,7 +4031,7 @@
         <f>(0.5*0.9-0.012)/(1+(0.26-0.04*BL43/1000)*0.9)*100</f>
         <v>37.981928233233319</v>
       </c>
-      <c r="BM13" s="17">
+      <c r="BM13">
         <f>(0.5*0.9-0.012)/(1+(0.26-0.04*BM43/1000)*0.9)*100</f>
         <v>37.914462203263064</v>
       </c>
@@ -4037,12 +4039,12 @@
         <f>(0.5*0.9-0.012)/(1+(0.26-0.04*BN43/1000)*0.9)*100</f>
         <v>37.536636785904051</v>
       </c>
-      <c r="BO13" s="17">
+      <c r="BO13">
         <f>(0.5*0.9-0.012)/(1+(0.26-0.04*BO43/1000)*0.9)*100</f>
         <v>37.206046747104217</v>
       </c>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:67">
       <c r="A14" s="16" t="s">
         <v>155</v>
       </c>
@@ -4052,10 +4054,10 @@
       <c r="D14">
         <v>1.41</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
@@ -4076,52 +4078,52 @@
       <c r="L14">
         <v>1.2</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14">
         <v>1</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
         <v>1.45</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14">
         <v>1</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q14">
         <v>1</v>
       </c>
-      <c r="R14" s="19">
+      <c r="R14">
         <v>1</v>
       </c>
-      <c r="S14" s="19">
+      <c r="S14">
         <v>1</v>
       </c>
-      <c r="T14" s="19">
+      <c r="T14">
         <v>1</v>
       </c>
-      <c r="U14" s="19">
+      <c r="U14">
         <v>1</v>
       </c>
-      <c r="V14" s="19">
+      <c r="V14">
         <v>1</v>
       </c>
-      <c r="W14" s="19">
+      <c r="W14">
         <v>1</v>
       </c>
-      <c r="X14" s="19">
+      <c r="X14">
         <v>1</v>
       </c>
       <c r="Y14">
         <v>1.44</v>
       </c>
-      <c r="Z14" s="19">
+      <c r="Z14">
         <v>1</v>
       </c>
       <c r="AA14">
         <v>1.26</v>
       </c>
-      <c r="AB14" s="19">
+      <c r="AB14">
         <v>1</v>
       </c>
       <c r="AC14">
@@ -4139,55 +4141,55 @@
       <c r="AG14">
         <v>1.65</v>
       </c>
-      <c r="AH14" s="19">
+      <c r="AH14">
         <v>1</v>
       </c>
-      <c r="AI14" s="19">
+      <c r="AI14">
         <v>1</v>
       </c>
-      <c r="AJ14" s="19">
+      <c r="AJ14">
         <v>1</v>
       </c>
-      <c r="AK14" s="19">
+      <c r="AK14">
         <v>1</v>
       </c>
-      <c r="AL14" s="19">
+      <c r="AL14">
         <v>1</v>
       </c>
-      <c r="AM14" s="19">
+      <c r="AM14">
         <v>1</v>
       </c>
-      <c r="AN14" s="19">
+      <c r="AN14">
         <v>1</v>
       </c>
-      <c r="AO14" s="19">
+      <c r="AO14">
         <v>1</v>
       </c>
       <c r="AP14">
         <v>1.83</v>
       </c>
-      <c r="AQ14" s="19">
+      <c r="AQ14">
         <v>1</v>
       </c>
-      <c r="AR14" s="19">
+      <c r="AR14">
         <v>1</v>
       </c>
-      <c r="AS14" s="19">
+      <c r="AS14">
         <v>1</v>
       </c>
-      <c r="AT14" s="19">
+      <c r="AT14">
         <v>1</v>
       </c>
       <c r="AU14">
         <v>1.35</v>
       </c>
-      <c r="AV14" s="19">
+      <c r="AV14">
         <v>1</v>
       </c>
-      <c r="AW14" s="19">
+      <c r="AW14">
         <v>1</v>
       </c>
-      <c r="AX14" s="19">
+      <c r="AX14">
         <v>1</v>
       </c>
       <c r="AY14">
@@ -4220,7 +4222,7 @@
       <c r="BH14">
         <v>1.04</v>
       </c>
-      <c r="BI14" s="19">
+      <c r="BI14">
         <v>1</v>
       </c>
       <c r="BJ14">
@@ -4232,17 +4234,17 @@
       <c r="BL14">
         <v>1.1399999999999999</v>
       </c>
-      <c r="BM14" s="19">
+      <c r="BM14">
         <v>1</v>
       </c>
       <c r="BN14">
         <v>1.45</v>
       </c>
-      <c r="BO14" s="19">
+      <c r="BO14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:67">
       <c r="A15" t="s">
         <v>105</v>
       </c>
@@ -4442,18 +4444,18 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:67">
       <c r="AA16" s="10"/>
       <c r="BL16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:67">
       <c r="A17" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:67">
       <c r="A18" t="s">
         <v>134</v>
       </c>
@@ -4656,7 +4658,7 @@
         <v>4087</v>
       </c>
     </row>
-    <row r="19" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:67">
       <c r="A19" t="s">
         <v>135</v>
       </c>
@@ -4856,7 +4858,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="20" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:67">
       <c r="A20" t="s">
         <v>136</v>
       </c>
@@ -5056,7 +5058,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="21" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:67">
       <c r="A21" s="4" t="s">
         <v>120</v>
       </c>
@@ -5064,263 +5066,263 @@
         <v>9</v>
       </c>
       <c r="D21">
-        <f>D20/D19</f>
+        <f t="shared" ref="D21:AI21" si="2">D20/D19</f>
         <v>0.80509915014164302</v>
       </c>
       <c r="E21">
-        <f>E20/E19</f>
+        <f t="shared" si="2"/>
         <v>0.79558902635825712</v>
       </c>
       <c r="F21">
-        <f>F20/F19</f>
+        <f t="shared" si="2"/>
         <v>0.82918355529820498</v>
       </c>
       <c r="G21">
-        <f>G20/G19</f>
+        <f t="shared" si="2"/>
         <v>0.9145666871542717</v>
       </c>
       <c r="H21">
-        <f>H20/H19</f>
+        <f t="shared" si="2"/>
         <v>0.68628509719222464</v>
       </c>
       <c r="I21">
-        <f>I20/I19</f>
+        <f t="shared" si="2"/>
         <v>0.77850162866449513</v>
       </c>
       <c r="J21">
-        <f>J20/J19</f>
+        <f t="shared" si="2"/>
         <v>0.90336134453781514</v>
       </c>
       <c r="K21">
-        <f>K20/K19</f>
+        <f t="shared" si="2"/>
         <v>0.86963606735469856</v>
       </c>
       <c r="L21">
-        <f>L20/L19</f>
+        <f t="shared" si="2"/>
         <v>0.8552697932425618</v>
       </c>
       <c r="M21">
-        <f>M20/M19</f>
+        <f t="shared" si="2"/>
         <v>0.81189801699716713</v>
       </c>
       <c r="N21">
-        <f>N20/N19</f>
+        <f t="shared" si="2"/>
         <v>0.86301369863013699</v>
       </c>
       <c r="O21">
-        <f>O20/O19</f>
+        <f t="shared" si="2"/>
         <v>0.79643628509719222</v>
       </c>
       <c r="P21">
-        <f>P20/P19</f>
+        <f t="shared" si="2"/>
         <v>0.88331515812431838</v>
       </c>
       <c r="Q21">
-        <f>Q20/Q19</f>
+        <f t="shared" si="2"/>
         <v>0.86199575371549897</v>
       </c>
       <c r="R21">
-        <f>R20/R19</f>
+        <f t="shared" si="2"/>
         <v>0.86440677966101698</v>
       </c>
       <c r="S21">
-        <f>S20/S19</f>
+        <f t="shared" si="2"/>
         <v>0.84444444444444444</v>
       </c>
       <c r="T21">
-        <f>T20/T19</f>
+        <f t="shared" si="2"/>
         <v>0.82379099499722064</v>
       </c>
       <c r="U21">
-        <f>U20/U19</f>
+        <f t="shared" si="2"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="V21">
-        <f>V20/V19</f>
+        <f t="shared" si="2"/>
         <v>0.71945010183299385</v>
       </c>
       <c r="W21">
-        <f>W20/W19</f>
+        <f t="shared" si="2"/>
         <v>0.81730769230769229</v>
       </c>
       <c r="X21">
-        <f>X20/X19</f>
+        <f t="shared" si="2"/>
         <v>0.90699088145896656</v>
       </c>
       <c r="Y21">
-        <f>Y20/Y19</f>
+        <f t="shared" si="2"/>
         <v>0.79561643835616436</v>
       </c>
       <c r="Z21">
-        <f>Z20/Z19</f>
+        <f t="shared" si="2"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="AA21">
-        <f>AA20/AA19</f>
+        <f t="shared" si="2"/>
         <v>0.93505712567648824</v>
       </c>
       <c r="AB21">
-        <f>AB20/AB19</f>
+        <f t="shared" si="2"/>
         <v>0.93505712567648824</v>
       </c>
       <c r="AC21">
-        <f>AC20/AC19</f>
+        <f t="shared" si="2"/>
         <v>0.79568788501026699</v>
       </c>
       <c r="AD21">
-        <f>AD20/AD19</f>
+        <f t="shared" si="2"/>
         <v>0.82934963868816014</v>
       </c>
       <c r="AE21">
-        <f>AE20/AE19</f>
+        <f t="shared" si="2"/>
         <v>0.55366949575636548</v>
       </c>
       <c r="AF21">
-        <f>AF20/AF19</f>
+        <f t="shared" si="2"/>
         <v>0.90028169014084503</v>
       </c>
       <c r="AG21">
-        <f>AG20/AG19</f>
+        <f t="shared" si="2"/>
         <v>0.66580844490216273</v>
       </c>
       <c r="AH21">
-        <f>AH20/AH19</f>
+        <f t="shared" si="2"/>
         <v>0.86677722498618026</v>
       </c>
       <c r="AI21">
-        <f>AI20/AI19</f>
+        <f t="shared" si="2"/>
         <v>0.88390928725701945</v>
       </c>
       <c r="AJ21">
-        <f>AJ20/AJ19</f>
+        <f t="shared" ref="AJ21:BO21" si="3">AJ20/AJ19</f>
         <v>0.81043956043956045</v>
       </c>
       <c r="AK21">
-        <f>AK20/AK19</f>
+        <f t="shared" si="3"/>
         <v>0.88207297726070866</v>
       </c>
       <c r="AL21">
-        <f>AL20/AL19</f>
+        <f t="shared" si="3"/>
         <v>0.77871705619094977</v>
       </c>
       <c r="AM21">
-        <f>AM20/AM19</f>
+        <f t="shared" si="3"/>
         <v>0.87222222222222223</v>
       </c>
       <c r="AN21">
-        <f>AN20/AN19</f>
+        <f t="shared" si="3"/>
         <v>0.86129753914988816</v>
       </c>
       <c r="AO21">
-        <f>AO20/AO19</f>
+        <f t="shared" si="3"/>
         <v>0.78042184964845862</v>
       </c>
       <c r="AP21">
-        <f>AP20/AP19</f>
+        <f t="shared" si="3"/>
         <v>0.73574338085539714</v>
       </c>
       <c r="AQ21">
-        <f>AQ20/AQ19</f>
+        <f t="shared" si="3"/>
         <v>0.73574338085539714</v>
       </c>
       <c r="AR21">
-        <f>AR20/AR19</f>
+        <f t="shared" si="3"/>
         <v>0.84242121060530262</v>
       </c>
       <c r="AS21">
-        <f>AS20/AS19</f>
+        <f t="shared" si="3"/>
         <v>0.84539302446642373</v>
       </c>
       <c r="AT21">
-        <f>AT20/AT19</f>
+        <f t="shared" si="3"/>
         <v>0.85938375350140062</v>
       </c>
       <c r="AU21">
-        <f>AU20/AU19</f>
+        <f t="shared" si="3"/>
         <v>0.78971962616822433</v>
       </c>
       <c r="AV21">
-        <f>AV20/AV19</f>
+        <f t="shared" si="3"/>
         <v>0.8633705475810739</v>
       </c>
       <c r="AW21">
-        <f>AW20/AW19</f>
+        <f t="shared" si="3"/>
         <v>0.84145021645021645</v>
       </c>
       <c r="AX21">
-        <f>AX20/AX19</f>
+        <f t="shared" si="3"/>
         <v>0.86027397260273974</v>
       </c>
       <c r="AY21">
-        <f>AY20/AY19</f>
+        <f t="shared" si="3"/>
         <v>0.80760749724366043</v>
       </c>
       <c r="AZ21">
-        <f>AZ20/AZ19</f>
+        <f t="shared" si="3"/>
         <v>0.81876085697741752</v>
       </c>
       <c r="BA21">
-        <f>BA20/BA19</f>
+        <f t="shared" si="3"/>
         <v>0.82581382067390063</v>
       </c>
       <c r="BB21">
-        <f>BB20/BB19</f>
+        <f t="shared" si="3"/>
         <v>0.83522727272727271</v>
       </c>
       <c r="BC21">
-        <f>BC20/BC19</f>
+        <f t="shared" si="3"/>
         <v>0.63917525773195871</v>
       </c>
       <c r="BD21">
-        <f>BD20/BD19</f>
+        <f t="shared" si="3"/>
         <v>0.75464876033057848</v>
       </c>
       <c r="BE21">
-        <f>BE20/BE19</f>
+        <f t="shared" si="3"/>
         <v>0.7877830437072143</v>
       </c>
       <c r="BF21">
-        <f>BF20/BF19</f>
+        <f t="shared" si="3"/>
         <v>0.78883622959452349</v>
       </c>
       <c r="BG21">
-        <f>BG20/BG19</f>
+        <f t="shared" si="3"/>
         <v>1.0346638655462186</v>
       </c>
       <c r="BH21">
-        <f>BH20/BH19</f>
+        <f t="shared" si="3"/>
         <v>1.0451680672268908</v>
       </c>
       <c r="BI21">
-        <f>BI20/BI19</f>
+        <f t="shared" si="3"/>
         <v>0.70091556459816884</v>
       </c>
       <c r="BJ21">
-        <f>BJ20/BJ19</f>
+        <f t="shared" si="3"/>
         <v>1.2267002518891688</v>
       </c>
       <c r="BK21">
-        <f>BK20/BK19</f>
+        <f t="shared" si="3"/>
         <v>0.78499201703033528</v>
       </c>
       <c r="BL21">
-        <f>BL20/BL19</f>
+        <f t="shared" si="3"/>
         <v>0.85570638511814978</v>
       </c>
       <c r="BM21">
-        <f>BM20/BM19</f>
+        <f t="shared" si="3"/>
         <v>0.88405797101449279</v>
       </c>
       <c r="BN21">
-        <f>BN20/BN19</f>
+        <f t="shared" si="3"/>
         <v>0.7625065824117957</v>
       </c>
       <c r="BO21">
-        <f>BO20/BO19</f>
+        <f t="shared" si="3"/>
         <v>0.87409065472859537</v>
       </c>
     </row>
-    <row r="22" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:67">
       <c r="A22" s="4" t="s">
         <v>156</v>
       </c>
@@ -5328,263 +5330,263 @@
         <v>9</v>
       </c>
       <c r="D22">
-        <f>D18/D20</f>
+        <f t="shared" ref="D22:AI22" si="4">D18/D20</f>
         <v>3.0464461646727656</v>
       </c>
       <c r="E22">
-        <f>E18/E20</f>
+        <f t="shared" si="4"/>
         <v>3.1142663962136581</v>
       </c>
       <c r="F22">
-        <f>F18/F20</f>
+        <f t="shared" si="4"/>
         <v>2.6885474860335195</v>
       </c>
       <c r="G22">
-        <f>G18/G20</f>
+        <f t="shared" si="4"/>
         <v>2.3998655913978495</v>
       </c>
       <c r="H22">
-        <f>H18/H20</f>
+        <f t="shared" si="4"/>
         <v>3.5892997639653816</v>
       </c>
       <c r="I22">
-        <f>I18/I20</f>
+        <f t="shared" si="4"/>
         <v>3.2949790794979079</v>
       </c>
       <c r="J22">
-        <f>J18/J20</f>
+        <f t="shared" si="4"/>
         <v>2.8220930232558139</v>
       </c>
       <c r="K22">
-        <f>K18/K20</f>
+        <f t="shared" si="4"/>
         <v>2.7251717676452216</v>
       </c>
       <c r="L22">
-        <f>L18/L20</f>
+        <f t="shared" si="4"/>
         <v>2.8997641509433962</v>
       </c>
       <c r="M22">
-        <f>M18/M20</f>
+        <f t="shared" si="4"/>
         <v>2.8332170272156314</v>
       </c>
       <c r="N22">
-        <f>N18/N20</f>
+        <f t="shared" si="4"/>
         <v>2.5753968253968256</v>
       </c>
       <c r="O22">
-        <f>O18/O20</f>
+        <f t="shared" si="4"/>
         <v>3.3444067796610168</v>
       </c>
       <c r="P22">
-        <f>P18/P20</f>
+        <f t="shared" si="4"/>
         <v>2.7549382716049382</v>
       </c>
       <c r="Q22">
-        <f>Q18/Q20</f>
+        <f t="shared" si="4"/>
         <v>2.9322660098522166</v>
       </c>
       <c r="R22">
-        <f>R18/R20</f>
+        <f t="shared" si="4"/>
         <v>2.8104575163398691</v>
       </c>
       <c r="S22">
-        <f>S18/S20</f>
+        <f t="shared" si="4"/>
         <v>2.8651315789473686</v>
       </c>
       <c r="T22">
-        <f>T18/T20</f>
+        <f t="shared" si="4"/>
         <v>2.881241565452092</v>
       </c>
       <c r="U22">
-        <f>U18/U20</f>
+        <f t="shared" si="4"/>
         <v>2.6218750000000002</v>
       </c>
       <c r="V22">
-        <f>V18/V20</f>
+        <f t="shared" si="4"/>
         <v>3.5307855626326963</v>
       </c>
       <c r="W22">
-        <f>W18/W20</f>
+        <f t="shared" si="4"/>
         <v>3.0352941176470587</v>
       </c>
       <c r="X22">
-        <f>X18/X20</f>
+        <f t="shared" si="4"/>
         <v>2.4128686327077746</v>
       </c>
       <c r="Y22">
-        <f>Y18/Y20</f>
+        <f t="shared" si="4"/>
         <v>3.0151515151515151</v>
       </c>
       <c r="Z22">
-        <f>Z18/Z20</f>
+        <f t="shared" si="4"/>
         <v>2.2490347490347489</v>
       </c>
       <c r="AA22">
-        <f>AA18/AA20</f>
+        <f t="shared" si="4"/>
         <v>1.7331189710610932</v>
       </c>
       <c r="AB22">
-        <f>AB18/AB20</f>
+        <f t="shared" si="4"/>
         <v>1.7331189710610932</v>
       </c>
       <c r="AC22">
-        <f>AC18/AC20</f>
+        <f t="shared" si="4"/>
         <v>3.5206451612903225</v>
       </c>
       <c r="AD22">
-        <f>AD18/AD20</f>
+        <f t="shared" si="4"/>
         <v>2.8538873994638068</v>
       </c>
       <c r="AE22">
-        <f>AE18/AE20</f>
+        <f t="shared" si="4"/>
         <v>4.3092876465284036</v>
       </c>
       <c r="AF22">
-        <f>AF18/AF20</f>
+        <f t="shared" si="4"/>
         <v>2.5100125156445556</v>
       </c>
       <c r="AG22">
-        <f>AG18/AG20</f>
+        <f t="shared" si="4"/>
         <v>3.6264501160092806</v>
       </c>
       <c r="AH22">
-        <f>AH18/AH20</f>
+        <f t="shared" si="4"/>
         <v>2.7174744897959182</v>
       </c>
       <c r="AI22">
-        <f>AI18/AI20</f>
+        <f t="shared" si="4"/>
         <v>2.7990226023213194</v>
       </c>
       <c r="AJ22">
-        <f>AJ18/AJ20</f>
+        <f t="shared" ref="AJ22:BO22" si="5">AJ18/AJ20</f>
         <v>3.0305084745762714</v>
       </c>
       <c r="AK22">
-        <f>AK18/AK20</f>
+        <f t="shared" si="5"/>
         <v>2.8381294964028778</v>
       </c>
       <c r="AL22">
-        <f>AL18/AL20</f>
+        <f t="shared" si="5"/>
         <v>2.9897828863346105</v>
       </c>
       <c r="AM22">
-        <f>AM18/AM20</f>
+        <f t="shared" si="5"/>
         <v>2.6783439490445859</v>
       </c>
       <c r="AN22">
-        <f>AN18/AN20</f>
+        <f t="shared" si="5"/>
         <v>2.9155844155844157</v>
       </c>
       <c r="AO22">
-        <f>AO18/AO20</f>
+        <f t="shared" si="5"/>
         <v>3.2529452529452532</v>
       </c>
       <c r="AP22">
-        <f>AP18/AP20</f>
+        <f t="shared" si="5"/>
         <v>3.4456747404844292</v>
       </c>
       <c r="AQ22">
-        <f>AQ18/AQ20</f>
+        <f t="shared" si="5"/>
         <v>3.4394463667820068</v>
       </c>
       <c r="AR22">
-        <f>AR18/AR20</f>
+        <f t="shared" si="5"/>
         <v>2.9904988123515439</v>
       </c>
       <c r="AS22">
-        <f>AS18/AS20</f>
+        <f t="shared" si="5"/>
         <v>2.9254926108374386</v>
       </c>
       <c r="AT22">
-        <f>AT18/AT20</f>
+        <f t="shared" si="5"/>
         <v>2.7059973924380705</v>
       </c>
       <c r="AU22">
-        <f>AU18/AU20</f>
+        <f t="shared" si="5"/>
         <v>3.6653517422748192</v>
       </c>
       <c r="AV22">
-        <f>AV18/AV20</f>
+        <f t="shared" si="5"/>
         <v>2.9020935960591134</v>
       </c>
       <c r="AW22">
-        <f>AW18/AW20</f>
+        <f t="shared" si="5"/>
         <v>2.8263665594855305</v>
       </c>
       <c r="AX22">
-        <f>AX18/AX20</f>
+        <f t="shared" si="5"/>
         <v>2.8152866242038215</v>
       </c>
       <c r="AY22">
-        <f>AY18/AY20</f>
+        <f t="shared" si="5"/>
         <v>3.1856655290102389</v>
       </c>
       <c r="AZ22">
-        <f>AZ18/AZ20</f>
+        <f t="shared" si="5"/>
         <v>2.7022630834512023</v>
       </c>
       <c r="BA22">
-        <f>BA18/BA20</f>
+        <f t="shared" si="5"/>
         <v>2.8029045643153525</v>
       </c>
       <c r="BB22">
-        <f>BB18/BB20</f>
+        <f t="shared" si="5"/>
         <v>3.1598639455782314</v>
       </c>
       <c r="BC22">
-        <f>BC18/BC20</f>
+        <f t="shared" si="5"/>
         <v>3.5693548387096774</v>
       </c>
       <c r="BD22">
-        <f>BD18/BD20</f>
+        <f t="shared" si="5"/>
         <v>3.407939767282683</v>
       </c>
       <c r="BE22">
-        <f>BE18/BE20</f>
+        <f t="shared" si="5"/>
         <v>3.4258021390374331</v>
       </c>
       <c r="BF22">
-        <f>BF18/BF20</f>
+        <f t="shared" si="5"/>
         <v>3.6461949265687585</v>
       </c>
       <c r="BG22">
-        <f>BG18/BG20</f>
+        <f t="shared" si="5"/>
         <v>2.4893401015228425</v>
       </c>
       <c r="BH22">
-        <f>BH18/BH20</f>
+        <f t="shared" si="5"/>
         <v>2.4643216080402008</v>
       </c>
       <c r="BI22">
-        <f>BI18/BI20</f>
+        <f t="shared" si="5"/>
         <v>3.6015965166908561</v>
       </c>
       <c r="BJ22">
-        <f>BJ18/BJ20</f>
+        <f t="shared" si="5"/>
         <v>1.5995893223819302</v>
       </c>
       <c r="BK22">
-        <f>BK18/BK20</f>
+        <f t="shared" si="5"/>
         <v>3.3464406779661018</v>
       </c>
       <c r="BL22">
-        <f>BL18/BL20</f>
+        <f t="shared" si="5"/>
         <v>2.8842538190364277</v>
       </c>
       <c r="BM22">
-        <f>BM18/BM20</f>
+        <f t="shared" si="5"/>
         <v>2.6867030965391621</v>
       </c>
       <c r="BN22">
-        <f>BN18/BN20</f>
+        <f t="shared" si="5"/>
         <v>3.5428176795580111</v>
       </c>
       <c r="BO22">
-        <f>BO18/BO20</f>
+        <f t="shared" si="5"/>
         <v>2.6165172855313701</v>
       </c>
     </row>
-    <row r="23" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:67">
       <c r="A23" s="4" t="s">
         <v>119</v>
       </c>
@@ -5784,7 +5786,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="24" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:67">
       <c r="A24" s="4" t="s">
         <v>117</v>
       </c>
@@ -5987,7 +5989,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:67">
       <c r="A25" s="4" t="s">
         <v>118</v>
       </c>
@@ -6190,7 +6192,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="26" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:67">
       <c r="A26" s="4" t="s">
         <v>138</v>
       </c>
@@ -6390,7 +6392,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:67">
       <c r="A27" s="4" t="s">
         <v>121</v>
       </c>
@@ -6654,12 +6656,12 @@
         <v>620.9</v>
       </c>
     </row>
-    <row r="29" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:67">
       <c r="A29" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:67">
       <c r="A30" s="4" t="s">
         <v>108</v>
       </c>
@@ -6705,7 +6707,7 @@
       <c r="P30" s="16">
         <v>800</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="Q30">
         <v>1045</v>
       </c>
       <c r="R30" s="16">
@@ -6717,7 +6719,7 @@
       <c r="T30">
         <v>1018</v>
       </c>
-      <c r="U30" s="18">
+      <c r="U30">
         <v>1006</v>
       </c>
       <c r="V30">
@@ -6768,13 +6770,13 @@
       <c r="AK30">
         <v>1045</v>
       </c>
-      <c r="AL30" s="18">
+      <c r="AL30">
         <v>1013</v>
       </c>
-      <c r="AM30" s="18">
+      <c r="AM30">
         <v>1006</v>
       </c>
-      <c r="AN30" s="18">
+      <c r="AN30">
         <v>1046</v>
       </c>
       <c r="AO30">
@@ -6801,10 +6803,10 @@
       <c r="AV30">
         <v>1026</v>
       </c>
-      <c r="AW30" s="18">
+      <c r="AW30">
         <v>982</v>
       </c>
-      <c r="AX30" s="18">
+      <c r="AX30">
         <v>1019</v>
       </c>
       <c r="AY30">
@@ -6859,7 +6861,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="31" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:67">
       <c r="A31" s="4" t="s">
         <v>110</v>
       </c>
@@ -6905,7 +6907,7 @@
       <c r="P31" s="16">
         <v>900</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="Q31">
         <v>980</v>
       </c>
       <c r="R31" s="16">
@@ -6917,7 +6919,7 @@
       <c r="T31">
         <v>967</v>
       </c>
-      <c r="U31" s="18">
+      <c r="U31">
         <v>1003</v>
       </c>
       <c r="V31">
@@ -6968,13 +6970,13 @@
       <c r="AK31">
         <v>994</v>
       </c>
-      <c r="AL31" s="18">
+      <c r="AL31">
         <v>968</v>
       </c>
-      <c r="AM31" s="18">
+      <c r="AM31">
         <v>958</v>
       </c>
-      <c r="AN31" s="18">
+      <c r="AN31">
         <v>947</v>
       </c>
       <c r="AO31">
@@ -7001,10 +7003,10 @@
       <c r="AV31">
         <v>998</v>
       </c>
-      <c r="AW31" s="18">
+      <c r="AW31">
         <v>939</v>
       </c>
-      <c r="AX31" s="18">
+      <c r="AX31">
         <v>958</v>
       </c>
       <c r="AY31">
@@ -7059,7 +7061,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="32" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:67">
       <c r="A32" s="4" t="s">
         <v>109</v>
       </c>
@@ -7112,7 +7114,7 @@
       <c r="P32" s="16">
         <v>1000</v>
       </c>
-      <c r="Q32" s="18">
+      <c r="Q32">
         <v>374</v>
       </c>
       <c r="R32" s="16">
@@ -7124,7 +7126,7 @@
       <c r="T32">
         <v>904</v>
       </c>
-      <c r="U32" s="18">
+      <c r="U32">
         <v>914</v>
       </c>
       <c r="V32">
@@ -7179,13 +7181,13 @@
       <c r="AK32">
         <v>924</v>
       </c>
-      <c r="AL32" s="18">
+      <c r="AL32">
         <v>889</v>
       </c>
-      <c r="AM32" s="18">
+      <c r="AM32">
         <v>848</v>
       </c>
-      <c r="AN32" s="18">
+      <c r="AN32">
         <v>851</v>
       </c>
       <c r="AO32">
@@ -7213,10 +7215,10 @@
       <c r="AV32">
         <v>968</v>
       </c>
-      <c r="AW32" s="18">
+      <c r="AW32">
         <v>861</v>
       </c>
-      <c r="AX32" s="18">
+      <c r="AX32">
         <v>914</v>
       </c>
       <c r="AY32">
@@ -7283,7 +7285,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:67">
       <c r="A33" s="4" t="s">
         <v>111</v>
       </c>
@@ -7293,10 +7295,10 @@
       <c r="D33">
         <v>69</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33">
         <v>63</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33">
         <v>65</v>
       </c>
       <c r="G33">
@@ -7317,7 +7319,7 @@
       <c r="L33">
         <v>65.400000000000006</v>
       </c>
-      <c r="M33" s="18">
+      <c r="M33">
         <v>67</v>
       </c>
       <c r="N33">
@@ -7326,22 +7328,22 @@
       <c r="O33">
         <v>66.400000000000006</v>
       </c>
-      <c r="P33" s="18">
+      <c r="P33">
         <v>66</v>
       </c>
-      <c r="Q33" s="18">
+      <c r="Q33">
         <v>68</v>
       </c>
-      <c r="R33" s="18">
+      <c r="R33">
         <v>64</v>
       </c>
       <c r="S33">
         <v>67</v>
       </c>
-      <c r="T33" s="18">
+      <c r="T33">
         <v>67</v>
       </c>
-      <c r="U33" s="18">
+      <c r="U33">
         <v>67</v>
       </c>
       <c r="V33">
@@ -7350,19 +7352,19 @@
       <c r="W33">
         <v>67</v>
       </c>
-      <c r="X33" s="18">
+      <c r="X33">
         <v>69</v>
       </c>
       <c r="Y33">
         <v>68</v>
       </c>
-      <c r="Z33" s="18">
+      <c r="Z33">
         <v>66</v>
       </c>
       <c r="AA33">
         <v>73.400000000000006</v>
       </c>
-      <c r="AB33" s="18">
+      <c r="AB33">
         <v>66</v>
       </c>
       <c r="AC33">
@@ -7380,10 +7382,10 @@
       <c r="AG33">
         <v>66</v>
       </c>
-      <c r="AH33" s="18">
+      <c r="AH33">
         <v>68</v>
       </c>
-      <c r="AI33" s="18">
+      <c r="AI33">
         <v>68</v>
       </c>
       <c r="AJ33">
@@ -7392,31 +7394,31 @@
       <c r="AK33">
         <v>68</v>
       </c>
-      <c r="AL33" s="18">
+      <c r="AL33">
         <v>67</v>
       </c>
-      <c r="AM33" s="18">
+      <c r="AM33">
         <v>68</v>
       </c>
-      <c r="AN33" s="18">
+      <c r="AN33">
         <v>66</v>
       </c>
-      <c r="AO33" s="18">
+      <c r="AO33">
         <v>71</v>
       </c>
       <c r="AP33">
         <v>66.900000000000006</v>
       </c>
-      <c r="AQ33" s="18">
+      <c r="AQ33">
         <v>70</v>
       </c>
-      <c r="AR33" s="18">
+      <c r="AR33">
         <v>69</v>
       </c>
-      <c r="AS33" s="18">
+      <c r="AS33">
         <v>68</v>
       </c>
-      <c r="AT33" s="18">
+      <c r="AT33">
         <v>64</v>
       </c>
       <c r="AU33">
@@ -7425,10 +7427,10 @@
       <c r="AV33">
         <v>66</v>
       </c>
-      <c r="AW33" s="18">
+      <c r="AW33">
         <v>63</v>
       </c>
-      <c r="AX33" s="18">
+      <c r="AX33">
         <v>67</v>
       </c>
       <c r="AY33">
@@ -7461,7 +7463,7 @@
       <c r="BH33">
         <v>69.599999999999994</v>
       </c>
-      <c r="BI33" s="18">
+      <c r="BI33">
         <v>68</v>
       </c>
       <c r="BJ33">
@@ -7473,27 +7475,27 @@
       <c r="BL33">
         <v>65.3</v>
       </c>
-      <c r="BM33" s="18">
+      <c r="BM33">
         <v>67</v>
       </c>
       <c r="BN33">
         <v>66</v>
       </c>
-      <c r="BO33" s="18">
+      <c r="BO33">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:67">
       <c r="A34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:67">
       <c r="A35" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:67">
       <c r="A36" s="4" t="s">
         <v>112</v>
       </c>
@@ -7693,7 +7695,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:67">
       <c r="A37" s="4" t="s">
         <v>115</v>
       </c>
@@ -7711,27 +7713,27 @@
         <v>234</v>
       </c>
       <c r="G37" s="7">
-        <f xml:space="preserve"> (G40/G47) *100</f>
+        <f t="shared" ref="G37:L37" si="6" xml:space="preserve"> (G40/G47) *100</f>
         <v>714.28571428571422</v>
       </c>
       <c r="H37" s="7">
-        <f xml:space="preserve"> (H40/H47) *100</f>
+        <f t="shared" si="6"/>
         <v>496.12403100775191</v>
       </c>
       <c r="I37" s="7">
-        <f xml:space="preserve"> (I40/I47) *100</f>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="J37" s="7">
-        <f xml:space="preserve"> (J40/J47) *100</f>
+        <f t="shared" si="6"/>
         <v>1346.1538461538462</v>
       </c>
       <c r="K37" s="7">
-        <f xml:space="preserve"> (K40/K47) *100</f>
+        <f t="shared" si="6"/>
         <v>961.53846153846155</v>
       </c>
       <c r="L37" s="7">
-        <f xml:space="preserve"> (L40/L47) *100</f>
+        <f t="shared" si="6"/>
         <v>833.33333333333337</v>
       </c>
       <c r="M37" s="7">
@@ -7871,27 +7873,27 @@
         <v>1065</v>
       </c>
       <c r="BC37" s="7">
-        <f xml:space="preserve"> (BC40/BC47) *100</f>
+        <f t="shared" ref="BC37:BH37" si="7" xml:space="preserve"> (BC40/BC47) *100</f>
         <v>658.73015873015879</v>
       </c>
       <c r="BD37" s="7">
-        <f xml:space="preserve"> (BD40/BD47) *100</f>
+        <f t="shared" si="7"/>
         <v>781.25</v>
       </c>
       <c r="BE37" s="7">
-        <f xml:space="preserve"> (BE40/BE47) *100</f>
+        <f t="shared" si="7"/>
         <v>958.90410958904124</v>
       </c>
       <c r="BF37" s="7">
-        <f xml:space="preserve"> (BF40/BF47) *100</f>
+        <f t="shared" si="7"/>
         <v>571.42857142857144</v>
       </c>
       <c r="BG37" s="7">
-        <f xml:space="preserve"> (BG40/BG47) *100</f>
+        <f t="shared" si="7"/>
         <v>760.86956521739137</v>
       </c>
       <c r="BH37" s="7">
-        <f xml:space="preserve"> (BH40/BH47) *100</f>
+        <f t="shared" si="7"/>
         <v>879.12087912087918</v>
       </c>
       <c r="BI37" s="7">
@@ -7919,7 +7921,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="38" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:67">
       <c r="A38" s="4" t="s">
         <v>114</v>
       </c>
@@ -8119,7 +8121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:67">
       <c r="A39" s="4" t="s">
         <v>113</v>
       </c>
@@ -8319,7 +8321,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:67">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -8519,12 +8521,12 @@
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:67">
       <c r="A42" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:67">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -8724,7 +8726,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="44" spans="1:67" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:67" s="11" customFormat="1">
       <c r="A44" s="11" t="s">
         <v>158</v>
       </c>
@@ -8941,7 +8943,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="45" spans="1:67" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:67" s="11" customFormat="1">
       <c r="A45" s="11" t="s">
         <v>160</v>
       </c>
@@ -9142,7 +9144,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:67" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:67" s="11" customFormat="1">
       <c r="A46" s="12" t="s">
         <v>206</v>
       </c>
@@ -9151,263 +9153,263 @@
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12">
-        <f>(D44+D45)*12/$B$56*100</f>
+        <f t="shared" ref="D46:AI46" si="8">(D44+D45)*12/$B$56*100</f>
         <v>16.96</v>
       </c>
       <c r="E46" s="12">
-        <f>(E44+E45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>30.64</v>
       </c>
       <c r="F46" s="12">
-        <f>(F44+F45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>19.28</v>
       </c>
       <c r="G46" s="12">
-        <f>(G44+G45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>12.72</v>
       </c>
       <c r="H46" s="12">
-        <f>(H44+H45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>57.199999999999996</v>
       </c>
       <c r="I46" s="12">
-        <f>(I44+I45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>17.599999999999998</v>
       </c>
       <c r="J46" s="12">
-        <f>(J44+J45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>20.399999999999999</v>
       </c>
       <c r="K46" s="12">
-        <f>(K44+K45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>13.52</v>
       </c>
       <c r="L46" s="12">
-        <f>(L44+L45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>24.88</v>
       </c>
       <c r="M46" s="12">
-        <f>(M44+M45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>18.88</v>
       </c>
       <c r="N46" s="12">
-        <f>(N44+N45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>21.44</v>
       </c>
       <c r="O46" s="12">
-        <f>(O44+O45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>22.48</v>
       </c>
       <c r="P46" s="12">
-        <f>(P44+P45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>23.919999999999998</v>
       </c>
       <c r="Q46" s="12">
-        <f>(Q44+Q45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>33.28</v>
       </c>
       <c r="R46" s="12">
-        <f>(R44+R45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>20.080000000000002</v>
       </c>
       <c r="S46" s="12">
-        <f>(S44+S45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>19.36</v>
       </c>
       <c r="T46" s="12">
-        <f>(T44+T45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>20.399999999999999</v>
       </c>
       <c r="U46" s="12">
-        <f>(U44+U45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>21.36</v>
       </c>
       <c r="V46" s="12">
-        <f>(V44+V45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="W46" s="12">
-        <f>(W44+W45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>38.080000000000005</v>
       </c>
       <c r="X46" s="12">
-        <f>(X44+X45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>15.28</v>
       </c>
       <c r="Y46" s="12">
-        <f>(Y44+Y45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>14.16</v>
       </c>
       <c r="Z46" s="12">
-        <f>(Z44+Z45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>17.84</v>
       </c>
       <c r="AA46" s="12">
-        <f>(AA44+AA45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>10.72</v>
       </c>
       <c r="AB46" s="12">
-        <f>(AB44+AB45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>16.079999999999998</v>
       </c>
       <c r="AC46" s="12">
-        <f>(AC44+AC45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>66.56</v>
       </c>
       <c r="AD46" s="12">
-        <f>(AD44+AD45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>14.16</v>
       </c>
       <c r="AE46" s="12">
-        <f>(AE44+AE45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>66.64</v>
       </c>
       <c r="AF46" s="12">
-        <f>(AF44+AF45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>12.959999999999999</v>
       </c>
       <c r="AG46" s="12">
-        <f>(AG44+AG45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>30.959999999999997</v>
       </c>
       <c r="AH46" s="12">
-        <f>(AH44+AH45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>19.040000000000003</v>
       </c>
       <c r="AI46" s="12">
-        <f>(AI44+AI45)*12/$B$56*100</f>
+        <f t="shared" si="8"/>
         <v>20.48</v>
       </c>
       <c r="AJ46" s="12">
-        <f>(AJ44+AJ45)*12/$B$56*100</f>
+        <f t="shared" ref="AJ46:BO46" si="9">(AJ44+AJ45)*12/$B$56*100</f>
         <v>19.36</v>
       </c>
       <c r="AK46" s="12">
-        <f>(AK44+AK45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>28.96</v>
       </c>
       <c r="AL46" s="12">
-        <f>(AL44+AL45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>32.56</v>
       </c>
       <c r="AM46" s="12">
-        <f>(AM44+AM45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="AN46" s="12">
-        <f>(AN44+AN45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>22.32</v>
       </c>
       <c r="AO46" s="12">
-        <f>(AO44+AO45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>29.759999999999998</v>
       </c>
       <c r="AP46" s="12">
-        <f>(AP44+AP45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>34.64</v>
       </c>
       <c r="AQ46" s="12">
-        <f>(AQ44+AQ45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>40.64</v>
       </c>
       <c r="AR46" s="12">
-        <f>(AR44+AR45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>29.12</v>
       </c>
       <c r="AS46" s="12">
-        <f>(AS44+AS45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>32.479999999999997</v>
       </c>
       <c r="AT46" s="12">
-        <f>(AT44+AT45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>20.239999999999998</v>
       </c>
       <c r="AU46" s="12">
-        <f>(AU44+AU45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>67.679999999999993</v>
       </c>
       <c r="AV46" s="12">
-        <f>(AV44+AV45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>26.88</v>
       </c>
       <c r="AW46" s="12">
-        <f>(AW44+AW45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>21.84</v>
       </c>
       <c r="AX46" s="12">
-        <f>(AX44+AX45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>21.44</v>
       </c>
       <c r="AY46" s="12">
-        <f>(AY44+AY45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>14.799999999999999</v>
       </c>
       <c r="AZ46" s="12">
-        <f>(AZ44+AZ45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>14.879999999999999</v>
       </c>
       <c r="BA46" s="12">
-        <f>(BA44+BA45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>12.72</v>
       </c>
       <c r="BB46" s="12">
-        <f>(BB44+BB45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>16.400000000000002</v>
       </c>
       <c r="BC46" s="12">
-        <f>(BC44+BC45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>51.2</v>
       </c>
       <c r="BD46" s="12">
-        <f>(BD44+BD45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>42.72</v>
       </c>
       <c r="BE46" s="12">
-        <f>(BE44+BE45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>38.64</v>
       </c>
       <c r="BF46" s="12">
-        <f>(BF44+BF45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>53.44</v>
       </c>
       <c r="BG46" s="12">
-        <f>(BG44+BG45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>19.36</v>
       </c>
       <c r="BH46" s="12">
-        <f>(BH44+BH45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>22.48</v>
       </c>
       <c r="BI46" s="12">
-        <f>(BI44+BI45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>41.04</v>
       </c>
       <c r="BJ46" s="12">
-        <f>(BJ44+BJ45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>7.6</v>
       </c>
       <c r="BK46" s="12">
-        <f>(BK44+BK45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>21.12</v>
       </c>
       <c r="BL46" s="12">
-        <f>(BL44+BL45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>37.36</v>
       </c>
       <c r="BM46" s="12">
-        <f>(BM44+BM45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>28.24</v>
       </c>
       <c r="BN46" s="12">
-        <f>(BN44+BN45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>38.159999999999997</v>
       </c>
       <c r="BO46" s="12">
-        <f>(BO44+BO45)*12/$B$56*100</f>
+        <f t="shared" si="9"/>
         <v>19.759999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:67">
       <c r="A47" t="s">
         <v>146</v>
       </c>
@@ -9607,7 +9609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:67">
       <c r="A48" s="4" t="s">
         <v>106</v>
       </c>
@@ -9807,7 +9809,7 @@
         <v>38790</v>
       </c>
     </row>
-    <row r="49" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:67">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -10007,7 +10009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:67">
       <c r="A50" t="s">
         <v>149</v>
       </c>
@@ -10204,7 +10206,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="51" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:67">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -10215,263 +10217,263 @@
         <v>95</v>
       </c>
       <c r="D51">
-        <f>1.6*D47 + 0.295*D50</f>
+        <f t="shared" ref="D51:AI51" si="10">1.6*D47 + 0.295*D50</f>
         <v>8.48</v>
       </c>
       <c r="E51">
-        <f>1.6*E47 + 0.295*E50</f>
+        <f t="shared" si="10"/>
         <v>5.722999999999999</v>
       </c>
       <c r="F51">
-        <f>1.6*F47 + 0.295*F50</f>
+        <f t="shared" si="10"/>
         <v>4.484</v>
       </c>
       <c r="G51">
-        <f>1.6*G47 + 0.295*G50</f>
+        <f t="shared" si="10"/>
         <v>7.8400000000000007</v>
       </c>
       <c r="H51">
-        <f>1.6*H47 + 0.295*H50</f>
+        <f t="shared" si="10"/>
         <v>20.64</v>
       </c>
       <c r="I51">
-        <f>1.6*I47 + 0.295*I50</f>
+        <f t="shared" si="10"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="J51">
-        <f>1.6*J47 + 0.295*J50</f>
+        <f t="shared" si="10"/>
         <v>8.32</v>
       </c>
       <c r="K51">
-        <f>1.6*K47 + 0.295*K50</f>
+        <f t="shared" si="10"/>
         <v>8.32</v>
       </c>
       <c r="L51">
-        <f>1.6*L47 + 0.295*L50</f>
+        <f t="shared" si="10"/>
         <v>14.4</v>
       </c>
       <c r="M51">
-        <f>1.6*M47 + 0.295*M50</f>
+        <f t="shared" si="10"/>
         <v>4.6019999999999994</v>
       </c>
       <c r="N51">
-        <f>1.6*N47 + 0.295*N50</f>
+        <f t="shared" si="10"/>
         <v>5.0739999999999998</v>
       </c>
       <c r="O51">
-        <f>1.6*O47 + 0.295*O50</f>
+        <f t="shared" si="10"/>
         <v>6.7200000000000006</v>
       </c>
       <c r="P51">
-        <f>1.6*P47 + 0.295*P50</f>
+        <f t="shared" si="10"/>
         <v>4.6019999999999994</v>
       </c>
       <c r="Q51">
-        <f>1.6*Q47 + 0.295*Q50</f>
+        <f t="shared" si="10"/>
         <v>6.3424999999999994</v>
       </c>
       <c r="R51">
-        <f>1.6*R47 + 0.295*R50</f>
+        <f t="shared" si="10"/>
         <v>4.6609999999999996</v>
       </c>
       <c r="S51">
-        <f>1.6*S47 + 0.295*S50</f>
+        <f t="shared" si="10"/>
         <v>4.5134999999999996</v>
       </c>
       <c r="T51">
-        <f>1.6*T47 + 0.295*T50</f>
+        <f t="shared" si="10"/>
         <v>4.6609999999999996</v>
       </c>
       <c r="U51">
-        <f>1.6*U47 + 0.295*U50</f>
+        <f t="shared" si="10"/>
         <v>4.6315</v>
       </c>
       <c r="V51">
-        <f>1.6*V47 + 0.295*V50</f>
+        <f t="shared" si="10"/>
         <v>6.0474999999999994</v>
       </c>
       <c r="W51">
-        <f>1.6*W47 + 0.295*W50</f>
+        <f t="shared" si="10"/>
         <v>7.8470000000000004</v>
       </c>
       <c r="X51">
-        <f>1.6*X47 + 0.295*X50</f>
+        <f t="shared" si="10"/>
         <v>4.2480000000000002</v>
       </c>
       <c r="Y51">
-        <f>1.6*Y47 + 0.295*Y50</f>
+        <f t="shared" si="10"/>
         <v>7.5200000000000005</v>
       </c>
       <c r="Z51">
-        <f>1.6*Z47 + 0.295*Z50</f>
+        <f t="shared" si="10"/>
         <v>5.31</v>
       </c>
       <c r="AA51">
-        <f>1.6*AA47 + 0.295*AA50</f>
+        <f t="shared" si="10"/>
         <v>6.56</v>
       </c>
       <c r="AB51">
-        <f>1.6*AB47 + 0.295*AB50</f>
+        <f t="shared" si="10"/>
         <v>5.1624999999999996</v>
       </c>
       <c r="AC51">
-        <f>1.6*AC47 + 0.295*AC50</f>
+        <f t="shared" si="10"/>
         <v>23.36</v>
       </c>
       <c r="AD51">
-        <f>1.6*AD47 + 0.295*AD50</f>
+        <f t="shared" si="10"/>
         <v>7.68</v>
       </c>
       <c r="AE51">
-        <f>1.6*AE47 + 0.295*AE50</f>
+        <f t="shared" si="10"/>
         <v>23.840000000000003</v>
       </c>
       <c r="AF51">
-        <f>1.6*AF47 + 0.295*AF50</f>
+        <f t="shared" si="10"/>
         <v>4.3524999999999991</v>
       </c>
       <c r="AG51">
-        <f>1.6*AG47 + 0.295*AG50</f>
+        <f t="shared" si="10"/>
         <v>7.01</v>
       </c>
       <c r="AH51">
-        <f>1.6*AH47 + 0.295*AH50</f>
+        <f t="shared" si="10"/>
         <v>4.5430000000000001</v>
       </c>
       <c r="AI51">
-        <f>1.6*AI47 + 0.295*AI50</f>
+        <f t="shared" si="10"/>
         <v>5.0149999999999997</v>
       </c>
       <c r="AJ51">
-        <f>1.6*AJ47 + 0.295*AJ50</f>
+        <f t="shared" ref="AJ51:BO51" si="11">1.6*AJ47 + 0.295*AJ50</f>
         <v>4.0709999999999997</v>
       </c>
       <c r="AK51">
-        <f>1.6*AK47 + 0.295*AK50</f>
+        <f t="shared" si="11"/>
         <v>5.4574999999999996</v>
       </c>
       <c r="AL51">
-        <f>1.6*AL47 + 0.295*AL50</f>
+        <f t="shared" si="11"/>
         <v>6.4899999999999993</v>
       </c>
       <c r="AM51">
-        <f>1.6*AM47 + 0.295*AM50</f>
+        <f t="shared" si="11"/>
         <v>4.3364999999999991</v>
       </c>
       <c r="AN51">
-        <f>1.6*AN47 + 0.295*AN50</f>
+        <f t="shared" si="11"/>
         <v>5.0445000000000002</v>
       </c>
       <c r="AO51">
-        <f>1.6*AO47 + 0.295*AO50</f>
+        <f t="shared" si="11"/>
         <v>4.8674999999999997</v>
       </c>
       <c r="AP51">
-        <f>1.6*AP47 + 0.295*AP50</f>
+        <f t="shared" si="11"/>
         <v>5.4870000000000001</v>
       </c>
       <c r="AQ51">
-        <f>1.6*AQ47 + 0.295*AQ50</f>
+        <f t="shared" si="11"/>
         <v>6.0474999999999994</v>
       </c>
       <c r="AR51">
-        <f>1.6*AR47 + 0.295*AR50</f>
+        <f t="shared" si="11"/>
         <v>6.2244999999999999</v>
       </c>
       <c r="AS51">
-        <f>1.6*AS47 + 0.295*AS50</f>
+        <f t="shared" si="11"/>
         <v>4.9854999999999992</v>
       </c>
       <c r="AT51">
-        <f>1.6*AT47 + 0.295*AT50</f>
+        <f t="shared" si="11"/>
         <v>4.6609999999999996</v>
       </c>
       <c r="AU51">
-        <f>1.6*AU47 + 0.295*AU50</f>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="AV51">
-        <f>1.6*AV47 + 0.295*AV50</f>
+        <f t="shared" si="11"/>
         <v>5.5164999999999997</v>
       </c>
       <c r="AW51">
-        <f>1.6*AW47 + 0.295*AW50</f>
+        <f t="shared" si="11"/>
         <v>5.2804999999999991</v>
       </c>
       <c r="AX51">
-        <f>1.6*AX47 + 0.295*AX50</f>
+        <f t="shared" si="11"/>
         <v>4.7789999999999999</v>
       </c>
       <c r="AY51">
-        <f>1.6*AY47 + 0.295*AY50</f>
+        <f t="shared" si="11"/>
         <v>9.76</v>
       </c>
       <c r="AZ51">
-        <f>1.6*AZ47 + 0.295*AZ50</f>
+        <f t="shared" si="11"/>
         <v>7.8400000000000007</v>
       </c>
       <c r="BA51">
-        <f>1.6*BA47 + 0.295*BA50</f>
+        <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
       <c r="BB51">
-        <f>1.6*BB47 + 0.295*BB50</f>
+        <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
       <c r="BC51">
-        <f>1.6*BC47 + 0.295*BC50</f>
+        <f t="shared" si="11"/>
         <v>20.16</v>
       </c>
       <c r="BD51">
-        <f>1.6*BD47 + 0.295*BD50</f>
+        <f t="shared" si="11"/>
         <v>15.36</v>
       </c>
       <c r="BE51">
-        <f>1.6*BE47 + 0.295*BE50</f>
+        <f t="shared" si="11"/>
         <v>11.68</v>
       </c>
       <c r="BF51">
-        <f>1.6*BF47 + 0.295*BF50</f>
+        <f t="shared" si="11"/>
         <v>22.400000000000002</v>
       </c>
       <c r="BG51">
-        <f>1.6*BG47 + 0.295*BG50</f>
+        <f t="shared" si="11"/>
         <v>14.719999999999999</v>
       </c>
       <c r="BH51">
-        <f>1.6*BH47 + 0.295*BH50</f>
+        <f t="shared" si="11"/>
         <v>14.56</v>
       </c>
       <c r="BI51">
-        <f>1.6*BI47 + 0.295*BI50</f>
+        <f t="shared" si="11"/>
         <v>7.1389999999999993</v>
       </c>
       <c r="BJ51">
-        <f>1.6*BJ47 + 0.295*BJ50</f>
+        <f t="shared" si="11"/>
         <v>1.7109999999999999</v>
       </c>
       <c r="BK51">
-        <f>1.6*BK47 + 0.295*BK50</f>
+        <f t="shared" si="11"/>
         <v>10.88</v>
       </c>
       <c r="BL51">
-        <f>1.6*BL47 + 0.295*BL50</f>
+        <f t="shared" si="11"/>
         <v>15.040000000000001</v>
       </c>
       <c r="BM51">
-        <f>1.6*BM47 + 0.295*BM50</f>
+        <f t="shared" si="11"/>
         <v>7.0209999999999999</v>
       </c>
       <c r="BN51">
-        <f>1.6*BN47 + 0.295*BN50</f>
+        <f t="shared" si="11"/>
         <v>15.680000000000001</v>
       </c>
       <c r="BO51">
-        <f>1.6*BO47 + 0.295*BO50</f>
+        <f t="shared" si="11"/>
         <v>5.2214999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:67" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:67" s="14" customFormat="1">
       <c r="A54" s="13" t="s">
         <v>157</v>
       </c>
@@ -10668,7 +10670,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="55" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:67">
       <c r="A55" t="s">
         <v>162</v>
       </c>
@@ -10676,7 +10678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:67">
       <c r="A56" t="s">
         <v>163</v>
       </c>
@@ -10684,7 +10686,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="58" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:67">
       <c r="A58" t="s">
         <v>166</v>
       </c>
@@ -10698,7 +10700,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:67">
       <c r="B59" t="s">
         <v>168</v>
       </c>
@@ -10715,7 +10717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:67">
       <c r="B60" t="s">
         <v>170</v>
       </c>
@@ -10729,7 +10731,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:67">
       <c r="A61" t="s">
         <v>193</v>
       </c>
@@ -10744,7 +10746,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:67">
       <c r="B62" t="s">
         <v>170</v>
       </c>
@@ -10756,7 +10758,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:67">
       <c r="A63" t="s">
         <v>194</v>
       </c>
@@ -10771,7 +10773,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:67">
       <c r="B64" t="s">
         <v>170</v>
       </c>
@@ -10783,7 +10785,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -10798,7 +10800,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="B66" t="s">
         <v>170</v>
       </c>
@@ -10812,7 +10814,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="D14:BO14">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10865,4497 +10867,207 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BO40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE1F74D-B95D-4FBA-BFDF-8F61C59CDEA1}">
+  <dimension ref="A1:BF40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58">
       <c r="A1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" t="str">
-        <f>'Vehicle Data'!BH1</f>
-        <v>T6 Transporter 2.0 TSI BMT Normal roof</v>
-      </c>
-      <c r="E1" t="str">
-        <f>'Vehicle Data'!BG1</f>
-        <v>T6 Multivan 2.0 TSI BMT Trendline</v>
-      </c>
-      <c r="F1" t="str">
-        <f>'Vehicle Data'!H1</f>
-        <v>911 GT3</v>
-      </c>
-      <c r="G1" t="str">
-        <f>'Vehicle Data'!BJ1</f>
-        <v>Twizy</v>
-      </c>
-      <c r="H1" t="str">
-        <f>'Vehicle Data'!AA1</f>
-        <v>fortwo coupé 1.0</v>
-      </c>
-      <c r="I1" t="str">
-        <f>'Vehicle Data'!BE1</f>
-        <v>S 560 9G-TRONIC W222</v>
-      </c>
-      <c r="J1" t="str">
-        <f>'Vehicle Data'!AP1</f>
-        <v>Model S 75D</v>
-      </c>
-      <c r="K1" t="str">
-        <f>'Vehicle Data'!BL1</f>
-        <v>X6 xDrive50i Steptronic F16</v>
-      </c>
-      <c r="L1" t="str">
-        <f>'Vehicle Data'!BD1</f>
-        <v>RS6 Avant performance</v>
-      </c>
-      <c r="M1" t="str">
-        <f>'Vehicle Data'!BA1</f>
-        <v>Polo 1.0 TSI beats</v>
-      </c>
-      <c r="N1" t="str">
-        <f>'Vehicle Data'!AD1</f>
-        <v>Golf 1.0 TSI Comfortline</v>
-      </c>
-      <c r="O1" t="str">
-        <f>'Vehicle Data'!AF1</f>
-        <v>i3 (94 Ah) (inkl. Range Extender)</v>
-      </c>
-      <c r="P1" t="str">
-        <f>'Vehicle Data'!D1</f>
-        <v>1er (118i)</v>
-      </c>
-      <c r="Q1" t="str">
-        <f>'Vehicle Data'!AE1</f>
-        <v>GT 2017</v>
-      </c>
-      <c r="R1" t="str">
-        <f>'Vehicle Data'!G1</f>
-        <v>500 1.2</v>
-      </c>
-      <c r="S1" t="str">
-        <f>'Vehicle Data'!Y1</f>
-        <v>Focus IV 1.0 EcoBoost</v>
-      </c>
-      <c r="T1" t="str">
-        <f>'Vehicle Data'!AY1</f>
-        <v>Octavia Combi 1.8 TSI</v>
-      </c>
-      <c r="U1" t="str">
-        <f>'Vehicle Data'!I1</f>
-        <v>A4 Avant 2.0 TFSI</v>
-      </c>
-      <c r="V1" t="str">
-        <f>'Vehicle Data'!O1</f>
-        <v>E 220 d T-Modell (W213)</v>
-      </c>
-      <c r="W1" t="str">
-        <f>'Vehicle Data'!BK1</f>
-        <v>V90 T5 Momentum Automatic</v>
-      </c>
-      <c r="X1" t="str">
-        <f>'Vehicle Data'!AG1</f>
-        <v>i8 Coupé</v>
-      </c>
-      <c r="Y1" t="str">
-        <f>'Vehicle Data'!BC1</f>
-        <v>R8 Coupé V10</v>
-      </c>
-      <c r="Z1" t="str">
-        <f>'Vehicle Data'!J1</f>
-        <v>Alhambra 2.0 TDI</v>
-      </c>
-      <c r="AA1" t="str">
-        <f>'Vehicle Data'!AZ1</f>
-        <v>One First F-56 3-Türer</v>
-      </c>
-      <c r="AB1" t="str">
-        <f>'Vehicle Data'!K1</f>
-        <v>Ateca 1.0 TSI Ecomotive</v>
-      </c>
-      <c r="AC1" t="str">
-        <f>'Vehicle Data'!L1</f>
-        <v>Cayenne</v>
-      </c>
-      <c r="AD1" t="str">
-        <f>'Vehicle Data'!BN1</f>
-        <v>XJ 3.0 V6 Kompressor</v>
-      </c>
-      <c r="AE1" t="str">
-        <f>'Vehicle Data'!AU1</f>
-        <v>Mulsanne Speed</v>
-      </c>
-      <c r="AF1" t="str">
-        <f>'Vehicle Data'!AC1</f>
-        <v>Ghost 6.6 V12</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>'Vehicle Data'!BF1</f>
-        <v>S 650 7G-TRONIC PLUS</v>
-      </c>
-      <c r="AH1" t="str">
-        <f>'Vehicle Data'!BB1</f>
-        <v>Prius 1.8 Plug-In Hybrid Executive</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>295</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>302</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>307</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>311</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>316</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>321</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>329</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>332</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>339</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>343</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>350</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>354</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>359</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>364</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>367</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>371</v>
-      </c>
+      <c r="BB1" s="9"/>
+      <c r="BF1" s="9"/>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58">
       <c r="A2" t="s">
         <v>152</v>
       </c>
-      <c r="D2" t="str">
-        <f>'Vehicle Data'!BH2</f>
-        <v>VW</v>
-      </c>
-      <c r="E2" t="str">
-        <f>'Vehicle Data'!BG2</f>
-        <v>VW</v>
-      </c>
-      <c r="F2" t="str">
-        <f>'Vehicle Data'!H2</f>
-        <v>Porsche</v>
-      </c>
-      <c r="G2" t="str">
-        <f>'Vehicle Data'!BJ2</f>
-        <v>Renault</v>
-      </c>
-      <c r="H2" t="str">
-        <f>'Vehicle Data'!AA2</f>
-        <v>smart</v>
-      </c>
-      <c r="I2" t="str">
-        <f>'Vehicle Data'!BE2</f>
-        <v>Mercedes</v>
-      </c>
-      <c r="J2" t="str">
-        <f>'Vehicle Data'!AP2</f>
-        <v>Tesla</v>
-      </c>
-      <c r="K2" t="str">
-        <f>'Vehicle Data'!BL2</f>
-        <v>BMW</v>
-      </c>
-      <c r="L2" t="str">
-        <f>'Vehicle Data'!BD2</f>
-        <v>Audi</v>
-      </c>
-      <c r="M2" t="str">
-        <f>'Vehicle Data'!BA2</f>
-        <v>VW</v>
-      </c>
-      <c r="N2" t="str">
-        <f>'Vehicle Data'!AD2</f>
-        <v>VW</v>
-      </c>
-      <c r="O2" t="str">
-        <f>'Vehicle Data'!AF2</f>
-        <v>BMW</v>
-      </c>
-      <c r="P2" t="str">
-        <f>'Vehicle Data'!D2</f>
-        <v>BMW</v>
-      </c>
-      <c r="Q2" t="str">
-        <f>'Vehicle Data'!AE2</f>
-        <v>Ford</v>
-      </c>
-      <c r="R2" t="str">
-        <f>'Vehicle Data'!G2</f>
-        <v>Fiat</v>
-      </c>
-      <c r="S2" t="str">
-        <f>'Vehicle Data'!Y2</f>
-        <v>Ford</v>
-      </c>
-      <c r="T2" t="str">
-        <f>'Vehicle Data'!AY2</f>
-        <v>Skoda</v>
-      </c>
-      <c r="U2" t="str">
-        <f>'Vehicle Data'!I2</f>
-        <v>Audi</v>
-      </c>
-      <c r="V2" t="str">
-        <f>'Vehicle Data'!O2</f>
-        <v>Mercedes</v>
-      </c>
-      <c r="W2" t="str">
-        <f>'Vehicle Data'!BK2</f>
-        <v>Volvo</v>
-      </c>
-      <c r="X2" t="str">
-        <f>'Vehicle Data'!AG2</f>
-        <v>BMW</v>
-      </c>
-      <c r="Y2" t="str">
-        <f>'Vehicle Data'!BC2</f>
-        <v>Audi</v>
-      </c>
-      <c r="Z2" t="str">
-        <f>'Vehicle Data'!J2</f>
-        <v>Seat</v>
-      </c>
-      <c r="AA2" t="str">
-        <f>'Vehicle Data'!AZ2</f>
-        <v>Mini</v>
-      </c>
-      <c r="AB2" t="str">
-        <f>'Vehicle Data'!K2</f>
-        <v>Seat</v>
-      </c>
-      <c r="AC2" t="str">
-        <f>'Vehicle Data'!L2</f>
-        <v>Porsche</v>
-      </c>
-      <c r="AD2" t="str">
-        <f>'Vehicle Data'!BN2</f>
-        <v>Jaguar</v>
-      </c>
-      <c r="AE2" t="str">
-        <f>'Vehicle Data'!AU2</f>
-        <v>Bentley</v>
-      </c>
-      <c r="AF2" t="str">
-        <f>'Vehicle Data'!AC2</f>
-        <v>Rolls-Royce</v>
-      </c>
-      <c r="AG2" t="str">
-        <f>'Vehicle Data'!BF2</f>
-        <v>Mercedes Maybach</v>
-      </c>
-      <c r="AH2" t="str">
-        <f>'Vehicle Data'!BB2</f>
-        <v>Toyota</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>244</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>244</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>269</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>274</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>274</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>291</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>296</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>296</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>308</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>312</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>317</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>322</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>325</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>325</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>333</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>333</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>333</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>333</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>355</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>360</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>360</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>360</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>360</v>
-      </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58">
       <c r="A5" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D5">
-        <f ca="1">RANDBETWEEN(50,100)/10</f>
-        <v>6.1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:T19" ca="1" si="0">RANDBETWEEN(50,100)/10</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.1</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.9</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.1</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.1</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.7</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.9</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.6</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6</v>
-      </c>
-      <c r="R5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.6</v>
-      </c>
-      <c r="S5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.4</v>
-      </c>
-      <c r="T5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.6</v>
-      </c>
-      <c r="U5">
-        <f t="shared" ref="U5:AH10" ca="1" si="1">RANDBETWEEN(50,100)/10</f>
-        <v>9.6</v>
-      </c>
-      <c r="V5">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.7</v>
-      </c>
-      <c r="W5">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.2</v>
-      </c>
-      <c r="X5">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.4</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.1</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.4</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.8</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.4</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.4</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.8</v>
-      </c>
-      <c r="AF5">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.6</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.9</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.5</v>
-      </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58">
       <c r="A6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D6">
-        <f t="shared" ref="D6:S35" ca="1" si="2">RANDBETWEEN(50,100)/10</f>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.6</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.1</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.8</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.9</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.9</v>
-      </c>
-      <c r="P6">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.4</v>
-      </c>
-      <c r="R6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="S6">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.1</v>
-      </c>
-      <c r="T6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="U6">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.4</v>
-      </c>
-      <c r="V6">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.9</v>
-      </c>
-      <c r="W6">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.6</v>
-      </c>
-      <c r="X6">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.5</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.4</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.1</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.4</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.4</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.4</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.7</v>
-      </c>
-      <c r="AH6">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.8000000000000007</v>
-      </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58">
       <c r="A7" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.3</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.9</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.6</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="P7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.4</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="R7">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="S7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.9</v>
-      </c>
-      <c r="T7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="U7">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.3</v>
-      </c>
-      <c r="V7">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="W7">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="X7">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.1</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.9</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.3</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.4</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.6</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.5</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.6</v>
-      </c>
-      <c r="AH7">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58">
       <c r="A8" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.4</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.7</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.9</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.4</v>
-      </c>
-      <c r="K8">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.3</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.3</v>
-      </c>
-      <c r="P8">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R8">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="S8">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="T8">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.6</v>
-      </c>
-      <c r="U8">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.6</v>
-      </c>
-      <c r="V8">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.3</v>
-      </c>
-      <c r="W8">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.9</v>
-      </c>
-      <c r="X8">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.7</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.8</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.7</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.9</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.6</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.4</v>
-      </c>
-      <c r="AE8">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.9</v>
-      </c>
-      <c r="AG8">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.8</v>
-      </c>
-      <c r="AH8">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.8</v>
-      </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58">
       <c r="A9" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.4</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.9</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.7</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="N9">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8</v>
-      </c>
-      <c r="O9">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="P9">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
-      </c>
-      <c r="R9">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="S9">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1</v>
-      </c>
-      <c r="T9">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="U9">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.5</v>
-      </c>
-      <c r="V9">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.4</v>
-      </c>
-      <c r="W9">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.4</v>
-      </c>
-      <c r="X9">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.1</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.5</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.7</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.6</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.3</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="AE9">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.9</v>
-      </c>
-      <c r="AF9">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.3</v>
-      </c>
-      <c r="AG9">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AH9">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.7</v>
-      </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58">
       <c r="A10" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.4</v>
-      </c>
-      <c r="K10">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7</v>
-      </c>
-      <c r="L10">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N10">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.3</v>
-      </c>
-      <c r="O10">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P10">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.2</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="R10">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2</v>
-      </c>
-      <c r="S10">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.1</v>
-      </c>
-      <c r="T10">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="U10">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.3</v>
-      </c>
-      <c r="V10">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="W10">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.6</v>
-      </c>
-      <c r="X10">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.3</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.8</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.2</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.4</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.1</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.3</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AH10">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.3000000000000007</v>
-      </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58">
       <c r="A12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.6</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.2</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="K12">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.1</v>
-      </c>
-      <c r="L12">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.8</v>
-      </c>
-      <c r="M12">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="N12">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8</v>
-      </c>
-      <c r="O12">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
-      </c>
-      <c r="P12">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1</v>
-      </c>
-      <c r="R12">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.7</v>
-      </c>
-      <c r="S12">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="T12">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="U12">
-        <f t="shared" ref="U12:AH21" ca="1" si="3">RANDBETWEEN(50,100)/10</f>
-        <v>5.7</v>
-      </c>
-      <c r="V12">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.2</v>
-      </c>
-      <c r="W12">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="X12">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.1</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.3</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.5</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.6</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.8</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.4</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.1</v>
-      </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58">
       <c r="A13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.4</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.9</v>
-      </c>
-      <c r="J13">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3</v>
-      </c>
-      <c r="K13">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="L13">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="M13">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7</v>
-      </c>
-      <c r="N13">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="O13">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="P13">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6</v>
-      </c>
-      <c r="R13">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.3</v>
-      </c>
-      <c r="S13">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="T13">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="U13">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.6</v>
-      </c>
-      <c r="V13">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.6</v>
-      </c>
-      <c r="W13">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.3</v>
-      </c>
-      <c r="X13">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.1</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.9</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.5</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.2</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.4</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.6</v>
-      </c>
-      <c r="AF13">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AG13">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.7</v>
-      </c>
-      <c r="AH13">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.1999999999999993</v>
-      </c>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58">
       <c r="A14" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.6</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J14">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1</v>
-      </c>
-      <c r="K14">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7</v>
-      </c>
-      <c r="L14">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.3</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N14">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.9</v>
-      </c>
-      <c r="P14">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3</v>
-      </c>
-      <c r="R14">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="S14">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.4</v>
-      </c>
-      <c r="T14">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="U14">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.6</v>
-      </c>
-      <c r="V14">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="W14">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.4</v>
-      </c>
-      <c r="X14">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.6</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.2</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.4</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.2</v>
-      </c>
-      <c r="AE14">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
-      </c>
-      <c r="AF14">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.5</v>
-      </c>
-      <c r="AG14">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="AH14">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.4</v>
-      </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58">
       <c r="A15" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.9</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.9</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.3</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8</v>
-      </c>
-      <c r="I15">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="J15">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="K15">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="L15">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6</v>
-      </c>
-      <c r="N15">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="O15">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2</v>
-      </c>
-      <c r="P15">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="R15">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="S15">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.3</v>
-      </c>
-      <c r="T15">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6</v>
-      </c>
-      <c r="U15">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.8</v>
-      </c>
-      <c r="V15">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9</v>
-      </c>
-      <c r="W15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.2</v>
-      </c>
-      <c r="X15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.1</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.4</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.8</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.8</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.3</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.2</v>
-      </c>
-      <c r="AG15">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AH15">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.9</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I17">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.9</v>
-      </c>
-      <c r="J17">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="K17">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.9</v>
-      </c>
-      <c r="L17">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.1</v>
-      </c>
-      <c r="M17">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="N17">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="O17">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.9</v>
-      </c>
-      <c r="P17">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.1</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="R17">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2</v>
-      </c>
-      <c r="S17">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6</v>
-      </c>
-      <c r="T17">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="U17">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.2</v>
-      </c>
-      <c r="V17">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.8</v>
-      </c>
-      <c r="W17">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.4</v>
-      </c>
-      <c r="X17">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.7</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.1</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.8</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.2</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.4</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.6</v>
-      </c>
-      <c r="AF17">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AG17">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.9</v>
-      </c>
-      <c r="AH17">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.6</v>
-      </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6</v>
-      </c>
-      <c r="I18">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.3</v>
-      </c>
-      <c r="J18">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="K18">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L18">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.3</v>
-      </c>
-      <c r="M18">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="N18">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.4</v>
-      </c>
-      <c r="O18">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.8</v>
-      </c>
-      <c r="P18">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.4</v>
-      </c>
-      <c r="R18">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="S18">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="T18">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.2</v>
-      </c>
-      <c r="U18">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.4</v>
-      </c>
-      <c r="V18">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.4</v>
-      </c>
-      <c r="W18">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.6</v>
-      </c>
-      <c r="X18">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.2</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.4</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.4</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.6</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.1</v>
-      </c>
-      <c r="AE18">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AF18">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.1</v>
-      </c>
-      <c r="AG18">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AH18">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.9</v>
-      </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.1</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.4</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.3</v>
-      </c>
-      <c r="I19">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.4</v>
-      </c>
-      <c r="J19">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7</v>
-      </c>
-      <c r="K19">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="L19">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.6</v>
-      </c>
-      <c r="M19">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="N19">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.1</v>
-      </c>
-      <c r="O19">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="P19">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.2</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3</v>
-      </c>
-      <c r="R19">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.6</v>
-      </c>
-      <c r="S19">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="T19">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="U19">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.1</v>
-      </c>
-      <c r="V19">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.6</v>
-      </c>
-      <c r="W19">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.1</v>
-      </c>
-      <c r="X19">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.4</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.1</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.6</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.7</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="AD19">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.7</v>
-      </c>
-      <c r="AE19">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.5</v>
-      </c>
-      <c r="AF19">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
-      </c>
-      <c r="AG19">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.1</v>
-      </c>
-      <c r="AH19">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
-      </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.5</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.9</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.9</v>
-      </c>
-      <c r="I20">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.6</v>
-      </c>
-      <c r="J20">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="K20">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
-      </c>
-      <c r="L20">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.3</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N20">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="O20">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.2</v>
-      </c>
-      <c r="P20">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="R20">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.7</v>
-      </c>
-      <c r="S20">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.3</v>
-      </c>
-      <c r="T20">
-        <f t="shared" ref="Q20:T21" ca="1" si="4">RANDBETWEEN(50,100)/10</f>
-        <v>7.3</v>
-      </c>
-      <c r="U20">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="V20">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="W20">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.4</v>
-      </c>
-      <c r="X20">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.6</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.1</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.4</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.3</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.6</v>
-      </c>
-      <c r="AD20">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="AE20">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AF20">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.2</v>
-      </c>
-      <c r="AG20">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.3</v>
-      </c>
-      <c r="AH20">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.5</v>
-      </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.9</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.8</v>
-      </c>
-      <c r="G21">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.5</v>
-      </c>
-      <c r="H21">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I21">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.4</v>
-      </c>
-      <c r="J21">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="K21">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
-      </c>
-      <c r="L21">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.4</v>
-      </c>
-      <c r="M21">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.9</v>
-      </c>
-      <c r="N21">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="O21">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.4</v>
-      </c>
-      <c r="P21">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.5</v>
-      </c>
-      <c r="R21">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.4</v>
-      </c>
-      <c r="S21">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="T21">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.2</v>
-      </c>
-      <c r="U21">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="V21">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="W21">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.5</v>
-      </c>
-      <c r="X21">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.2</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.5</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.5</v>
-      </c>
-      <c r="AD21">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.8</v>
-      </c>
-      <c r="AE21">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.2</v>
-      </c>
-      <c r="AF21">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.8</v>
-      </c>
-      <c r="AG21">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.5</v>
-      </c>
-      <c r="AH21">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.9</v>
-      </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D23">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="G23">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.6</v>
-      </c>
-      <c r="H23">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.3</v>
-      </c>
-      <c r="I23">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J23">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="K23">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.5</v>
-      </c>
-      <c r="L23">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="M23">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N23">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="O23">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.8</v>
-      </c>
-      <c r="P23">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.9</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.9</v>
-      </c>
-      <c r="R23">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="S23">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="T23">
-        <f t="shared" ref="T23:AH27" ca="1" si="5">RANDBETWEEN(50,100)/10</f>
-        <v>6.5</v>
-      </c>
-      <c r="U23">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.6</v>
-      </c>
-      <c r="V23">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="W23">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.1</v>
-      </c>
-      <c r="X23">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.4</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.4</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.4</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.5</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.6</v>
-      </c>
-      <c r="AD23">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.5</v>
-      </c>
-      <c r="AE23">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.6</v>
-      </c>
-      <c r="AF23">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AG23">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.1</v>
-      </c>
-      <c r="AH23">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.6</v>
-      </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D24">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.1</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.1</v>
-      </c>
-      <c r="H24">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I24">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.6</v>
-      </c>
-      <c r="J24">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.9</v>
-      </c>
-      <c r="K24">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="L24">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.9</v>
-      </c>
-      <c r="M24">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.6</v>
-      </c>
-      <c r="N24">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="O24">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.5</v>
-      </c>
-      <c r="P24">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.5</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.1</v>
-      </c>
-      <c r="R24">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.3</v>
-      </c>
-      <c r="S24">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.6</v>
-      </c>
-      <c r="T24">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.9</v>
-      </c>
-      <c r="U24">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.1</v>
-      </c>
-      <c r="V24">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.8</v>
-      </c>
-      <c r="W24">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.5</v>
-      </c>
-      <c r="X24">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.6</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.4</v>
-      </c>
-      <c r="Z24">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.9</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="AD24">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="AE24">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AF24">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.1</v>
-      </c>
-      <c r="AG24">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.9</v>
-      </c>
-      <c r="AH24">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.2</v>
-      </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D25">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.6</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.3</v>
-      </c>
-      <c r="F25">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.6</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.5</v>
-      </c>
-      <c r="H25">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.2</v>
-      </c>
-      <c r="I25">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="J25">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9</v>
-      </c>
-      <c r="K25">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.6</v>
-      </c>
-      <c r="L25">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.4</v>
-      </c>
-      <c r="M25">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.2</v>
-      </c>
-      <c r="N25">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.3</v>
-      </c>
-      <c r="O25">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.4</v>
-      </c>
-      <c r="P25">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.3</v>
-      </c>
-      <c r="R25">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.4</v>
-      </c>
-      <c r="S25">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="T25">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.9</v>
-      </c>
-      <c r="U25">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.6</v>
-      </c>
-      <c r="V25">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.5</v>
-      </c>
-      <c r="W25">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.3</v>
-      </c>
-      <c r="X25">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.1</v>
-      </c>
-      <c r="Y25">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.9</v>
-      </c>
-      <c r="Z25">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.4</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.1</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.5</v>
-      </c>
-      <c r="AD25">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.2</v>
-      </c>
-      <c r="AE25">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.6</v>
-      </c>
-      <c r="AF25">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AG25">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AH25">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.6999999999999993</v>
-      </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.4</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.6</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.7</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
-      </c>
-      <c r="H26">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
-      </c>
-      <c r="I26">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.2</v>
-      </c>
-      <c r="J26">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.7</v>
-      </c>
-      <c r="K26">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.4</v>
-      </c>
-      <c r="L26">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.6</v>
-      </c>
-      <c r="M26">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.4</v>
-      </c>
-      <c r="N26">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.5</v>
-      </c>
-      <c r="O26">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.2</v>
-      </c>
-      <c r="P26">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.2</v>
-      </c>
-      <c r="R26">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.4</v>
-      </c>
-      <c r="S26">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="T26">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.7</v>
-      </c>
-      <c r="U26">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.2</v>
-      </c>
-      <c r="V26">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.4</v>
-      </c>
-      <c r="W26">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.7</v>
-      </c>
-      <c r="X26">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.4</v>
-      </c>
-      <c r="Z26">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.8</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.8</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.8</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AD26">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.8</v>
-      </c>
-      <c r="AE26">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.4</v>
-      </c>
-      <c r="AF26">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.6</v>
-      </c>
-      <c r="AG26">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.3</v>
-      </c>
-      <c r="AH26">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.4</v>
-      </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D27">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.8</v>
-      </c>
-      <c r="F27">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.5</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.8</v>
-      </c>
-      <c r="H27">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.9</v>
-      </c>
-      <c r="I27">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.2</v>
-      </c>
-      <c r="J27">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="K27">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="L27">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
-      </c>
-      <c r="M27">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.4</v>
-      </c>
-      <c r="N27">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.8</v>
-      </c>
-      <c r="O27">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.2</v>
-      </c>
-      <c r="P27">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.7</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.9</v>
-      </c>
-      <c r="R27">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
-      </c>
-      <c r="S27">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.7</v>
-      </c>
-      <c r="T27">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.8</v>
-      </c>
-      <c r="U27">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.6</v>
-      </c>
-      <c r="V27">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.3</v>
-      </c>
-      <c r="W27">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="X27">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.9</v>
-      </c>
-      <c r="Z27">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.9</v>
-      </c>
-      <c r="AA27">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.6</v>
-      </c>
-      <c r="AD27">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="AE27">
-        <f t="shared" ca="1" si="5"/>
-        <v>6.3</v>
-      </c>
-      <c r="AF27">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AG27">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.6</v>
-      </c>
-      <c r="AH27">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.0999999999999996</v>
-      </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D29">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F29">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.4</v>
-      </c>
-      <c r="G29">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="H29">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I29">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.7</v>
-      </c>
-      <c r="J29">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9</v>
-      </c>
-      <c r="K29">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.3</v>
-      </c>
-      <c r="L29">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
-      </c>
-      <c r="M29">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="N29">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.1</v>
-      </c>
-      <c r="O29">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="P29">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.2</v>
-      </c>
-      <c r="R29">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.1</v>
-      </c>
-      <c r="S29">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.7</v>
-      </c>
-      <c r="T29">
-        <f t="shared" ref="T29:AH35" ca="1" si="6">RANDBETWEEN(50,100)/10</f>
-        <v>8.5</v>
-      </c>
-      <c r="U29">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="V29">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.4</v>
-      </c>
-      <c r="W29">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.8</v>
-      </c>
-      <c r="X29">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.2</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.8</v>
-      </c>
-      <c r="Z29">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.2</v>
-      </c>
-      <c r="AA29">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="AB29">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.5</v>
-      </c>
-      <c r="AC29">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AD29">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.9</v>
-      </c>
-      <c r="AE29">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.3</v>
-      </c>
-      <c r="AF29">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AG29">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.7</v>
-      </c>
-      <c r="AH29">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.8</v>
-      </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D30">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.3</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.2</v>
-      </c>
-      <c r="G30">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H30">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.4</v>
-      </c>
-      <c r="I30">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.1</v>
-      </c>
-      <c r="J30">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.4</v>
-      </c>
-      <c r="K30">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.6</v>
-      </c>
-      <c r="L30">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.6</v>
-      </c>
-      <c r="M30">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.4</v>
-      </c>
-      <c r="N30">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.7</v>
-      </c>
-      <c r="O30">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.9</v>
-      </c>
-      <c r="P30">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="R30">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="S30">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="T30">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="U30">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.5</v>
-      </c>
-      <c r="V30">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.5</v>
-      </c>
-      <c r="W30">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.7</v>
-      </c>
-      <c r="X30">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.4</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.4</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.4</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.4</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AD30">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.9</v>
-      </c>
-      <c r="AE30">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.9</v>
-      </c>
-      <c r="AF30">
-        <f t="shared" ca="1" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="AG30">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.5</v>
-      </c>
-      <c r="AH30">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
-      </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D31">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.4</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.3</v>
-      </c>
-      <c r="G31">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.8</v>
-      </c>
-      <c r="H31">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.5</v>
-      </c>
-      <c r="I31">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.3</v>
-      </c>
-      <c r="J31">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="K31">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.4</v>
-      </c>
-      <c r="L31">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.9</v>
-      </c>
-      <c r="M31">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N31">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="O31">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9</v>
-      </c>
-      <c r="P31">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.8</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.9</v>
-      </c>
-      <c r="R31">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.6</v>
-      </c>
-      <c r="S31">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.6</v>
-      </c>
-      <c r="T31">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.9</v>
-      </c>
-      <c r="U31">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.4</v>
-      </c>
-      <c r="V31">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.5</v>
-      </c>
-      <c r="W31">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.4</v>
-      </c>
-      <c r="X31">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.2</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.4</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AA31">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.9</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.5</v>
-      </c>
-      <c r="AD31">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.1</v>
-      </c>
-      <c r="AE31">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="AF31">
-        <f t="shared" ca="1" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="AG31">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AH31">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.3</v>
-      </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D32">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.4</v>
-      </c>
-      <c r="E32">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.2</v>
-      </c>
-      <c r="F32">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.5</v>
-      </c>
-      <c r="G32">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.4</v>
-      </c>
-      <c r="H32">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I32">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.4</v>
-      </c>
-      <c r="J32">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.9</v>
-      </c>
-      <c r="K32">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.1</v>
-      </c>
-      <c r="L32">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.9</v>
-      </c>
-      <c r="M32">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.6</v>
-      </c>
-      <c r="N32">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.3</v>
-      </c>
-      <c r="O32">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.6</v>
-      </c>
-      <c r="P32">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.3</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" ref="Q32:S35" ca="1" si="7">RANDBETWEEN(50,100)/10</f>
-        <v>5.2</v>
-      </c>
-      <c r="R32">
-        <f t="shared" ca="1" si="7"/>
-        <v>9.1</v>
-      </c>
-      <c r="S32">
-        <f t="shared" ca="1" si="7"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="T32">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.6</v>
-      </c>
-      <c r="U32">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="V32">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.5</v>
-      </c>
-      <c r="W32">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.1</v>
-      </c>
-      <c r="X32">
-        <f t="shared" ca="1" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.9</v>
-      </c>
-      <c r="Z32">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="AA32">
-        <f t="shared" ca="1" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.3</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.9</v>
-      </c>
-      <c r="AD32">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AE32">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.4</v>
-      </c>
-      <c r="AF32">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.8</v>
-      </c>
-      <c r="AG32">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.4</v>
-      </c>
-      <c r="AH32">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.5</v>
-      </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D33">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.9</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.4</v>
-      </c>
-      <c r="F33">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G33">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.1</v>
-      </c>
-      <c r="H33">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.4</v>
-      </c>
-      <c r="I33">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.9</v>
-      </c>
-      <c r="J33">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.8</v>
-      </c>
-      <c r="K33">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="L33">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.5</v>
-      </c>
-      <c r="M33">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.5</v>
-      </c>
-      <c r="N33">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.8</v>
-      </c>
-      <c r="O33">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="P33">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" ca="1" si="7"/>
-        <v>8.1</v>
-      </c>
-      <c r="R33">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="S33">
-        <f t="shared" ca="1" si="7"/>
-        <v>9.5</v>
-      </c>
-      <c r="T33">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.7</v>
-      </c>
-      <c r="U33">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.6</v>
-      </c>
-      <c r="V33">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="W33">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.3</v>
-      </c>
-      <c r="X33">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="Y33">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.2</v>
-      </c>
-      <c r="Z33">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.7</v>
-      </c>
-      <c r="AA33">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.6</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.9</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.4</v>
-      </c>
-      <c r="AD33">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AE33">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AF33">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.6</v>
-      </c>
-      <c r="AG33">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AH33">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
-      </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D34">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.3</v>
-      </c>
-      <c r="F34">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.6</v>
-      </c>
-      <c r="G34">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.7</v>
-      </c>
-      <c r="H34">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.9</v>
-      </c>
-      <c r="I34">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="J34">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.3</v>
-      </c>
-      <c r="K34">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.6</v>
-      </c>
-      <c r="L34">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.6</v>
-      </c>
-      <c r="M34">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.2</v>
-      </c>
-      <c r="N34">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="O34">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.4</v>
-      </c>
-      <c r="P34">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" ca="1" si="7"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="R34">
-        <f t="shared" ca="1" si="7"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="S34">
-        <f t="shared" ca="1" si="7"/>
-        <v>9.1</v>
-      </c>
-      <c r="T34">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.8</v>
-      </c>
-      <c r="U34">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="V34">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.7</v>
-      </c>
-      <c r="W34">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.5</v>
-      </c>
-      <c r="X34">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.6</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.1</v>
-      </c>
-      <c r="Z34">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AA34">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.1</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AC34">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.9</v>
-      </c>
-      <c r="AD34">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.4</v>
-      </c>
-      <c r="AE34">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.4</v>
-      </c>
-      <c r="AF34">
-        <f t="shared" ca="1" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="AG34">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.4</v>
-      </c>
-      <c r="AH34">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.6</v>
-      </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D35">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.8</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1</v>
-      </c>
-      <c r="F35">
-        <f t="shared" ref="F35:P35" ca="1" si="8">RANDBETWEEN(50,100)/10</f>
-        <v>7</v>
-      </c>
-      <c r="G35">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.3</v>
-      </c>
-      <c r="H35">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.1</v>
-      </c>
-      <c r="I35">
-        <f t="shared" ca="1" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="J35">
-        <f t="shared" ca="1" si="8"/>
-        <v>5.2</v>
-      </c>
-      <c r="K35">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.4</v>
-      </c>
-      <c r="L35">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.8</v>
-      </c>
-      <c r="M35">
-        <f t="shared" ca="1" si="8"/>
-        <v>7.7</v>
-      </c>
-      <c r="N35">
-        <f t="shared" ca="1" si="8"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="O35">
-        <f t="shared" ca="1" si="8"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="P35">
-        <f t="shared" ca="1" si="8"/>
-        <v>7.7</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" ca="1" si="7"/>
-        <v>7.5</v>
-      </c>
-      <c r="R35">
-        <f t="shared" ca="1" si="7"/>
-        <v>7.3</v>
-      </c>
-      <c r="S35">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="T35">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3</v>
-      </c>
-      <c r="U35">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.6</v>
-      </c>
-      <c r="V35">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.7</v>
-      </c>
-      <c r="W35">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="X35">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.7</v>
-      </c>
-      <c r="Y35">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.6</v>
-      </c>
-      <c r="Z35">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.6</v>
-      </c>
-      <c r="AA35">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AB35">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.4</v>
-      </c>
-      <c r="AC35">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AD35">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.4</v>
-      </c>
-      <c r="AE35">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.2</v>
-      </c>
-      <c r="AF35">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.3</v>
-      </c>
-      <c r="AG35">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AH35">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.9</v>
-      </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D37">
-        <f t="shared" ref="D37:AA40" ca="1" si="9">RANDBETWEEN(50,100)/10</f>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.6</v>
-      </c>
-      <c r="F37">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G37">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.4</v>
-      </c>
-      <c r="H37">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="I37">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="J37">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.1</v>
-      </c>
-      <c r="K37">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.9</v>
-      </c>
-      <c r="L37">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="M37">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.1</v>
-      </c>
-      <c r="N37">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.1</v>
-      </c>
-      <c r="O37">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.4</v>
-      </c>
-      <c r="P37">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.8</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="R37">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.5</v>
-      </c>
-      <c r="S37">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.8</v>
-      </c>
-      <c r="T37">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.4</v>
-      </c>
-      <c r="U37">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="V37">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.4</v>
-      </c>
-      <c r="W37">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.3</v>
-      </c>
-      <c r="X37">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.8</v>
-      </c>
-      <c r="Z37">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.8</v>
-      </c>
-      <c r="AA37">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.4</v>
-      </c>
-      <c r="AB37">
-        <f t="shared" ref="AB37:AH37" ca="1" si="10">RANDBETWEEN(50,100)/10</f>
-        <v>8</v>
-      </c>
-      <c r="AC37">
-        <f t="shared" ca="1" si="10"/>
-        <v>7.9</v>
-      </c>
-      <c r="AD37">
-        <f t="shared" ca="1" si="10"/>
-        <v>6.1</v>
-      </c>
-      <c r="AE37">
-        <f t="shared" ca="1" si="10"/>
-        <v>7.7</v>
-      </c>
-      <c r="AF37">
-        <f t="shared" ca="1" si="10"/>
-        <v>9.9</v>
-      </c>
-      <c r="AG37">
-        <f t="shared" ca="1" si="10"/>
-        <v>8.6</v>
-      </c>
-      <c r="AH37">
-        <f t="shared" ca="1" si="10"/>
-        <v>9.6</v>
-      </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D38">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.9</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.4</v>
-      </c>
-      <c r="F38">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G38">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="H38">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="I38">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.3</v>
-      </c>
-      <c r="J38">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.1</v>
-      </c>
-      <c r="K38">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.8</v>
-      </c>
-      <c r="L38">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.1</v>
-      </c>
-      <c r="M38">
-        <f t="shared" ca="1" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="N38">
-        <f t="shared" ca="1" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="O38">
-        <f t="shared" ca="1" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="P38">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.9</v>
-      </c>
-      <c r="R38">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.6</v>
-      </c>
-      <c r="S38">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.4</v>
-      </c>
-      <c r="T38">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.4</v>
-      </c>
-      <c r="U38">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.6</v>
-      </c>
-      <c r="V38">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.1</v>
-      </c>
-      <c r="W38">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.4</v>
-      </c>
-      <c r="X38">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.8</v>
-      </c>
-      <c r="Z38">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AA38">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AB38">
-        <f t="shared" ref="AA38:AH40" ca="1" si="11">RANDBETWEEN(50,100)/10</f>
-        <v>5.2</v>
-      </c>
-      <c r="AC38">
-        <f t="shared" ca="1" si="11"/>
-        <v>9.6</v>
-      </c>
-      <c r="AD38">
-        <f t="shared" ca="1" si="11"/>
-        <v>6.2</v>
-      </c>
-      <c r="AE38">
-        <f t="shared" ca="1" si="11"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AF38">
-        <f t="shared" ca="1" si="11"/>
-        <v>9.9</v>
-      </c>
-      <c r="AG38">
-        <f t="shared" ca="1" si="11"/>
-        <v>6.7</v>
-      </c>
-      <c r="AH38">
-        <f t="shared" ca="1" si="11"/>
-        <v>6.3</v>
-      </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D39">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.9</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.2</v>
-      </c>
-      <c r="F39">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.6</v>
-      </c>
-      <c r="G39">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.7</v>
-      </c>
-      <c r="H39">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.8</v>
-      </c>
-      <c r="I39">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.4</v>
-      </c>
-      <c r="J39">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="K39">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L39">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.7</v>
-      </c>
-      <c r="M39">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.6</v>
-      </c>
-      <c r="N39">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.6</v>
-      </c>
-      <c r="O39">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.8</v>
-      </c>
-      <c r="P39">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="R39">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="S39">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.1</v>
-      </c>
-      <c r="T39">
-        <f t="shared" ca="1" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="U39">
-        <f t="shared" ca="1" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="V39">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="W39">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.5</v>
-      </c>
-      <c r="X39">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.5</v>
-      </c>
-      <c r="Y39">
-        <f t="shared" ca="1" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="Z39">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.6</v>
-      </c>
-      <c r="AA39">
-        <f t="shared" ca="1" si="11"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AB39">
-        <f t="shared" ca="1" si="11"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AC39">
-        <f t="shared" ca="1" si="11"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AD39">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="AE39">
-        <f t="shared" ca="1" si="11"/>
-        <v>6.4</v>
-      </c>
-      <c r="AF39">
-        <f t="shared" ca="1" si="11"/>
-        <v>6.6</v>
-      </c>
-      <c r="AG39">
-        <f t="shared" ca="1" si="11"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AH39">
-        <f t="shared" ca="1" si="11"/>
-        <v>7.6</v>
-      </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D40">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.4</v>
-      </c>
-      <c r="E40">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.8</v>
-      </c>
-      <c r="F40">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="G40">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="H40">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="I40">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="J40">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.1</v>
-      </c>
-      <c r="K40">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.5</v>
-      </c>
-      <c r="L40">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.5</v>
-      </c>
-      <c r="M40">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.5</v>
-      </c>
-      <c r="N40">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.5</v>
-      </c>
-      <c r="O40">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.4</v>
-      </c>
-      <c r="P40">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.3</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.2</v>
-      </c>
-      <c r="R40">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="S40">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="T40">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="U40">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.9</v>
-      </c>
-      <c r="V40">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.1</v>
-      </c>
-      <c r="W40">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.9</v>
-      </c>
-      <c r="X40">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.4</v>
-      </c>
-      <c r="Y40">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.5</v>
-      </c>
-      <c r="Z40">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AA40">
-        <f t="shared" ca="1" si="11"/>
-        <v>9.4</v>
-      </c>
-      <c r="AB40">
-        <f t="shared" ca="1" si="11"/>
-        <v>6.7</v>
-      </c>
-      <c r="AC40">
-        <f t="shared" ca="1" si="11"/>
-        <v>6.6</v>
-      </c>
-      <c r="AD40">
-        <f t="shared" ca="1" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="AE40">
-        <f t="shared" ca="1" si="11"/>
-        <v>5.5</v>
-      </c>
-      <c r="AF40">
-        <f t="shared" ca="1" si="11"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AG40">
-        <f t="shared" ca="1" si="11"/>
-        <v>8.4</v>
-      </c>
-      <c r="AH40">
-        <f t="shared" ca="1" si="11"/>
-        <v>6.1</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>